--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1490DB11-9F56-49F4-9DC6-D6B22A6368CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF922D48-863F-4C55-8852-E5A94FE9AFE4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="336">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1034,6 +1034,18 @@
   </si>
   <si>
     <t>Class</t>
+  </si>
+  <si>
+    <t>PassedGolf Code</t>
+  </si>
+  <si>
+    <t>PassedLogical Order in If Else Statements</t>
+  </si>
+  <si>
+    <t>PassedChaining If Else Statements</t>
+  </si>
+  <si>
+    <t>11/28 - 11/30</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1093,11 +1105,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1115,24 +1128,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3980,7 +3975,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2CE3222-2093-4C74-8F39-CD9CEE902175}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2CE3222-2093-4C74-8F39-CD9CEE902175}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A319" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -7553,11 +7548,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854B096C-9AB9-4373-9BA6-F815FE4F1473}">
-  <dimension ref="A1:E299"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F298" sqref="F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7567,6 +7562,7 @@
     <col min="3" max="3" width="3.6796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="77.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.2265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
@@ -8787,7 +8783,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>71</v>
+        <v>333</v>
       </c>
       <c r="E72" s="2">
         <v>43430</v>
@@ -8804,7 +8800,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>72</v>
+        <v>334</v>
       </c>
       <c r="E73" s="2">
         <v>43430</v>
@@ -8821,7 +8817,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>73</v>
+        <v>332</v>
       </c>
       <c r="E74" s="2">
         <v>43430</v>
@@ -8841,7 +8837,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="2">
-        <v>43430</v>
+        <v>43431</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.75">
@@ -8858,7 +8854,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="2">
-        <v>43430</v>
+        <v>43431</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.75">
@@ -9201,7 +9197,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -9217,8 +9213,11 @@
       <c r="E97" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F97" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -9234,8 +9233,11 @@
       <c r="E98" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F98" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -9251,8 +9253,11 @@
       <c r="E99" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F99" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -9268,8 +9273,11 @@
       <c r="E100" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F100" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -9285,8 +9293,11 @@
       <c r="E101" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F101" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -9302,8 +9313,11 @@
       <c r="E102" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F102" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -9319,8 +9333,11 @@
       <c r="E103" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F103" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -9336,8 +9353,11 @@
       <c r="E104" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F104" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -9353,8 +9373,11 @@
       <c r="E105" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F105" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -9370,8 +9393,11 @@
       <c r="E106" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F106" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A107" s="1">
         <v>1</v>
       </c>
@@ -9387,8 +9413,11 @@
       <c r="E107" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F107" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A108" s="1">
         <v>1</v>
       </c>
@@ -9404,8 +9433,11 @@
       <c r="E108" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F108" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -9421,8 +9453,11 @@
       <c r="E109" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F109" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -9438,8 +9473,11 @@
       <c r="E110" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F110" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A111" s="1">
         <v>2</v>
       </c>
@@ -9455,8 +9493,11 @@
       <c r="E111" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F111" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A112" s="1">
         <v>2</v>
       </c>
@@ -9472,8 +9513,11 @@
       <c r="E112" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F112" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -9489,8 +9533,11 @@
       <c r="E113" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F113" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -9506,8 +9553,11 @@
       <c r="E114" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F114" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -9523,8 +9573,11 @@
       <c r="E115" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F115" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -9540,8 +9593,11 @@
       <c r="E116" s="2">
         <v>43432</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F116" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -9557,8 +9613,11 @@
       <c r="E117" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F117" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -9574,8 +9633,11 @@
       <c r="E118" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F118" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -9591,8 +9653,11 @@
       <c r="E119" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F119" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -9608,8 +9673,11 @@
       <c r="E120" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F120" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -9625,8 +9693,11 @@
       <c r="E121" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F121" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A122" s="1">
         <v>2</v>
       </c>
@@ -9642,8 +9713,11 @@
       <c r="E122" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F122" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -9659,8 +9733,11 @@
       <c r="E123" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F123" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -9676,8 +9753,11 @@
       <c r="E124" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F124" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -9693,8 +9773,11 @@
       <c r="E125" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F125" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -9710,8 +9793,11 @@
       <c r="E126" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F126" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -9727,8 +9813,11 @@
       <c r="E127" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F127" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -9744,8 +9833,11 @@
       <c r="E128" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F128" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -9761,8 +9853,11 @@
       <c r="E129" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F129" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -9778,8 +9873,11 @@
       <c r="E130" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F130" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -9795,8 +9893,11 @@
       <c r="E131" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F131" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -9812,8 +9913,11 @@
       <c r="E132" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F132" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -9829,8 +9933,11 @@
       <c r="E133" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F133" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -9846,8 +9953,11 @@
       <c r="E134" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F134" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -9863,8 +9973,11 @@
       <c r="E135" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F135" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -9880,8 +9993,11 @@
       <c r="E136" s="2">
         <v>43433</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F136" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A137" s="1">
         <v>3</v>
       </c>
@@ -9897,8 +10013,11 @@
       <c r="E137" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F137" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A138" s="1">
         <v>3</v>
       </c>
@@ -9914,8 +10033,11 @@
       <c r="E138" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F138" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A139" s="1">
         <v>3</v>
       </c>
@@ -9931,8 +10053,11 @@
       <c r="E139" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F139" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A140" s="1">
         <v>3</v>
       </c>
@@ -9948,8 +10073,11 @@
       <c r="E140" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F140" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A141" s="1">
         <v>3</v>
       </c>
@@ -9965,8 +10093,11 @@
       <c r="E141" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F141" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A142" s="1">
         <v>3</v>
       </c>
@@ -9982,8 +10113,11 @@
       <c r="E142" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F142" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A143" s="1">
         <v>3</v>
       </c>
@@ -9999,8 +10133,11 @@
       <c r="E143" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F143" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A144" s="1">
         <v>3</v>
       </c>
@@ -10016,8 +10153,11 @@
       <c r="E144" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F144" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A145" s="1">
         <v>3</v>
       </c>
@@ -10033,8 +10173,11 @@
       <c r="E145" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F145" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A146" s="1">
         <v>3</v>
       </c>
@@ -10050,8 +10193,11 @@
       <c r="E146" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F146" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A147" s="1">
         <v>3</v>
       </c>
@@ -10067,8 +10213,11 @@
       <c r="E147" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F147" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A148" s="1">
         <v>3</v>
       </c>
@@ -10084,8 +10233,11 @@
       <c r="E148" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F148" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A149" s="1">
         <v>3</v>
       </c>
@@ -10101,8 +10253,11 @@
       <c r="E149" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F149" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -10118,8 +10273,11 @@
       <c r="E150" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F150" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A151" s="1">
         <v>3</v>
       </c>
@@ -10135,8 +10293,11 @@
       <c r="E151" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F151" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A152" s="1">
         <v>3</v>
       </c>
@@ -10152,8 +10313,11 @@
       <c r="E152" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F152" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A153" s="1">
         <v>3</v>
       </c>
@@ -10169,8 +10333,11 @@
       <c r="E153" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F153" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A154" s="1">
         <v>3</v>
       </c>
@@ -10186,8 +10353,11 @@
       <c r="E154" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F154" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A155" s="1">
         <v>3</v>
       </c>
@@ -10203,8 +10373,11 @@
       <c r="E155" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F155" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A156" s="1">
         <v>3</v>
       </c>
@@ -10220,8 +10393,11 @@
       <c r="E156" s="2">
         <v>43434</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F156" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A157" s="1">
         <v>3</v>
       </c>
@@ -10237,8 +10413,11 @@
       <c r="E157" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F157" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A158" s="1">
         <v>3</v>
       </c>
@@ -10254,8 +10433,11 @@
       <c r="E158" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F158" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A159" s="1">
         <v>3</v>
       </c>
@@ -10271,8 +10453,11 @@
       <c r="E159" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F159" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A160" s="1">
         <v>3</v>
       </c>
@@ -10288,8 +10473,11 @@
       <c r="E160" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F160" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A161" s="1">
         <v>3</v>
       </c>
@@ -10305,8 +10493,11 @@
       <c r="E161" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F161" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A162" s="1">
         <v>3</v>
       </c>
@@ -10322,8 +10513,11 @@
       <c r="E162" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F162" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A163" s="1">
         <v>3</v>
       </c>
@@ -10339,8 +10533,11 @@
       <c r="E163" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F163" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A164" s="1">
         <v>3</v>
       </c>
@@ -10356,8 +10553,11 @@
       <c r="E164" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F164" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A165" s="1">
         <v>3</v>
       </c>
@@ -10373,8 +10573,11 @@
       <c r="E165" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F165" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A166" s="1">
         <v>3</v>
       </c>
@@ -10390,8 +10593,11 @@
       <c r="E166" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F166" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A167" s="1">
         <v>3</v>
       </c>
@@ -10407,8 +10613,11 @@
       <c r="E167" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F167" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A168" s="1">
         <v>3</v>
       </c>
@@ -10424,8 +10633,11 @@
       <c r="E168" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F168" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A169" s="1">
         <v>3</v>
       </c>
@@ -10441,8 +10653,11 @@
       <c r="E169" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F169" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A170" s="1">
         <v>4</v>
       </c>
@@ -10458,8 +10673,11 @@
       <c r="E170" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F170" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A171" s="1">
         <v>4</v>
       </c>
@@ -10475,8 +10693,11 @@
       <c r="E171" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F171" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A172" s="1">
         <v>4</v>
       </c>
@@ -10492,8 +10713,11 @@
       <c r="E172" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F172" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A173" s="1">
         <v>4</v>
       </c>
@@ -10509,8 +10733,11 @@
       <c r="E173" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F173" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A174" s="1">
         <v>4</v>
       </c>
@@ -10526,8 +10753,11 @@
       <c r="E174" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F174" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A175" s="1">
         <v>4</v>
       </c>
@@ -10543,8 +10773,11 @@
       <c r="E175" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F175" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A176" s="1">
         <v>4</v>
       </c>
@@ -10560,8 +10793,11 @@
       <c r="E176" s="2">
         <v>43435</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F176" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A177" s="1">
         <v>4</v>
       </c>
@@ -10577,8 +10813,11 @@
       <c r="E177" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F177" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A178" s="1">
         <v>4</v>
       </c>
@@ -10594,8 +10833,11 @@
       <c r="E178" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F178" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A179" s="1">
         <v>4</v>
       </c>
@@ -10611,8 +10853,11 @@
       <c r="E179" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F179" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A180" s="1">
         <v>4</v>
       </c>
@@ -10628,8 +10873,11 @@
       <c r="E180" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F180" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A181" s="1">
         <v>4</v>
       </c>
@@ -10645,8 +10893,11 @@
       <c r="E181" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F181" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A182" s="1">
         <v>4</v>
       </c>
@@ -10662,8 +10913,11 @@
       <c r="E182" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F182" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A183" s="1">
         <v>5</v>
       </c>
@@ -10679,8 +10933,11 @@
       <c r="E183" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F183" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A184" s="1">
         <v>5</v>
       </c>
@@ -10696,8 +10953,11 @@
       <c r="E184" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F184" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A185" s="1">
         <v>5</v>
       </c>
@@ -10713,8 +10973,11 @@
       <c r="E185" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F185" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A186" s="1">
         <v>5</v>
       </c>
@@ -10730,8 +10993,11 @@
       <c r="E186" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F186" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A187" s="1">
         <v>5</v>
       </c>
@@ -10747,8 +11013,11 @@
       <c r="E187" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F187" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A188" s="1">
         <v>5</v>
       </c>
@@ -10764,8 +11033,11 @@
       <c r="E188" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F188" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A189" s="1">
         <v>5</v>
       </c>
@@ -10781,8 +11053,11 @@
       <c r="E189" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F189" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A190" s="1">
         <v>5</v>
       </c>
@@ -10798,8 +11073,11 @@
       <c r="E190" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F190" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A191" s="1">
         <v>5</v>
       </c>
@@ -10815,8 +11093,11 @@
       <c r="E191" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F191" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A192" s="1">
         <v>5</v>
       </c>
@@ -10832,8 +11113,11 @@
       <c r="E192" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F192" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A193" s="1">
         <v>5</v>
       </c>
@@ -10849,8 +11133,11 @@
       <c r="E193" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F193" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A194" s="1">
         <v>5</v>
       </c>
@@ -10866,8 +11153,11 @@
       <c r="E194" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F194" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A195" s="1">
         <v>5</v>
       </c>
@@ -10883,8 +11173,11 @@
       <c r="E195" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F195" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A196" s="1">
         <v>5</v>
       </c>
@@ -10900,8 +11193,11 @@
       <c r="E196" s="2">
         <v>43436</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F196" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A197" s="1">
         <v>5</v>
       </c>
@@ -10917,8 +11213,11 @@
       <c r="E197" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F197" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A198" s="1">
         <v>5</v>
       </c>
@@ -10934,8 +11233,11 @@
       <c r="E198" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F198" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A199" s="1">
         <v>5</v>
       </c>
@@ -10951,8 +11253,11 @@
       <c r="E199" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F199" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A200" s="1">
         <v>5</v>
       </c>
@@ -10968,8 +11273,11 @@
       <c r="E200" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F200" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A201" s="1">
         <v>5</v>
       </c>
@@ -10985,8 +11293,11 @@
       <c r="E201" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F201" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A202" s="1">
         <v>5</v>
       </c>
@@ -11002,8 +11313,11 @@
       <c r="E202" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F202" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A203" s="1">
         <v>5</v>
       </c>
@@ -11019,8 +11333,11 @@
       <c r="E203" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F203" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A204" s="1">
         <v>6</v>
       </c>
@@ -11036,8 +11353,11 @@
       <c r="E204" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F204" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A205" s="1">
         <v>6</v>
       </c>
@@ -11053,8 +11373,11 @@
       <c r="E205" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F205" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A206" s="1">
         <v>6</v>
       </c>
@@ -11070,8 +11393,11 @@
       <c r="E206" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F206" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A207" s="1">
         <v>6</v>
       </c>
@@ -11087,8 +11413,11 @@
       <c r="E207" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F207" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A208" s="1">
         <v>6</v>
       </c>
@@ -11104,8 +11433,11 @@
       <c r="E208" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F208" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A209" s="1">
         <v>6</v>
       </c>
@@ -11121,8 +11453,11 @@
       <c r="E209" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F209" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A210" s="1">
         <v>6</v>
       </c>
@@ -11138,8 +11473,11 @@
       <c r="E210" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F210" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A211" s="1">
         <v>6</v>
       </c>
@@ -11155,8 +11493,11 @@
       <c r="E211" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F211" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A212" s="1">
         <v>6</v>
       </c>
@@ -11172,8 +11513,11 @@
       <c r="E212" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F212" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A213" s="1">
         <v>6</v>
       </c>
@@ -11189,8 +11533,11 @@
       <c r="E213" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F213" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A214" s="1">
         <v>6</v>
       </c>
@@ -11206,8 +11553,11 @@
       <c r="E214" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F214" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A215" s="1">
         <v>6</v>
       </c>
@@ -11223,8 +11573,11 @@
       <c r="E215" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F215" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A216" s="1">
         <v>6</v>
       </c>
@@ -11240,8 +11593,11 @@
       <c r="E216" s="2">
         <v>43437</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F216" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A217" s="1">
         <v>6</v>
       </c>
@@ -11257,8 +11613,11 @@
       <c r="E217" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F217" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A218" s="1">
         <v>6</v>
       </c>
@@ -11274,8 +11633,11 @@
       <c r="E218" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F218" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A219" s="1">
         <v>6</v>
       </c>
@@ -11291,8 +11653,11 @@
       <c r="E219" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F219" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A220" s="1">
         <v>6</v>
       </c>
@@ -11308,8 +11673,11 @@
       <c r="E220" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F220" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A221" s="1">
         <v>7</v>
       </c>
@@ -11325,8 +11693,11 @@
       <c r="E221" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F221" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A222" s="1">
         <v>7</v>
       </c>
@@ -11342,8 +11713,11 @@
       <c r="E222" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F222" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A223" s="1">
         <v>7</v>
       </c>
@@ -11359,8 +11733,11 @@
       <c r="E223" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F223" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A224" s="1">
         <v>7</v>
       </c>
@@ -11376,8 +11753,11 @@
       <c r="E224" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F224" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A225" s="1">
         <v>7</v>
       </c>
@@ -11393,8 +11773,11 @@
       <c r="E225" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F225" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A226" s="1">
         <v>7</v>
       </c>
@@ -11410,8 +11793,11 @@
       <c r="E226" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F226" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A227" s="1">
         <v>7</v>
       </c>
@@ -11427,8 +11813,11 @@
       <c r="E227" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F227" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A228" s="1">
         <v>7</v>
       </c>
@@ -11444,8 +11833,11 @@
       <c r="E228" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F228" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A229" s="1">
         <v>7</v>
       </c>
@@ -11461,8 +11853,11 @@
       <c r="E229" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F229" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A230" s="1">
         <v>7</v>
       </c>
@@ -11478,8 +11873,11 @@
       <c r="E230" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F230" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A231" s="1">
         <v>7</v>
       </c>
@@ -11495,8 +11893,11 @@
       <c r="E231" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F231" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A232" s="1">
         <v>7</v>
       </c>
@@ -11512,8 +11913,11 @@
       <c r="E232" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F232" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A233" s="1">
         <v>7</v>
       </c>
@@ -11529,8 +11933,11 @@
       <c r="E233" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F233" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A234" s="1">
         <v>7</v>
       </c>
@@ -11546,8 +11953,11 @@
       <c r="E234" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F234" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A235" s="1">
         <v>7</v>
       </c>
@@ -11563,8 +11973,11 @@
       <c r="E235" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F235" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A236" s="1">
         <v>7</v>
       </c>
@@ -11580,8 +11993,11 @@
       <c r="E236" s="2">
         <v>43438</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F236" s="7">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A237" s="1">
         <v>7</v>
       </c>
@@ -11597,8 +12013,11 @@
       <c r="E237" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F237" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A238" s="1">
         <v>7</v>
       </c>
@@ -11614,8 +12033,11 @@
       <c r="E238" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F238" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A239" s="1">
         <v>7</v>
       </c>
@@ -11631,8 +12053,11 @@
       <c r="E239" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F239" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A240" s="1">
         <v>7</v>
       </c>
@@ -11648,8 +12073,11 @@
       <c r="E240" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F240" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A241" s="1">
         <v>7</v>
       </c>
@@ -11665,8 +12093,11 @@
       <c r="E241" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F241" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A242" s="1">
         <v>7</v>
       </c>
@@ -11682,8 +12113,11 @@
       <c r="E242" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F242" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A243" s="1">
         <v>7</v>
       </c>
@@ -11699,8 +12133,11 @@
       <c r="E243" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F243" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A244" s="1">
         <v>7</v>
       </c>
@@ -11716,8 +12153,11 @@
       <c r="E244" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F244" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A245" s="1">
         <v>7</v>
       </c>
@@ -11733,8 +12173,11 @@
       <c r="E245" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F245" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A246" s="1">
         <v>7</v>
       </c>
@@ -11750,8 +12193,11 @@
       <c r="E246" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F246" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A247" s="1">
         <v>7</v>
       </c>
@@ -11767,8 +12213,11 @@
       <c r="E247" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F247" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A248" s="1">
         <v>8</v>
       </c>
@@ -11784,8 +12233,11 @@
       <c r="E248" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F248" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A249" s="1">
         <v>8</v>
       </c>
@@ -11801,8 +12253,11 @@
       <c r="E249" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F249" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A250" s="1">
         <v>8</v>
       </c>
@@ -11818,8 +12273,11 @@
       <c r="E250" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F250" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A251" s="1">
         <v>8</v>
       </c>
@@ -11835,8 +12293,11 @@
       <c r="E251" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F251" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A252" s="1">
         <v>8</v>
       </c>
@@ -11852,8 +12313,11 @@
       <c r="E252" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F252" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A253" s="1">
         <v>8</v>
       </c>
@@ -11869,8 +12333,11 @@
       <c r="E253" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F253" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A254" s="1">
         <v>8</v>
       </c>
@@ -11886,8 +12353,11 @@
       <c r="E254" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F254" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A255" s="1">
         <v>8</v>
       </c>
@@ -11903,8 +12373,11 @@
       <c r="E255" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F255" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A256" s="1">
         <v>8</v>
       </c>
@@ -11920,8 +12393,11 @@
       <c r="E256" s="2">
         <v>43439</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F256" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A257" s="1">
         <v>8</v>
       </c>
@@ -11937,8 +12413,11 @@
       <c r="E257" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F257" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A258" s="1">
         <v>8</v>
       </c>
@@ -11954,8 +12433,11 @@
       <c r="E258" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F258" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A259" s="1">
         <v>8</v>
       </c>
@@ -11971,8 +12453,11 @@
       <c r="E259" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F259" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A260" s="1">
         <v>8</v>
       </c>
@@ -11988,8 +12473,11 @@
       <c r="E260" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F260" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A261" s="1">
         <v>8</v>
       </c>
@@ -12005,8 +12493,11 @@
       <c r="E261" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F261" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A262" s="1">
         <v>8</v>
       </c>
@@ -12022,8 +12513,11 @@
       <c r="E262" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F262" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A263" s="1">
         <v>8</v>
       </c>
@@ -12039,8 +12533,11 @@
       <c r="E263" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F263" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A264" s="1">
         <v>8</v>
       </c>
@@ -12056,8 +12553,11 @@
       <c r="E264" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F264" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A265" s="1">
         <v>8</v>
       </c>
@@ -12073,8 +12573,11 @@
       <c r="E265" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F265" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A266" s="1">
         <v>8</v>
       </c>
@@ -12090,8 +12593,11 @@
       <c r="E266" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F266" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A267" s="1">
         <v>8</v>
       </c>
@@ -12107,8 +12613,11 @@
       <c r="E267" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F267" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A268" s="1">
         <v>8</v>
       </c>
@@ -12124,8 +12633,11 @@
       <c r="E268" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F268" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A269" s="1">
         <v>8</v>
       </c>
@@ -12141,8 +12653,11 @@
       <c r="E269" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F269" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A270" s="1">
         <v>8</v>
       </c>
@@ -12158,8 +12673,11 @@
       <c r="E270" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F270" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A271" s="1">
         <v>8</v>
       </c>
@@ -12175,8 +12693,11 @@
       <c r="E271" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F271" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A272" s="1">
         <v>9</v>
       </c>
@@ -12192,8 +12713,11 @@
       <c r="E272" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F272" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A273" s="1">
         <v>9</v>
       </c>
@@ -12209,8 +12733,11 @@
       <c r="E273" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F273" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A274" s="1">
         <v>9</v>
       </c>
@@ -12226,8 +12753,11 @@
       <c r="E274" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F274" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A275" s="1">
         <v>9</v>
       </c>
@@ -12243,8 +12773,11 @@
       <c r="E275" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F275" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A276" s="1">
         <v>9</v>
       </c>
@@ -12260,8 +12793,11 @@
       <c r="E276" s="2">
         <v>43440</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F276" s="7">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A277" s="1">
         <v>9</v>
       </c>
@@ -12277,8 +12813,11 @@
       <c r="E277" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F277" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A278" s="1">
         <v>9</v>
       </c>
@@ -12294,8 +12833,11 @@
       <c r="E278" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F278" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A279" s="1">
         <v>9</v>
       </c>
@@ -12311,8 +12853,11 @@
       <c r="E279" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F279" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A280" s="1">
         <v>9</v>
       </c>
@@ -12328,8 +12873,11 @@
       <c r="E280" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F280" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A281" s="1">
         <v>9</v>
       </c>
@@ -12345,8 +12893,11 @@
       <c r="E281" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F281" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A282" s="1">
         <v>9</v>
       </c>
@@ -12362,8 +12913,11 @@
       <c r="E282" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F282" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A283" s="1">
         <v>9</v>
       </c>
@@ -12379,8 +12933,11 @@
       <c r="E283" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F283" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A284" s="1">
         <v>9</v>
       </c>
@@ -12396,8 +12953,11 @@
       <c r="E284" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F284" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A285" s="1">
         <v>9</v>
       </c>
@@ -12413,8 +12973,11 @@
       <c r="E285" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F285" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A286" s="1">
         <v>9</v>
       </c>
@@ -12430,8 +12993,11 @@
       <c r="E286" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F286" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A287" s="1">
         <v>9</v>
       </c>
@@ -12447,8 +13013,11 @@
       <c r="E287" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F287" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A288" s="1">
         <v>9</v>
       </c>
@@ -12464,8 +13033,11 @@
       <c r="E288" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F288" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A289" s="1">
         <v>9</v>
       </c>
@@ -12481,8 +13053,11 @@
       <c r="E289" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F289" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A290" s="1">
         <v>9</v>
       </c>
@@ -12498,8 +13073,11 @@
       <c r="E290" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F290" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A291" s="1">
         <v>9</v>
       </c>
@@ -12515,8 +13093,11 @@
       <c r="E291" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F291" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A292" s="1">
         <v>9</v>
       </c>
@@ -12532,8 +13113,11 @@
       <c r="E292" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F292" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A293" s="1">
         <v>9</v>
       </c>
@@ -12549,8 +13133,11 @@
       <c r="E293" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F293" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A294" s="1">
         <v>10</v>
       </c>
@@ -12566,8 +13153,11 @@
       <c r="E294" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F294" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A295" s="1">
         <v>10</v>
       </c>
@@ -12583,8 +13173,11 @@
       <c r="E295" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F295" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A296" s="1">
         <v>10</v>
       </c>
@@ -12600,8 +13193,11 @@
       <c r="E296" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F296" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A297" s="1">
         <v>10</v>
       </c>
@@ -12617,8 +13213,11 @@
       <c r="E297" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F297" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A298" s="1">
         <v>10</v>
       </c>
@@ -12634,8 +13233,11 @@
       <c r="E298" s="2">
         <v>43441</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F298" s="7">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A299" s="1">
         <v>10</v>
       </c>
@@ -12650,6 +13252,9 @@
       </c>
       <c r="E299" s="2">
         <v>43441</v>
+      </c>
+      <c r="F299" s="7">
+        <v>43438</v>
       </c>
     </row>
   </sheetData>
@@ -12659,7 +13264,7 @@
     <sortCondition ref="C2:C317"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF922D48-863F-4C55-8852-E5A94FE9AFE4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9FC3F-41DE-46D2-81B4-6789EB2AA634}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="341">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1046,6 +1046,21 @@
   </si>
   <si>
     <t>11/28 - 11/30</t>
+  </si>
+  <si>
+    <t>PassedSelecting from Many Options with Switch Statements</t>
+  </si>
+  <si>
+    <t>PassedAdding a Default Option in Switch Statements</t>
+  </si>
+  <si>
+    <t>PassedMultiple Identical Options in Switch Statements</t>
+  </si>
+  <si>
+    <t>PassedReplacing If Else Chains with Switch</t>
+  </si>
+  <si>
+    <t>PassedReturning Boolean Values from Functions</t>
   </si>
 </sst>
 </file>
@@ -7551,8 +7566,8 @@
   <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F298" sqref="F298"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8834,7 +8849,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="E75" s="2">
         <v>43431</v>
@@ -8851,7 +8866,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
       <c r="E76" s="2">
         <v>43431</v>
@@ -8868,7 +8883,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="E77" s="2">
         <v>43431</v>
@@ -8885,7 +8900,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="E78" s="2">
         <v>43431</v>
@@ -8902,7 +8917,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="E79" s="2">
         <v>43431</v>
@@ -8922,7 +8937,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.75">
@@ -8939,7 +8954,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.75">
@@ -8956,7 +8971,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.75">
@@ -8973,7 +8988,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.75">
@@ -8990,7 +9005,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.75">
@@ -9007,7 +9022,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.75">
@@ -9024,7 +9039,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.75">
@@ -9041,7 +9056,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.75">
@@ -9058,7 +9073,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.75">
@@ -9075,7 +9090,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.75">
@@ -9092,7 +9107,7 @@
         <v>89</v>
       </c>
       <c r="E90" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.75">
@@ -9109,7 +9124,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.75">
@@ -9126,7 +9141,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.75">
@@ -9143,7 +9158,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.75">
@@ -9160,7 +9175,7 @@
         <v>93</v>
       </c>
       <c r="E94" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.75">
@@ -9177,7 +9192,7 @@
         <v>94</v>
       </c>
       <c r="E95" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.75">
@@ -9194,7 +9209,7 @@
         <v>95</v>
       </c>
       <c r="E96" s="2">
-        <v>43431</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.75">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9FC3F-41DE-46D2-81B4-6789EB2AA634}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6594343-D10D-46E3-8E27-1999FF3EB6CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="346">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1061,6 +1061,21 @@
   </si>
   <si>
     <t>PassedReturning Boolean Values from Functions</t>
+  </si>
+  <si>
+    <t>PassedCounting Cards</t>
+  </si>
+  <si>
+    <t>PassedBuild JavaScript Objects</t>
+  </si>
+  <si>
+    <t>PassedAccessing Object Properties with Dot Notation</t>
+  </si>
+  <si>
+    <t>PassedAccessing Object Properties with Bracket Notation</t>
+  </si>
+  <si>
+    <t>PassedAccessing Object Properties with Variables</t>
   </si>
 </sst>
 </file>
@@ -7566,8 +7581,8 @@
   <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8951,7 +8966,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="E81" s="2">
         <v>43432</v>
@@ -8968,7 +8983,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="E82" s="2">
         <v>43432</v>
@@ -8985,7 +9000,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="E83" s="2">
         <v>43432</v>
@@ -9002,7 +9017,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="E84" s="2">
         <v>43432</v>
@@ -9019,7 +9034,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="E85" s="2">
         <v>43432</v>

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6594343-D10D-46E3-8E27-1999FF3EB6CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB02C4A-A91C-4D4A-8DC1-3A7611BF6A24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="355">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1076,6 +1076,33 @@
   </si>
   <si>
     <t>PassedAccessing Object Properties with Variables</t>
+  </si>
+  <si>
+    <t>PassedUpdating Object Properties</t>
+  </si>
+  <si>
+    <t>PassedAdd New Properties to a JavaScript Object</t>
+  </si>
+  <si>
+    <t>PassedDelete Properties from a JavaScript Object</t>
+  </si>
+  <si>
+    <t>PassedUsing Objects for Lookups</t>
+  </si>
+  <si>
+    <t>PassedTesting Objects for Properties</t>
+  </si>
+  <si>
+    <t>PassedManipulating Complex Objects</t>
+  </si>
+  <si>
+    <t>PassedAccessing Nested Objects</t>
+  </si>
+  <si>
+    <t>PassedAccessing Nested Arrays</t>
+  </si>
+  <si>
+    <t>PassedReturn Early Pattern for Functions</t>
   </si>
 </sst>
 </file>
@@ -1099,12 +1126,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1119,7 +1152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1136,6 +1169,7 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7581,8 +7615,8 @@
   <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81:D85"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94:D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8949,7 +8983,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="E80" s="2">
         <v>43432</v>
@@ -9051,7 +9085,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="E86" s="2">
         <v>43432</v>
@@ -9068,7 +9102,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>347</v>
       </c>
       <c r="E87" s="2">
         <v>43432</v>
@@ -9085,7 +9119,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>87</v>
+        <v>348</v>
       </c>
       <c r="E88" s="2">
         <v>43432</v>
@@ -9102,7 +9136,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>88</v>
+        <v>349</v>
       </c>
       <c r="E89" s="2">
         <v>43432</v>
@@ -9119,7 +9153,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="E90" s="2">
         <v>43432</v>
@@ -9136,7 +9170,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>351</v>
       </c>
       <c r="E91" s="2">
         <v>43432</v>
@@ -9153,7 +9187,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>91</v>
+        <v>352</v>
       </c>
       <c r="E92" s="2">
         <v>43432</v>
@@ -9170,7 +9204,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="E93" s="2">
         <v>43432</v>
@@ -9186,7 +9220,7 @@
       <c r="C94" s="1">
         <v>93</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="8" t="s">
         <v>93</v>
       </c>
       <c r="E94" s="2">
@@ -9203,7 +9237,7 @@
       <c r="C95" s="1">
         <v>94</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E95" s="2">
@@ -9220,7 +9254,7 @@
       <c r="C96" s="1">
         <v>95</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="8" t="s">
         <v>95</v>
       </c>
       <c r="E96" s="2">
@@ -9237,7 +9271,7 @@
       <c r="C97" s="1">
         <v>96</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E97" s="2">
@@ -9257,7 +9291,7 @@
       <c r="C98" s="1">
         <v>97</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="8" t="s">
         <v>97</v>
       </c>
       <c r="E98" s="2">
@@ -9277,7 +9311,7 @@
       <c r="C99" s="1">
         <v>98</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E99" s="2">
@@ -9297,7 +9331,7 @@
       <c r="C100" s="1">
         <v>99</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E100" s="2">
@@ -9317,7 +9351,7 @@
       <c r="C101" s="1">
         <v>100</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E101" s="2">
@@ -9337,7 +9371,7 @@
       <c r="C102" s="1">
         <v>101</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E102" s="2">
@@ -9357,7 +9391,7 @@
       <c r="C103" s="1">
         <v>102</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E103" s="2">
@@ -9377,7 +9411,7 @@
       <c r="C104" s="1">
         <v>103</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="8" t="s">
         <v>103</v>
       </c>
       <c r="E104" s="2">
@@ -9397,7 +9431,7 @@
       <c r="C105" s="1">
         <v>104</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E105" s="2">
@@ -9417,7 +9451,7 @@
       <c r="C106" s="1">
         <v>105</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E106" s="2">
@@ -9437,7 +9471,7 @@
       <c r="C107" s="1">
         <v>106</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E107" s="2">
@@ -9457,7 +9491,7 @@
       <c r="C108" s="1">
         <v>107</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E108" s="2">
@@ -9477,7 +9511,7 @@
       <c r="C109" s="1">
         <v>108</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="8" t="s">
         <v>108</v>
       </c>
       <c r="E109" s="2">
@@ -9497,7 +9531,7 @@
       <c r="C110" s="1">
         <v>109</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E110" s="2">
@@ -9517,7 +9551,7 @@
       <c r="C111" s="1">
         <v>110</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E111" s="2">
@@ -9537,7 +9571,7 @@
       <c r="C112" s="1">
         <v>111</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E112" s="2">
@@ -9557,7 +9591,7 @@
       <c r="C113" s="1">
         <v>112</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="8" t="s">
         <v>115</v>
       </c>
       <c r="E113" s="2">
@@ -9577,7 +9611,7 @@
       <c r="C114" s="1">
         <v>113</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E114" s="2">
@@ -9597,7 +9631,7 @@
       <c r="C115" s="1">
         <v>114</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E115" s="2">
@@ -9617,7 +9651,7 @@
       <c r="C116" s="1">
         <v>115</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="8" t="s">
         <v>118</v>
       </c>
       <c r="E116" s="2">
@@ -9637,7 +9671,7 @@
       <c r="C117" s="1">
         <v>116</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="8" t="s">
         <v>119</v>
       </c>
       <c r="E117" s="2">
@@ -9657,7 +9691,7 @@
       <c r="C118" s="1">
         <v>117</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="8" t="s">
         <v>120</v>
       </c>
       <c r="E118" s="2">
@@ -9677,7 +9711,7 @@
       <c r="C119" s="1">
         <v>118</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E119" s="2">
@@ -9697,7 +9731,7 @@
       <c r="C120" s="1">
         <v>119</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E120" s="2">
@@ -9717,7 +9751,7 @@
       <c r="C121" s="1">
         <v>120</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="8" t="s">
         <v>123</v>
       </c>
       <c r="E121" s="2">
@@ -9737,7 +9771,7 @@
       <c r="C122" s="1">
         <v>121</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="8" t="s">
         <v>124</v>
       </c>
       <c r="E122" s="2">
@@ -9757,7 +9791,7 @@
       <c r="C123" s="1">
         <v>122</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="8" t="s">
         <v>125</v>
       </c>
       <c r="E123" s="2">
@@ -9777,7 +9811,7 @@
       <c r="C124" s="1">
         <v>123</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="8" t="s">
         <v>126</v>
       </c>
       <c r="E124" s="2">
@@ -9797,7 +9831,7 @@
       <c r="C125" s="1">
         <v>124</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E125" s="2">
@@ -9817,7 +9851,7 @@
       <c r="C126" s="1">
         <v>125</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="8" t="s">
         <v>128</v>
       </c>
       <c r="E126" s="2">
@@ -9837,7 +9871,7 @@
       <c r="C127" s="1">
         <v>126</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E127" s="2">
@@ -9857,7 +9891,7 @@
       <c r="C128" s="1">
         <v>127</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="8" t="s">
         <v>130</v>
       </c>
       <c r="E128" s="2">
@@ -9877,7 +9911,7 @@
       <c r="C129" s="1">
         <v>128</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E129" s="2">
@@ -9897,7 +9931,7 @@
       <c r="C130" s="1">
         <v>129</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E130" s="2">
@@ -9917,7 +9951,7 @@
       <c r="C131" s="1">
         <v>130</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="8" t="s">
         <v>133</v>
       </c>
       <c r="E131" s="2">
@@ -9937,7 +9971,7 @@
       <c r="C132" s="1">
         <v>131</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E132" s="2">
@@ -9957,7 +9991,7 @@
       <c r="C133" s="1">
         <v>132</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="8" t="s">
         <v>135</v>
       </c>
       <c r="E133" s="2">
@@ -9977,7 +10011,7 @@
       <c r="C134" s="1">
         <v>133</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E134" s="2">
@@ -9997,7 +10031,7 @@
       <c r="C135" s="1">
         <v>134</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E135" s="2">
@@ -10017,7 +10051,7 @@
       <c r="C136" s="1">
         <v>135</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="8" t="s">
         <v>138</v>
       </c>
       <c r="E136" s="2">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB02C4A-A91C-4D4A-8DC1-3A7611BF6A24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE8FC24-6875-4789-B1E9-93D4A5AE0A30}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="361">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1103,6 +1103,24 @@
   </si>
   <si>
     <t>PassedReturn Early Pattern for Functions</t>
+  </si>
+  <si>
+    <t>PassedRecord Collection</t>
+  </si>
+  <si>
+    <t>PassedIterate with JavaScript While Loops</t>
+  </si>
+  <si>
+    <t>PassedIterate with JavaScript For Loops</t>
+  </si>
+  <si>
+    <t>PassedIterate Odd Numbers With a For Loop</t>
+  </si>
+  <si>
+    <t>PassedCount Backwards With a For Loop</t>
+  </si>
+  <si>
+    <t>PassedIterate Through an Array with a For Loop</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1169,6 +1187,8 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -7615,8 +7635,8 @@
   <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94:D136"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9139,7 +9159,7 @@
         <v>349</v>
       </c>
       <c r="E89" s="2">
-        <v>43432</v>
+        <v>43433</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.75">
@@ -9156,7 +9176,7 @@
         <v>350</v>
       </c>
       <c r="E90" s="2">
-        <v>43432</v>
+        <v>43433</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.75">
@@ -9173,7 +9193,7 @@
         <v>351</v>
       </c>
       <c r="E91" s="2">
-        <v>43432</v>
+        <v>43433</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.75">
@@ -9190,7 +9210,7 @@
         <v>352</v>
       </c>
       <c r="E92" s="2">
-        <v>43432</v>
+        <v>43433</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.75">
@@ -9207,7 +9227,7 @@
         <v>353</v>
       </c>
       <c r="E93" s="2">
-        <v>43432</v>
+        <v>43433</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.75">
@@ -9221,10 +9241,10 @@
         <v>93</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>93</v>
+        <v>355</v>
       </c>
       <c r="E94" s="2">
-        <v>43432</v>
+        <v>43433</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.75">
@@ -9238,10 +9258,10 @@
         <v>94</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>94</v>
+        <v>356</v>
       </c>
       <c r="E95" s="2">
-        <v>43432</v>
+        <v>43433</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.75">
@@ -9255,10 +9275,10 @@
         <v>95</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>95</v>
+        <v>357</v>
       </c>
       <c r="E96" s="2">
-        <v>43432</v>
+        <v>43433</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.75">
@@ -9272,10 +9292,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>96</v>
+        <v>358</v>
       </c>
       <c r="E97" s="2">
-        <v>43432</v>
+        <v>43433</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>335</v>
@@ -9292,10 +9312,10 @@
         <v>97</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>97</v>
+        <v>359</v>
       </c>
       <c r="E98" s="2">
-        <v>43432</v>
+        <v>43433</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>335</v>
@@ -9311,10 +9331,10 @@
       <c r="C99" s="1">
         <v>98</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E99" s="2">
+      <c r="D99" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="E99" s="9">
         <v>43432</v>
       </c>
       <c r="F99" s="7" t="s">
@@ -9331,10 +9351,10 @@
       <c r="C100" s="1">
         <v>99</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="9">
         <v>43432</v>
       </c>
       <c r="F100" s="7" t="s">
@@ -9351,10 +9371,10 @@
       <c r="C101" s="1">
         <v>100</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="9">
         <v>43432</v>
       </c>
       <c r="F101" s="7" t="s">
@@ -9371,10 +9391,10 @@
       <c r="C102" s="1">
         <v>101</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="9">
         <v>43432</v>
       </c>
       <c r="F102" s="7" t="s">
@@ -9391,10 +9411,10 @@
       <c r="C103" s="1">
         <v>102</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="9">
         <v>43432</v>
       </c>
       <c r="F103" s="7" t="s">
@@ -9411,10 +9431,10 @@
       <c r="C104" s="1">
         <v>103</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="9">
         <v>43432</v>
       </c>
       <c r="F104" s="7" t="s">
@@ -9431,10 +9451,10 @@
       <c r="C105" s="1">
         <v>104</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="9">
         <v>43432</v>
       </c>
       <c r="F105" s="7" t="s">
@@ -9451,10 +9471,10 @@
       <c r="C106" s="1">
         <v>105</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="9">
         <v>43432</v>
       </c>
       <c r="F106" s="7" t="s">
@@ -9471,10 +9491,10 @@
       <c r="C107" s="1">
         <v>106</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="9">
         <v>43432</v>
       </c>
       <c r="F107" s="7" t="s">
@@ -9491,10 +9511,10 @@
       <c r="C108" s="1">
         <v>107</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="9">
         <v>43432</v>
       </c>
       <c r="F108" s="7" t="s">
@@ -9511,10 +9531,10 @@
       <c r="C109" s="1">
         <v>108</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="9">
         <v>43432</v>
       </c>
       <c r="F109" s="7" t="s">
@@ -9531,7 +9551,7 @@
       <c r="C110" s="1">
         <v>109</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E110" s="2">
@@ -9551,7 +9571,7 @@
       <c r="C111" s="1">
         <v>110</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="10" t="s">
         <v>113</v>
       </c>
       <c r="E111" s="2">
@@ -9571,7 +9591,7 @@
       <c r="C112" s="1">
         <v>111</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="10" t="s">
         <v>114</v>
       </c>
       <c r="E112" s="2">
@@ -9591,7 +9611,7 @@
       <c r="C113" s="1">
         <v>112</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="10" t="s">
         <v>115</v>
       </c>
       <c r="E113" s="2">
@@ -9611,7 +9631,7 @@
       <c r="C114" s="1">
         <v>113</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="10" t="s">
         <v>116</v>
       </c>
       <c r="E114" s="2">
@@ -9631,7 +9651,7 @@
       <c r="C115" s="1">
         <v>114</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="10" t="s">
         <v>117</v>
       </c>
       <c r="E115" s="2">
@@ -9651,7 +9671,7 @@
       <c r="C116" s="1">
         <v>115</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="10" t="s">
         <v>118</v>
       </c>
       <c r="E116" s="2">
@@ -9671,7 +9691,7 @@
       <c r="C117" s="1">
         <v>116</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E117" s="2">
@@ -9691,7 +9711,7 @@
       <c r="C118" s="1">
         <v>117</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="10" t="s">
         <v>120</v>
       </c>
       <c r="E118" s="2">
@@ -9711,7 +9731,7 @@
       <c r="C119" s="1">
         <v>118</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E119" s="2">
@@ -9731,7 +9751,7 @@
       <c r="C120" s="1">
         <v>119</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E120" s="2">
@@ -9751,7 +9771,7 @@
       <c r="C121" s="1">
         <v>120</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="10" t="s">
         <v>123</v>
       </c>
       <c r="E121" s="2">
@@ -9771,7 +9791,7 @@
       <c r="C122" s="1">
         <v>121</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E122" s="2">
@@ -9791,7 +9811,7 @@
       <c r="C123" s="1">
         <v>122</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E123" s="2">
@@ -9811,7 +9831,7 @@
       <c r="C124" s="1">
         <v>123</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E124" s="2">
@@ -9831,7 +9851,7 @@
       <c r="C125" s="1">
         <v>124</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E125" s="2">
@@ -9851,7 +9871,7 @@
       <c r="C126" s="1">
         <v>125</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E126" s="2">
@@ -9871,7 +9891,7 @@
       <c r="C127" s="1">
         <v>126</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E127" s="2">
@@ -9891,7 +9911,7 @@
       <c r="C128" s="1">
         <v>127</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E128" s="2">
@@ -9911,7 +9931,7 @@
       <c r="C129" s="1">
         <v>128</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E129" s="2">
@@ -9931,7 +9951,7 @@
       <c r="C130" s="1">
         <v>129</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="10" t="s">
         <v>132</v>
       </c>
       <c r="E130" s="2">
@@ -9951,7 +9971,7 @@
       <c r="C131" s="1">
         <v>130</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E131" s="2">
@@ -9971,7 +9991,7 @@
       <c r="C132" s="1">
         <v>131</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="10" t="s">
         <v>134</v>
       </c>
       <c r="E132" s="2">
@@ -9991,7 +10011,7 @@
       <c r="C133" s="1">
         <v>132</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="10" t="s">
         <v>135</v>
       </c>
       <c r="E133" s="2">
@@ -10011,7 +10031,7 @@
       <c r="C134" s="1">
         <v>133</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="10" t="s">
         <v>136</v>
       </c>
       <c r="E134" s="2">
@@ -10031,7 +10051,7 @@
       <c r="C135" s="1">
         <v>134</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="10" t="s">
         <v>137</v>
       </c>
       <c r="E135" s="2">
@@ -10051,7 +10071,7 @@
       <c r="C136" s="1">
         <v>135</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="10" t="s">
         <v>138</v>
       </c>
       <c r="E136" s="2">
@@ -10071,7 +10091,7 @@
       <c r="C137" s="1">
         <v>136</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="10" t="s">
         <v>140</v>
       </c>
       <c r="E137" s="2">
@@ -10091,7 +10111,7 @@
       <c r="C138" s="1">
         <v>137</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="10" t="s">
         <v>141</v>
       </c>
       <c r="E138" s="2">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE8FC24-6875-4789-B1E9-93D4A5AE0A30}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26C4725-22DD-4C91-85B8-84F474FB1424}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="368">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1121,6 +1121,27 @@
   </si>
   <si>
     <t>PassedIterate Through an Array with a For Loop</t>
+  </si>
+  <si>
+    <t>PassedNesting For Loops</t>
+  </si>
+  <si>
+    <t>PassedIterate with JavaScript Do...While Loops</t>
+  </si>
+  <si>
+    <t>PassedProfile Lookup</t>
+  </si>
+  <si>
+    <t>PassedGenerate Random Fractions with JavaScript</t>
+  </si>
+  <si>
+    <t>PassedGenerate Random Whole Numbers with JavaScript</t>
+  </si>
+  <si>
+    <t>PassedGenerate Random Whole Numbers within a Range</t>
+  </si>
+  <si>
+    <t>PassedUse the parseInt Function</t>
   </si>
 </sst>
 </file>
@@ -7635,8 +7656,8 @@
   <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9331,7 +9352,7 @@
       <c r="C99" s="1">
         <v>98</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="8" t="s">
         <v>360</v>
       </c>
       <c r="E99" s="9">
@@ -9351,8 +9372,8 @@
       <c r="C100" s="1">
         <v>99</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>99</v>
+      <c r="D100" s="8" t="s">
+        <v>361</v>
       </c>
       <c r="E100" s="9">
         <v>43432</v>
@@ -9371,8 +9392,8 @@
       <c r="C101" s="1">
         <v>100</v>
       </c>
-      <c r="D101" s="10" t="s">
-        <v>100</v>
+      <c r="D101" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="E101" s="9">
         <v>43432</v>
@@ -9391,8 +9412,8 @@
       <c r="C102" s="1">
         <v>101</v>
       </c>
-      <c r="D102" s="10" t="s">
-        <v>101</v>
+      <c r="D102" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="E102" s="9">
         <v>43432</v>
@@ -9411,8 +9432,8 @@
       <c r="C103" s="1">
         <v>102</v>
       </c>
-      <c r="D103" s="10" t="s">
-        <v>102</v>
+      <c r="D103" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="E103" s="9">
         <v>43432</v>
@@ -9431,8 +9452,8 @@
       <c r="C104" s="1">
         <v>103</v>
       </c>
-      <c r="D104" s="10" t="s">
-        <v>103</v>
+      <c r="D104" s="8" t="s">
+        <v>365</v>
       </c>
       <c r="E104" s="9">
         <v>43432</v>
@@ -9451,8 +9472,8 @@
       <c r="C105" s="1">
         <v>104</v>
       </c>
-      <c r="D105" s="10" t="s">
-        <v>104</v>
+      <c r="D105" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="E105" s="9">
         <v>43432</v>
@@ -9471,8 +9492,8 @@
       <c r="C106" s="1">
         <v>105</v>
       </c>
-      <c r="D106" s="10" t="s">
-        <v>105</v>
+      <c r="D106" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="E106" s="9">
         <v>43432</v>

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26C4725-22DD-4C91-85B8-84F474FB1424}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75012570-E83F-43C8-A1F7-DEBB01C0A196}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="373">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1142,6 +1142,21 @@
   </si>
   <si>
     <t>PassedUse the parseInt Function</t>
+  </si>
+  <si>
+    <t>PassedUse the parseInt Function with a Radix</t>
+  </si>
+  <si>
+    <t>PassedUse the Conditional (Ternary) Operator</t>
+  </si>
+  <si>
+    <t>PassedUse Multiple Conditional (Ternary) Operators</t>
+  </si>
+  <si>
+    <t>PassedExplore Differences Between the var and let Keywords</t>
+  </si>
+  <si>
+    <t>PassedCompare Scopes of the var and let Keywords</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1230,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7656,8 +7691,8 @@
   <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98:D106"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9512,8 +9547,8 @@
       <c r="C107" s="1">
         <v>106</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>106</v>
+      <c r="D107" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="E107" s="9">
         <v>43432</v>
@@ -9532,8 +9567,8 @@
       <c r="C108" s="1">
         <v>107</v>
       </c>
-      <c r="D108" s="10" t="s">
-        <v>107</v>
+      <c r="D108" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="E108" s="9">
         <v>43432</v>
@@ -9552,8 +9587,8 @@
       <c r="C109" s="1">
         <v>108</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>108</v>
+      <c r="D109" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="E109" s="9">
         <v>43432</v>
@@ -9570,9 +9605,9 @@
         <v>111</v>
       </c>
       <c r="C110" s="1">
-        <v>109</v>
-      </c>
-      <c r="D110" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E110" s="2">
@@ -9590,10 +9625,10 @@
         <v>111</v>
       </c>
       <c r="C111" s="1">
-        <v>110</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>113</v>
+        <v>2</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="E111" s="2">
         <v>43432</v>
@@ -9610,10 +9645,10 @@
         <v>111</v>
       </c>
       <c r="C112" s="1">
-        <v>111</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>114</v>
+        <v>3</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>372</v>
       </c>
       <c r="E112" s="2">
         <v>43432</v>
@@ -9630,7 +9665,7 @@
         <v>111</v>
       </c>
       <c r="C113" s="1">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>115</v>
@@ -9650,7 +9685,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="1">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>116</v>
@@ -9670,7 +9705,7 @@
         <v>111</v>
       </c>
       <c r="C115" s="1">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>117</v>
@@ -9690,7 +9725,7 @@
         <v>111</v>
       </c>
       <c r="C116" s="1">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>118</v>
@@ -9710,7 +9745,7 @@
         <v>111</v>
       </c>
       <c r="C117" s="1">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>119</v>
@@ -9730,7 +9765,7 @@
         <v>111</v>
       </c>
       <c r="C118" s="1">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>120</v>
@@ -9750,7 +9785,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="1">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>121</v>
@@ -9770,7 +9805,7 @@
         <v>111</v>
       </c>
       <c r="C120" s="1">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>122</v>
@@ -9790,7 +9825,7 @@
         <v>111</v>
       </c>
       <c r="C121" s="1">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>123</v>
@@ -9810,7 +9845,7 @@
         <v>111</v>
       </c>
       <c r="C122" s="1">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>124</v>
@@ -9830,7 +9865,7 @@
         <v>111</v>
       </c>
       <c r="C123" s="1">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>125</v>
@@ -9850,7 +9885,7 @@
         <v>111</v>
       </c>
       <c r="C124" s="1">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>126</v>
@@ -9870,7 +9905,7 @@
         <v>111</v>
       </c>
       <c r="C125" s="1">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>127</v>
@@ -9890,7 +9925,7 @@
         <v>111</v>
       </c>
       <c r="C126" s="1">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>128</v>
@@ -9910,7 +9945,7 @@
         <v>111</v>
       </c>
       <c r="C127" s="1">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>129</v>
@@ -9930,7 +9965,7 @@
         <v>111</v>
       </c>
       <c r="C128" s="1">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>130</v>
@@ -9950,7 +9985,7 @@
         <v>111</v>
       </c>
       <c r="C129" s="1">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>131</v>
@@ -9970,7 +10005,7 @@
         <v>111</v>
       </c>
       <c r="C130" s="1">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>132</v>
@@ -9990,7 +10025,7 @@
         <v>111</v>
       </c>
       <c r="C131" s="1">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>133</v>
@@ -10010,7 +10045,7 @@
         <v>111</v>
       </c>
       <c r="C132" s="1">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>134</v>
@@ -10030,7 +10065,7 @@
         <v>111</v>
       </c>
       <c r="C133" s="1">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>135</v>
@@ -10050,7 +10085,7 @@
         <v>111</v>
       </c>
       <c r="C134" s="1">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>136</v>
@@ -10070,7 +10105,7 @@
         <v>111</v>
       </c>
       <c r="C135" s="1">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>137</v>
@@ -10090,7 +10125,7 @@
         <v>111</v>
       </c>
       <c r="C136" s="1">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>138</v>
@@ -10112,7 +10147,7 @@
       <c r="C137" s="1">
         <v>136</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="8" t="s">
         <v>140</v>
       </c>
       <c r="E137" s="2">
@@ -10132,7 +10167,7 @@
       <c r="C138" s="1">
         <v>137</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="8" t="s">
         <v>141</v>
       </c>
       <c r="E138" s="2">
@@ -13368,11 +13403,8 @@
     <sortCondition ref="A2:A317"/>
     <sortCondition ref="C2:C317"/>
   </sortState>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>43428</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75012570-E83F-43C8-A1F7-DEBB01C0A196}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A5768-5C52-41A3-8B92-11E5399E7FD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="376">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1045,9 +1045,6 @@
     <t>PassedChaining If Else Statements</t>
   </si>
   <si>
-    <t>11/28 - 11/30</t>
-  </si>
-  <si>
     <t>PassedSelecting from Many Options with Switch Statements</t>
   </si>
   <si>
@@ -1157,6 +1154,18 @@
   </si>
   <si>
     <t>PassedCompare Scopes of the var and let Keywords</t>
+  </si>
+  <si>
+    <t>11/28-12/2</t>
+  </si>
+  <si>
+    <t>12/3 - 12/23</t>
+  </si>
+  <si>
+    <t>300 hours in 30 days ~ 10 per day</t>
+  </si>
+  <si>
+    <t>2,080 hours = 208 days. FOR ENTIRE FCC &amp; ALL CERTIFICATIONS</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1224,43 +1233,12 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7688,11 +7666,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854B096C-9AB9-4373-9BA6-F815FE4F1473}">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7701,8 +7679,7 @@
     <col min="2" max="2" width="42.04296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.6796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="77.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.2265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
@@ -8974,7 +8951,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E75" s="2">
         <v>43431</v>
@@ -8991,7 +8968,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E76" s="2">
         <v>43431</v>
@@ -9008,7 +8985,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E77" s="2">
         <v>43431</v>
@@ -9025,7 +9002,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E78" s="2">
         <v>43431</v>
@@ -9042,7 +9019,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E79" s="2">
         <v>43431</v>
@@ -9059,10 +9036,10 @@
         <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>354</v>
-      </c>
-      <c r="E80" s="2">
-        <v>43432</v>
+        <v>353</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.75">
@@ -9076,10 +9053,10 @@
         <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>341</v>
-      </c>
-      <c r="E81" s="2">
-        <v>43432</v>
+        <v>340</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.75">
@@ -9093,10 +9070,10 @@
         <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>342</v>
-      </c>
-      <c r="E82" s="2">
-        <v>43432</v>
+        <v>341</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.75">
@@ -9110,10 +9087,10 @@
         <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>343</v>
-      </c>
-      <c r="E83" s="2">
-        <v>43432</v>
+        <v>342</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.75">
@@ -9127,10 +9104,10 @@
         <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>344</v>
-      </c>
-      <c r="E84" s="2">
-        <v>43432</v>
+        <v>343</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.75">
@@ -9144,10 +9121,10 @@
         <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>345</v>
-      </c>
-      <c r="E85" s="2">
-        <v>43432</v>
+        <v>344</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.75">
@@ -9161,10 +9138,10 @@
         <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>346</v>
-      </c>
-      <c r="E86" s="2">
-        <v>43432</v>
+        <v>345</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.75">
@@ -9178,10 +9155,10 @@
         <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>347</v>
-      </c>
-      <c r="E87" s="2">
-        <v>43432</v>
+        <v>346</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.75">
@@ -9195,10 +9172,10 @@
         <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>348</v>
-      </c>
-      <c r="E88" s="2">
-        <v>43432</v>
+        <v>347</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.75">
@@ -9212,10 +9189,10 @@
         <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>349</v>
-      </c>
-      <c r="E89" s="2">
-        <v>43433</v>
+        <v>348</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.75">
@@ -9229,10 +9206,10 @@
         <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>350</v>
-      </c>
-      <c r="E90" s="2">
-        <v>43433</v>
+        <v>349</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.75">
@@ -9246,10 +9223,10 @@
         <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>351</v>
-      </c>
-      <c r="E91" s="2">
-        <v>43433</v>
+        <v>350</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.75">
@@ -9263,10 +9240,10 @@
         <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>352</v>
-      </c>
-      <c r="E92" s="2">
-        <v>43433</v>
+        <v>351</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.75">
@@ -9280,10 +9257,10 @@
         <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>353</v>
-      </c>
-      <c r="E93" s="2">
-        <v>43433</v>
+        <v>352</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.75">
@@ -9297,10 +9274,10 @@
         <v>93</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E94" s="2">
-        <v>43433</v>
+        <v>354</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.75">
@@ -9314,10 +9291,10 @@
         <v>94</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E95" s="2">
-        <v>43433</v>
+        <v>355</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.75">
@@ -9331,10 +9308,10 @@
         <v>95</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="E96" s="2">
-        <v>43433</v>
+        <v>356</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.75">
@@ -9348,13 +9325,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E97" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>335</v>
+        <v>357</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.75">
@@ -9368,13 +9342,10 @@
         <v>97</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E98" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.75">
@@ -9388,13 +9359,10 @@
         <v>98</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="E99" s="9">
-        <v>43432</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>335</v>
+        <v>359</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.75">
@@ -9408,13 +9376,10 @@
         <v>99</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="E100" s="9">
-        <v>43432</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.75">
@@ -9428,13 +9393,10 @@
         <v>100</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="E101" s="9">
-        <v>43432</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.75">
@@ -9448,13 +9410,10 @@
         <v>101</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E102" s="9">
-        <v>43432</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>335</v>
+        <v>362</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.75">
@@ -9468,13 +9427,10 @@
         <v>102</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E103" s="9">
-        <v>43432</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.75">
@@ -9488,13 +9444,10 @@
         <v>103</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E104" s="9">
-        <v>43432</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.75">
@@ -9508,13 +9461,10 @@
         <v>104</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="E105" s="9">
-        <v>43432</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>335</v>
+        <v>365</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.75">
@@ -9528,13 +9478,10 @@
         <v>105</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E106" s="9">
-        <v>43432</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.75">
@@ -9548,13 +9495,10 @@
         <v>106</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E107" s="9">
-        <v>43432</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>335</v>
+        <v>367</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.75">
@@ -9568,13 +9512,10 @@
         <v>107</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="E108" s="9">
-        <v>43432</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.75">
@@ -9588,13 +9529,10 @@
         <v>108</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="E109" s="9">
-        <v>43432</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>335</v>
+        <v>369</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.75">
@@ -9610,11 +9548,8 @@
       <c r="D110" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E110" s="2">
-        <v>43432</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>335</v>
+      <c r="E110" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.75">
@@ -9628,13 +9563,10 @@
         <v>2</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E111" s="2">
-        <v>43432</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.75">
@@ -9648,16 +9580,16 @@
         <v>3</v>
       </c>
       <c r="D112" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E112" s="2">
-        <v>43432</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -9667,17 +9599,20 @@
       <c r="C113" s="1">
         <v>4</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E113" s="2">
-        <v>43432</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E113" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F113" s="7">
+        <v>43426</v>
+      </c>
+      <c r="G113" s="7">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -9687,17 +9622,18 @@
       <c r="C114" s="1">
         <v>5</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E114" s="2">
-        <v>43432</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E114" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G114">
+        <f>G113-F113</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -9707,17 +9643,14 @@
       <c r="C115" s="1">
         <v>6</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E115" s="2">
-        <v>43432</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E115" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -9727,17 +9660,14 @@
       <c r="C116" s="1">
         <v>7</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E116" s="2">
-        <v>43432</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E116" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -9747,17 +9677,14 @@
       <c r="C117" s="1">
         <v>8</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E117" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E117" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -9767,17 +9694,14 @@
       <c r="C118" s="1">
         <v>9</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E118" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E118" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -9787,17 +9711,14 @@
       <c r="C119" s="1">
         <v>10</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E119" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E119" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -9807,17 +9728,14 @@
       <c r="C120" s="1">
         <v>11</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E120" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E120" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -9827,17 +9745,14 @@
       <c r="C121" s="1">
         <v>12</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E121" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E121" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A122" s="1">
         <v>2</v>
       </c>
@@ -9847,17 +9762,14 @@
       <c r="C122" s="1">
         <v>13</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E122" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E122" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -9867,17 +9779,14 @@
       <c r="C123" s="1">
         <v>14</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E123" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E123" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -9887,17 +9796,14 @@
       <c r="C124" s="1">
         <v>15</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E124" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E124" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -9907,17 +9813,14 @@
       <c r="C125" s="1">
         <v>16</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E125" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E125" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -9927,17 +9830,14 @@
       <c r="C126" s="1">
         <v>17</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E126" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E126" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -9947,17 +9847,14 @@
       <c r="C127" s="1">
         <v>18</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E127" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E127" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -9967,17 +9864,14 @@
       <c r="C128" s="1">
         <v>19</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E128" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E128" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -9987,17 +9881,14 @@
       <c r="C129" s="1">
         <v>20</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E129" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E129" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -10007,17 +9898,14 @@
       <c r="C130" s="1">
         <v>21</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E130" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E130" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -10027,17 +9915,14 @@
       <c r="C131" s="1">
         <v>22</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E131" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E131" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -10047,17 +9932,14 @@
       <c r="C132" s="1">
         <v>23</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E132" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E132" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -10067,17 +9949,14 @@
       <c r="C133" s="1">
         <v>24</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E133" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E133" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -10087,17 +9966,14 @@
       <c r="C134" s="1">
         <v>25</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E134" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E134" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -10107,17 +9983,14 @@
       <c r="C135" s="1">
         <v>26</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E135" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E135" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -10127,17 +10000,14 @@
       <c r="C136" s="1">
         <v>27</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E136" s="2">
-        <v>43433</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E136" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A137" s="1">
         <v>3</v>
       </c>
@@ -10150,14 +10020,11 @@
       <c r="D137" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E137" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E137" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A138" s="1">
         <v>3</v>
       </c>
@@ -10170,14 +10037,11 @@
       <c r="D138" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E138" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E138" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A139" s="1">
         <v>3</v>
       </c>
@@ -10190,14 +10054,11 @@
       <c r="D139" t="s">
         <v>142</v>
       </c>
-      <c r="E139" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E139" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A140" s="1">
         <v>3</v>
       </c>
@@ -10210,14 +10071,11 @@
       <c r="D140" t="s">
         <v>143</v>
       </c>
-      <c r="E140" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E140" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A141" s="1">
         <v>3</v>
       </c>
@@ -10230,14 +10088,11 @@
       <c r="D141" t="s">
         <v>144</v>
       </c>
-      <c r="E141" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E141" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A142" s="1">
         <v>3</v>
       </c>
@@ -10250,14 +10105,11 @@
       <c r="D142" t="s">
         <v>145</v>
       </c>
-      <c r="E142" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E142" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A143" s="1">
         <v>3</v>
       </c>
@@ -10270,14 +10122,11 @@
       <c r="D143" t="s">
         <v>146</v>
       </c>
-      <c r="E143" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E143" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A144" s="1">
         <v>3</v>
       </c>
@@ -10290,14 +10139,11 @@
       <c r="D144" t="s">
         <v>147</v>
       </c>
-      <c r="E144" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E144" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A145" s="1">
         <v>3</v>
       </c>
@@ -10310,14 +10156,11 @@
       <c r="D145" t="s">
         <v>148</v>
       </c>
-      <c r="E145" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E145" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A146" s="1">
         <v>3</v>
       </c>
@@ -10330,14 +10173,11 @@
       <c r="D146" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E146" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A147" s="1">
         <v>3</v>
       </c>
@@ -10350,14 +10190,11 @@
       <c r="D147" t="s">
         <v>150</v>
       </c>
-      <c r="E147" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E147" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A148" s="1">
         <v>3</v>
       </c>
@@ -10370,14 +10207,11 @@
       <c r="D148" t="s">
         <v>151</v>
       </c>
-      <c r="E148" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E148" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A149" s="1">
         <v>3</v>
       </c>
@@ -10390,14 +10224,11 @@
       <c r="D149" t="s">
         <v>152</v>
       </c>
-      <c r="E149" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E149" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -10410,14 +10241,11 @@
       <c r="D150" t="s">
         <v>153</v>
       </c>
-      <c r="E150" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E150" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A151" s="1">
         <v>3</v>
       </c>
@@ -10430,14 +10258,11 @@
       <c r="D151" t="s">
         <v>154</v>
       </c>
-      <c r="E151" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E151" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A152" s="1">
         <v>3</v>
       </c>
@@ -10450,14 +10275,11 @@
       <c r="D152" t="s">
         <v>155</v>
       </c>
-      <c r="E152" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E152" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A153" s="1">
         <v>3</v>
       </c>
@@ -10470,14 +10292,11 @@
       <c r="D153" t="s">
         <v>156</v>
       </c>
-      <c r="E153" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E153" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A154" s="1">
         <v>3</v>
       </c>
@@ -10490,14 +10309,11 @@
       <c r="D154" t="s">
         <v>157</v>
       </c>
-      <c r="E154" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E154" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A155" s="1">
         <v>3</v>
       </c>
@@ -10510,14 +10326,11 @@
       <c r="D155" t="s">
         <v>158</v>
       </c>
-      <c r="E155" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E155" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A156" s="1">
         <v>3</v>
       </c>
@@ -10530,14 +10343,11 @@
       <c r="D156" t="s">
         <v>159</v>
       </c>
-      <c r="E156" s="2">
-        <v>43434</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E156" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A157" s="1">
         <v>3</v>
       </c>
@@ -10550,14 +10360,11 @@
       <c r="D157" t="s">
         <v>160</v>
       </c>
-      <c r="E157" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E157" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A158" s="1">
         <v>3</v>
       </c>
@@ -10570,14 +10377,11 @@
       <c r="D158" t="s">
         <v>161</v>
       </c>
-      <c r="E158" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E158" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A159" s="1">
         <v>3</v>
       </c>
@@ -10590,14 +10394,11 @@
       <c r="D159" t="s">
         <v>162</v>
       </c>
-      <c r="E159" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E159" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A160" s="1">
         <v>3</v>
       </c>
@@ -10610,14 +10411,11 @@
       <c r="D160" t="s">
         <v>163</v>
       </c>
-      <c r="E160" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E160" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A161" s="1">
         <v>3</v>
       </c>
@@ -10630,14 +10428,11 @@
       <c r="D161" t="s">
         <v>164</v>
       </c>
-      <c r="E161" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E161" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A162" s="1">
         <v>3</v>
       </c>
@@ -10650,14 +10445,11 @@
       <c r="D162" t="s">
         <v>165</v>
       </c>
-      <c r="E162" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E162" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A163" s="1">
         <v>3</v>
       </c>
@@ -10670,14 +10462,11 @@
       <c r="D163" t="s">
         <v>166</v>
       </c>
-      <c r="E163" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E163" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A164" s="1">
         <v>3</v>
       </c>
@@ -10690,14 +10479,11 @@
       <c r="D164" t="s">
         <v>167</v>
       </c>
-      <c r="E164" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E164" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A165" s="1">
         <v>3</v>
       </c>
@@ -10710,14 +10496,11 @@
       <c r="D165" t="s">
         <v>168</v>
       </c>
-      <c r="E165" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E165" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A166" s="1">
         <v>3</v>
       </c>
@@ -10730,14 +10513,11 @@
       <c r="D166" t="s">
         <v>169</v>
       </c>
-      <c r="E166" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E166" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A167" s="1">
         <v>3</v>
       </c>
@@ -10750,14 +10530,11 @@
       <c r="D167" t="s">
         <v>170</v>
       </c>
-      <c r="E167" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E167" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A168" s="1">
         <v>3</v>
       </c>
@@ -10770,14 +10547,11 @@
       <c r="D168" t="s">
         <v>171</v>
       </c>
-      <c r="E168" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E168" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A169" s="1">
         <v>3</v>
       </c>
@@ -10790,14 +10564,11 @@
       <c r="D169" t="s">
         <v>172</v>
       </c>
-      <c r="E169" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E169" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A170" s="1">
         <v>4</v>
       </c>
@@ -10810,14 +10581,11 @@
       <c r="D170" t="s">
         <v>174</v>
       </c>
-      <c r="E170" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E170" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A171" s="1">
         <v>4</v>
       </c>
@@ -10830,14 +10598,11 @@
       <c r="D171" t="s">
         <v>175</v>
       </c>
-      <c r="E171" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E171" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A172" s="1">
         <v>4</v>
       </c>
@@ -10850,14 +10615,11 @@
       <c r="D172" t="s">
         <v>176</v>
       </c>
-      <c r="E172" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E172" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A173" s="1">
         <v>4</v>
       </c>
@@ -10870,14 +10632,11 @@
       <c r="D173" t="s">
         <v>177</v>
       </c>
-      <c r="E173" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E173" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A174" s="1">
         <v>4</v>
       </c>
@@ -10890,14 +10649,11 @@
       <c r="D174" t="s">
         <v>178</v>
       </c>
-      <c r="E174" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E174" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A175" s="1">
         <v>4</v>
       </c>
@@ -10910,14 +10666,11 @@
       <c r="D175" t="s">
         <v>179</v>
       </c>
-      <c r="E175" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E175" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A176" s="1">
         <v>4</v>
       </c>
@@ -10930,14 +10683,11 @@
       <c r="D176" t="s">
         <v>180</v>
       </c>
-      <c r="E176" s="2">
-        <v>43435</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E176" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A177" s="1">
         <v>4</v>
       </c>
@@ -10950,14 +10700,11 @@
       <c r="D177" t="s">
         <v>181</v>
       </c>
-      <c r="E177" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E177" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A178" s="1">
         <v>4</v>
       </c>
@@ -10970,14 +10717,11 @@
       <c r="D178" t="s">
         <v>182</v>
       </c>
-      <c r="E178" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E178" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A179" s="1">
         <v>4</v>
       </c>
@@ -10990,14 +10734,11 @@
       <c r="D179" t="s">
         <v>183</v>
       </c>
-      <c r="E179" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E179" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A180" s="1">
         <v>4</v>
       </c>
@@ -11010,14 +10751,11 @@
       <c r="D180" t="s">
         <v>184</v>
       </c>
-      <c r="E180" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E180" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A181" s="1">
         <v>4</v>
       </c>
@@ -11030,14 +10768,11 @@
       <c r="D181" t="s">
         <v>185</v>
       </c>
-      <c r="E181" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E181" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A182" s="1">
         <v>4</v>
       </c>
@@ -11050,14 +10785,11 @@
       <c r="D182" t="s">
         <v>186</v>
       </c>
-      <c r="E182" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E182" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A183" s="1">
         <v>5</v>
       </c>
@@ -11070,14 +10802,11 @@
       <c r="D183" t="s">
         <v>188</v>
       </c>
-      <c r="E183" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E183" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A184" s="1">
         <v>5</v>
       </c>
@@ -11090,14 +10819,11 @@
       <c r="D184" t="s">
         <v>189</v>
       </c>
-      <c r="E184" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E184" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A185" s="1">
         <v>5</v>
       </c>
@@ -11110,14 +10836,11 @@
       <c r="D185" t="s">
         <v>190</v>
       </c>
-      <c r="E185" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E185" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A186" s="1">
         <v>5</v>
       </c>
@@ -11130,14 +10853,11 @@
       <c r="D186" t="s">
         <v>191</v>
       </c>
-      <c r="E186" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E186" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A187" s="1">
         <v>5</v>
       </c>
@@ -11150,14 +10870,11 @@
       <c r="D187" t="s">
         <v>192</v>
       </c>
-      <c r="E187" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E187" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A188" s="1">
         <v>5</v>
       </c>
@@ -11170,14 +10887,11 @@
       <c r="D188" t="s">
         <v>193</v>
       </c>
-      <c r="E188" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E188" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A189" s="1">
         <v>5</v>
       </c>
@@ -11190,14 +10904,11 @@
       <c r="D189" t="s">
         <v>194</v>
       </c>
-      <c r="E189" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E189" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A190" s="1">
         <v>5</v>
       </c>
@@ -11210,14 +10921,11 @@
       <c r="D190" t="s">
         <v>195</v>
       </c>
-      <c r="E190" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E190" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A191" s="1">
         <v>5</v>
       </c>
@@ -11230,14 +10938,11 @@
       <c r="D191" t="s">
         <v>196</v>
       </c>
-      <c r="E191" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E191" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A192" s="1">
         <v>5</v>
       </c>
@@ -11250,14 +10955,11 @@
       <c r="D192" t="s">
         <v>197</v>
       </c>
-      <c r="E192" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E192" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A193" s="1">
         <v>5</v>
       </c>
@@ -11270,14 +10972,11 @@
       <c r="D193" t="s">
         <v>198</v>
       </c>
-      <c r="E193" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E193" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A194" s="1">
         <v>5</v>
       </c>
@@ -11290,14 +10989,11 @@
       <c r="D194" t="s">
         <v>199</v>
       </c>
-      <c r="E194" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E194" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A195" s="1">
         <v>5</v>
       </c>
@@ -11310,14 +11006,11 @@
       <c r="D195" t="s">
         <v>200</v>
       </c>
-      <c r="E195" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E195" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A196" s="1">
         <v>5</v>
       </c>
@@ -11330,14 +11023,11 @@
       <c r="D196" t="s">
         <v>201</v>
       </c>
-      <c r="E196" s="2">
-        <v>43436</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E196" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A197" s="1">
         <v>5</v>
       </c>
@@ -11350,14 +11040,11 @@
       <c r="D197" t="s">
         <v>202</v>
       </c>
-      <c r="E197" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E197" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A198" s="1">
         <v>5</v>
       </c>
@@ -11370,14 +11057,11 @@
       <c r="D198" t="s">
         <v>203</v>
       </c>
-      <c r="E198" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E198" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A199" s="1">
         <v>5</v>
       </c>
@@ -11390,14 +11074,11 @@
       <c r="D199" t="s">
         <v>204</v>
       </c>
-      <c r="E199" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E199" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A200" s="1">
         <v>5</v>
       </c>
@@ -11410,14 +11091,11 @@
       <c r="D200" t="s">
         <v>205</v>
       </c>
-      <c r="E200" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E200" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A201" s="1">
         <v>5</v>
       </c>
@@ -11430,14 +11108,11 @@
       <c r="D201" t="s">
         <v>206</v>
       </c>
-      <c r="E201" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E201" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A202" s="1">
         <v>5</v>
       </c>
@@ -11450,14 +11125,11 @@
       <c r="D202" t="s">
         <v>207</v>
       </c>
-      <c r="E202" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E202" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A203" s="1">
         <v>5</v>
       </c>
@@ -11470,14 +11142,11 @@
       <c r="D203" t="s">
         <v>208</v>
       </c>
-      <c r="E203" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E203" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A204" s="1">
         <v>6</v>
       </c>
@@ -11490,14 +11159,11 @@
       <c r="D204" t="s">
         <v>210</v>
       </c>
-      <c r="E204" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E204" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A205" s="1">
         <v>6</v>
       </c>
@@ -11510,14 +11176,11 @@
       <c r="D205" t="s">
         <v>211</v>
       </c>
-      <c r="E205" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E205" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A206" s="1">
         <v>6</v>
       </c>
@@ -11530,14 +11193,11 @@
       <c r="D206" t="s">
         <v>212</v>
       </c>
-      <c r="E206" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F206" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E206" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A207" s="1">
         <v>6</v>
       </c>
@@ -11550,14 +11210,11 @@
       <c r="D207" t="s">
         <v>213</v>
       </c>
-      <c r="E207" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E207" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A208" s="1">
         <v>6</v>
       </c>
@@ -11570,14 +11227,11 @@
       <c r="D208" t="s">
         <v>214</v>
       </c>
-      <c r="E208" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F208" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E208" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A209" s="1">
         <v>6</v>
       </c>
@@ -11590,14 +11244,11 @@
       <c r="D209" t="s">
         <v>215</v>
       </c>
-      <c r="E209" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E209" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A210" s="1">
         <v>6</v>
       </c>
@@ -11610,14 +11261,11 @@
       <c r="D210" t="s">
         <v>216</v>
       </c>
-      <c r="E210" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F210" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E210" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A211" s="1">
         <v>6</v>
       </c>
@@ -11630,14 +11278,11 @@
       <c r="D211" t="s">
         <v>217</v>
       </c>
-      <c r="E211" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F211" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E211" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A212" s="1">
         <v>6</v>
       </c>
@@ -11650,14 +11295,11 @@
       <c r="D212" t="s">
         <v>218</v>
       </c>
-      <c r="E212" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F212" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E212" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A213" s="1">
         <v>6</v>
       </c>
@@ -11670,14 +11312,11 @@
       <c r="D213" t="s">
         <v>219</v>
       </c>
-      <c r="E213" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E213" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A214" s="1">
         <v>6</v>
       </c>
@@ -11690,14 +11329,11 @@
       <c r="D214" t="s">
         <v>220</v>
       </c>
-      <c r="E214" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F214" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E214" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A215" s="1">
         <v>6</v>
       </c>
@@ -11710,14 +11346,11 @@
       <c r="D215" t="s">
         <v>221</v>
       </c>
-      <c r="E215" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E215" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A216" s="1">
         <v>6</v>
       </c>
@@ -11730,14 +11363,11 @@
       <c r="D216" t="s">
         <v>222</v>
       </c>
-      <c r="E216" s="2">
-        <v>43437</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E216" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A217" s="1">
         <v>6</v>
       </c>
@@ -11750,14 +11380,11 @@
       <c r="D217" t="s">
         <v>223</v>
       </c>
-      <c r="E217" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F217" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E217" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A218" s="1">
         <v>6</v>
       </c>
@@ -11770,14 +11397,11 @@
       <c r="D218" t="s">
         <v>224</v>
       </c>
-      <c r="E218" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F218" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E218" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A219" s="1">
         <v>6</v>
       </c>
@@ -11790,14 +11414,11 @@
       <c r="D219" t="s">
         <v>225</v>
       </c>
-      <c r="E219" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F219" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E219" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A220" s="1">
         <v>6</v>
       </c>
@@ -11810,14 +11431,11 @@
       <c r="D220" t="s">
         <v>226</v>
       </c>
-      <c r="E220" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F220" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E220" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A221" s="1">
         <v>7</v>
       </c>
@@ -11830,14 +11448,11 @@
       <c r="D221" t="s">
         <v>228</v>
       </c>
-      <c r="E221" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F221" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E221" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A222" s="1">
         <v>7</v>
       </c>
@@ -11850,14 +11465,11 @@
       <c r="D222" t="s">
         <v>229</v>
       </c>
-      <c r="E222" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F222" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E222" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A223" s="1">
         <v>7</v>
       </c>
@@ -11870,14 +11482,11 @@
       <c r="D223" t="s">
         <v>230</v>
       </c>
-      <c r="E223" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F223" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E223" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A224" s="1">
         <v>7</v>
       </c>
@@ -11890,14 +11499,11 @@
       <c r="D224" t="s">
         <v>231</v>
       </c>
-      <c r="E224" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F224" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E224" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A225" s="1">
         <v>7</v>
       </c>
@@ -11910,14 +11516,11 @@
       <c r="D225" t="s">
         <v>232</v>
       </c>
-      <c r="E225" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F225" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E225" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A226" s="1">
         <v>7</v>
       </c>
@@ -11930,14 +11533,11 @@
       <c r="D226" t="s">
         <v>233</v>
       </c>
-      <c r="E226" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F226" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E226" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A227" s="1">
         <v>7</v>
       </c>
@@ -11950,14 +11550,11 @@
       <c r="D227" t="s">
         <v>234</v>
       </c>
-      <c r="E227" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F227" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E227" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A228" s="1">
         <v>7</v>
       </c>
@@ -11970,14 +11567,11 @@
       <c r="D228" t="s">
         <v>235</v>
       </c>
-      <c r="E228" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F228" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E228" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A229" s="1">
         <v>7</v>
       </c>
@@ -11990,14 +11584,11 @@
       <c r="D229" t="s">
         <v>236</v>
       </c>
-      <c r="E229" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F229" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E229" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A230" s="1">
         <v>7</v>
       </c>
@@ -12010,14 +11601,11 @@
       <c r="D230" t="s">
         <v>237</v>
       </c>
-      <c r="E230" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F230" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E230" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A231" s="1">
         <v>7</v>
       </c>
@@ -12030,14 +11618,11 @@
       <c r="D231" t="s">
         <v>238</v>
       </c>
-      <c r="E231" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F231" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E231" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A232" s="1">
         <v>7</v>
       </c>
@@ -12050,14 +11635,11 @@
       <c r="D232" t="s">
         <v>239</v>
       </c>
-      <c r="E232" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F232" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E232" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A233" s="1">
         <v>7</v>
       </c>
@@ -12070,14 +11652,11 @@
       <c r="D233" t="s">
         <v>240</v>
       </c>
-      <c r="E233" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F233" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E233" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A234" s="1">
         <v>7</v>
       </c>
@@ -12090,14 +11669,11 @@
       <c r="D234" t="s">
         <v>241</v>
       </c>
-      <c r="E234" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F234" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E234" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A235" s="1">
         <v>7</v>
       </c>
@@ -12110,14 +11686,11 @@
       <c r="D235" t="s">
         <v>242</v>
       </c>
-      <c r="E235" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F235" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E235" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A236" s="1">
         <v>7</v>
       </c>
@@ -12130,14 +11703,11 @@
       <c r="D236" t="s">
         <v>243</v>
       </c>
-      <c r="E236" s="2">
-        <v>43438</v>
-      </c>
-      <c r="F236" s="7">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E236" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A237" s="1">
         <v>7</v>
       </c>
@@ -12150,14 +11720,11 @@
       <c r="D237" t="s">
         <v>244</v>
       </c>
-      <c r="E237" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F237" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E237" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A238" s="1">
         <v>7</v>
       </c>
@@ -12170,14 +11737,11 @@
       <c r="D238" t="s">
         <v>245</v>
       </c>
-      <c r="E238" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F238" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E238" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A239" s="1">
         <v>7</v>
       </c>
@@ -12190,14 +11754,11 @@
       <c r="D239" t="s">
         <v>246</v>
       </c>
-      <c r="E239" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F239" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E239" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A240" s="1">
         <v>7</v>
       </c>
@@ -12210,14 +11771,11 @@
       <c r="D240" t="s">
         <v>247</v>
       </c>
-      <c r="E240" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F240" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E240" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A241" s="1">
         <v>7</v>
       </c>
@@ -12230,14 +11788,11 @@
       <c r="D241" t="s">
         <v>248</v>
       </c>
-      <c r="E241" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F241" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E241" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A242" s="1">
         <v>7</v>
       </c>
@@ -12250,14 +11805,11 @@
       <c r="D242" t="s">
         <v>249</v>
       </c>
-      <c r="E242" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F242" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E242" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A243" s="1">
         <v>7</v>
       </c>
@@ -12270,14 +11822,11 @@
       <c r="D243" t="s">
         <v>250</v>
       </c>
-      <c r="E243" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F243" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E243" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A244" s="1">
         <v>7</v>
       </c>
@@ -12290,14 +11839,11 @@
       <c r="D244" t="s">
         <v>251</v>
       </c>
-      <c r="E244" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F244" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E244" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A245" s="1">
         <v>7</v>
       </c>
@@ -12310,14 +11856,11 @@
       <c r="D245" t="s">
         <v>252</v>
       </c>
-      <c r="E245" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F245" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E245" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A246" s="1">
         <v>7</v>
       </c>
@@ -12330,14 +11873,11 @@
       <c r="D246" t="s">
         <v>253</v>
       </c>
-      <c r="E246" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F246" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E246" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A247" s="1">
         <v>7</v>
       </c>
@@ -12350,14 +11890,11 @@
       <c r="D247" t="s">
         <v>254</v>
       </c>
-      <c r="E247" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F247" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E247" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A248" s="1">
         <v>8</v>
       </c>
@@ -12370,14 +11907,11 @@
       <c r="D248" t="s">
         <v>256</v>
       </c>
-      <c r="E248" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F248" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E248" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A249" s="1">
         <v>8</v>
       </c>
@@ -12390,14 +11924,11 @@
       <c r="D249" t="s">
         <v>257</v>
       </c>
-      <c r="E249" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F249" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E249" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A250" s="1">
         <v>8</v>
       </c>
@@ -12410,14 +11941,11 @@
       <c r="D250" t="s">
         <v>258</v>
       </c>
-      <c r="E250" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F250" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E250" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A251" s="1">
         <v>8</v>
       </c>
@@ -12430,14 +11958,11 @@
       <c r="D251" t="s">
         <v>259</v>
       </c>
-      <c r="E251" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F251" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E251" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A252" s="1">
         <v>8</v>
       </c>
@@ -12450,14 +11975,11 @@
       <c r="D252" t="s">
         <v>260</v>
       </c>
-      <c r="E252" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F252" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E252" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A253" s="1">
         <v>8</v>
       </c>
@@ -12470,14 +11992,11 @@
       <c r="D253" t="s">
         <v>261</v>
       </c>
-      <c r="E253" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F253" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E253" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A254" s="1">
         <v>8</v>
       </c>
@@ -12490,14 +12009,11 @@
       <c r="D254" t="s">
         <v>262</v>
       </c>
-      <c r="E254" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F254" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E254" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A255" s="1">
         <v>8</v>
       </c>
@@ -12510,14 +12026,11 @@
       <c r="D255" t="s">
         <v>263</v>
       </c>
-      <c r="E255" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F255" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E255" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A256" s="1">
         <v>8</v>
       </c>
@@ -12530,14 +12043,11 @@
       <c r="D256" t="s">
         <v>264</v>
       </c>
-      <c r="E256" s="2">
-        <v>43439</v>
-      </c>
-      <c r="F256" s="7">
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E256" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A257" s="1">
         <v>8</v>
       </c>
@@ -12550,14 +12060,11 @@
       <c r="D257" t="s">
         <v>265</v>
       </c>
-      <c r="E257" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F257" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E257" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A258" s="1">
         <v>8</v>
       </c>
@@ -12570,14 +12077,11 @@
       <c r="D258" t="s">
         <v>266</v>
       </c>
-      <c r="E258" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F258" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E258" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A259" s="1">
         <v>8</v>
       </c>
@@ -12590,14 +12094,11 @@
       <c r="D259" t="s">
         <v>267</v>
       </c>
-      <c r="E259" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F259" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E259" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A260" s="1">
         <v>8</v>
       </c>
@@ -12610,14 +12111,11 @@
       <c r="D260" t="s">
         <v>268</v>
       </c>
-      <c r="E260" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F260" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E260" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A261" s="1">
         <v>8</v>
       </c>
@@ -12630,14 +12128,11 @@
       <c r="D261" t="s">
         <v>269</v>
       </c>
-      <c r="E261" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F261" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E261" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A262" s="1">
         <v>8</v>
       </c>
@@ -12650,14 +12145,11 @@
       <c r="D262" t="s">
         <v>270</v>
       </c>
-      <c r="E262" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F262" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E262" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A263" s="1">
         <v>8</v>
       </c>
@@ -12670,14 +12162,11 @@
       <c r="D263" t="s">
         <v>271</v>
       </c>
-      <c r="E263" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F263" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E263" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A264" s="1">
         <v>8</v>
       </c>
@@ -12690,14 +12179,11 @@
       <c r="D264" t="s">
         <v>272</v>
       </c>
-      <c r="E264" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F264" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E264" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A265" s="1">
         <v>8</v>
       </c>
@@ -12710,14 +12196,11 @@
       <c r="D265" t="s">
         <v>273</v>
       </c>
-      <c r="E265" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F265" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E265" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A266" s="1">
         <v>8</v>
       </c>
@@ -12730,14 +12213,11 @@
       <c r="D266" t="s">
         <v>274</v>
       </c>
-      <c r="E266" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F266" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E266" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A267" s="1">
         <v>8</v>
       </c>
@@ -12750,14 +12230,11 @@
       <c r="D267" t="s">
         <v>275</v>
       </c>
-      <c r="E267" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F267" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E267" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A268" s="1">
         <v>8</v>
       </c>
@@ -12770,14 +12247,11 @@
       <c r="D268" t="s">
         <v>276</v>
       </c>
-      <c r="E268" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F268" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E268" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A269" s="1">
         <v>8</v>
       </c>
@@ -12790,14 +12264,11 @@
       <c r="D269" t="s">
         <v>277</v>
       </c>
-      <c r="E269" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F269" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E269" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A270" s="1">
         <v>8</v>
       </c>
@@ -12810,14 +12281,11 @@
       <c r="D270" t="s">
         <v>278</v>
       </c>
-      <c r="E270" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F270" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E270" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A271" s="1">
         <v>8</v>
       </c>
@@ -12830,14 +12298,11 @@
       <c r="D271" t="s">
         <v>279</v>
       </c>
-      <c r="E271" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F271" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E271" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A272" s="1">
         <v>9</v>
       </c>
@@ -12850,14 +12315,11 @@
       <c r="D272" t="s">
         <v>281</v>
       </c>
-      <c r="E272" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F272" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E272" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A273" s="1">
         <v>9</v>
       </c>
@@ -12870,14 +12332,11 @@
       <c r="D273" t="s">
         <v>282</v>
       </c>
-      <c r="E273" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F273" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E273" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A274" s="1">
         <v>9</v>
       </c>
@@ -12890,14 +12349,11 @@
       <c r="D274" t="s">
         <v>283</v>
       </c>
-      <c r="E274" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F274" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E274" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A275" s="1">
         <v>9</v>
       </c>
@@ -12910,14 +12366,11 @@
       <c r="D275" t="s">
         <v>284</v>
       </c>
-      <c r="E275" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F275" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E275" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A276" s="1">
         <v>9</v>
       </c>
@@ -12930,14 +12383,11 @@
       <c r="D276" t="s">
         <v>285</v>
       </c>
-      <c r="E276" s="2">
-        <v>43440</v>
-      </c>
-      <c r="F276" s="7">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E276" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A277" s="1">
         <v>9</v>
       </c>
@@ -12950,14 +12400,11 @@
       <c r="D277" t="s">
         <v>286</v>
       </c>
-      <c r="E277" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F277" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E277" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A278" s="1">
         <v>9</v>
       </c>
@@ -12970,14 +12417,11 @@
       <c r="D278" t="s">
         <v>287</v>
       </c>
-      <c r="E278" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F278" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E278" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A279" s="1">
         <v>9</v>
       </c>
@@ -12990,14 +12434,11 @@
       <c r="D279" t="s">
         <v>288</v>
       </c>
-      <c r="E279" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F279" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E279" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A280" s="1">
         <v>9</v>
       </c>
@@ -13010,14 +12451,11 @@
       <c r="D280" t="s">
         <v>289</v>
       </c>
-      <c r="E280" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F280" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E280" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A281" s="1">
         <v>9</v>
       </c>
@@ -13030,14 +12468,11 @@
       <c r="D281" t="s">
         <v>290</v>
       </c>
-      <c r="E281" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F281" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E281" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A282" s="1">
         <v>9</v>
       </c>
@@ -13050,14 +12485,11 @@
       <c r="D282" t="s">
         <v>291</v>
       </c>
-      <c r="E282" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F282" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E282" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A283" s="1">
         <v>9</v>
       </c>
@@ -13070,14 +12502,11 @@
       <c r="D283" t="s">
         <v>292</v>
       </c>
-      <c r="E283" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F283" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E283" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A284" s="1">
         <v>9</v>
       </c>
@@ -13090,14 +12519,11 @@
       <c r="D284" t="s">
         <v>293</v>
       </c>
-      <c r="E284" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F284" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E284" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A285" s="1">
         <v>9</v>
       </c>
@@ -13110,14 +12536,11 @@
       <c r="D285" t="s">
         <v>294</v>
       </c>
-      <c r="E285" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F285" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E285" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A286" s="1">
         <v>9</v>
       </c>
@@ -13130,14 +12553,11 @@
       <c r="D286" t="s">
         <v>295</v>
       </c>
-      <c r="E286" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F286" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E286" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A287" s="1">
         <v>9</v>
       </c>
@@ -13150,14 +12570,11 @@
       <c r="D287" t="s">
         <v>296</v>
       </c>
-      <c r="E287" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F287" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E287" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A288" s="1">
         <v>9</v>
       </c>
@@ -13170,14 +12587,11 @@
       <c r="D288" t="s">
         <v>297</v>
       </c>
-      <c r="E288" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F288" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E288" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A289" s="1">
         <v>9</v>
       </c>
@@ -13190,14 +12604,11 @@
       <c r="D289" t="s">
         <v>298</v>
       </c>
-      <c r="E289" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F289" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E289" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A290" s="1">
         <v>9</v>
       </c>
@@ -13210,14 +12621,11 @@
       <c r="D290" t="s">
         <v>299</v>
       </c>
-      <c r="E290" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F290" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E290" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A291" s="1">
         <v>9</v>
       </c>
@@ -13230,14 +12638,11 @@
       <c r="D291" t="s">
         <v>300</v>
       </c>
-      <c r="E291" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F291" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E291" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A292" s="1">
         <v>9</v>
       </c>
@@ -13250,14 +12655,11 @@
       <c r="D292" t="s">
         <v>301</v>
       </c>
-      <c r="E292" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F292" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E292" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A293" s="1">
         <v>9</v>
       </c>
@@ -13270,14 +12672,11 @@
       <c r="D293" t="s">
         <v>302</v>
       </c>
-      <c r="E293" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F293" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E293" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A294" s="1">
         <v>10</v>
       </c>
@@ -13290,14 +12689,11 @@
       <c r="D294" t="s">
         <v>304</v>
       </c>
-      <c r="E294" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F294" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E294" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A295" s="1">
         <v>10</v>
       </c>
@@ -13310,14 +12706,11 @@
       <c r="D295" t="s">
         <v>305</v>
       </c>
-      <c r="E295" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F295" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E295" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A296" s="1">
         <v>10</v>
       </c>
@@ -13330,14 +12723,11 @@
       <c r="D296" t="s">
         <v>306</v>
       </c>
-      <c r="E296" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F296" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E296" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A297" s="1">
         <v>10</v>
       </c>
@@ -13350,14 +12740,11 @@
       <c r="D297" t="s">
         <v>307</v>
       </c>
-      <c r="E297" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F297" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E297" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A298" s="1">
         <v>10</v>
       </c>
@@ -13370,14 +12757,11 @@
       <c r="D298" t="s">
         <v>308</v>
       </c>
-      <c r="E298" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F298" s="7">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E298" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A299" s="1">
         <v>10</v>
       </c>
@@ -13390,11 +12774,18 @@
       <c r="D299" t="s">
         <v>309</v>
       </c>
-      <c r="E299" s="2">
-        <v>43441</v>
-      </c>
-      <c r="F299" s="7">
-        <v>43438</v>
+      <c r="E299" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D301" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D302" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -13404,7 +12795,7 @@
     <sortCondition ref="C2:C317"/>
   </sortState>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>43428</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A5768-5C52-41A3-8B92-11E5399E7FD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6ACE3-67AE-40B6-BB52-FB323DB670DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="386">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1166,6 +1166,36 @@
   </si>
   <si>
     <t>2,080 hours = 208 days. FOR ENTIRE FCC &amp; ALL CERTIFICATIONS</t>
+  </si>
+  <si>
+    <t>PassedDeclare a Read-Only Variable with the const Keyword</t>
+  </si>
+  <si>
+    <t>PassedMutate an Array Declared with const</t>
+  </si>
+  <si>
+    <t>PassedPrevent Object Mutation</t>
+  </si>
+  <si>
+    <t>PassedUse Arrow Functions to Write Concise Anonymous Functions</t>
+  </si>
+  <si>
+    <t>PassedWrite Arrow Functions with Parameters</t>
+  </si>
+  <si>
+    <t>PassedWrite Higher Order Arrow Functions</t>
+  </si>
+  <si>
+    <t>PassedSet Default Parameters for Your Functions</t>
+  </si>
+  <si>
+    <t>PassedUse the Rest Operator with Function Parameters</t>
+  </si>
+  <si>
+    <t>PassedUse the Spread Operator to Evaluate Arrays In-Place</t>
+  </si>
+  <si>
+    <t>PassedUse Destructuring Assignment to Assign Variables from Objects</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1234,6 +1264,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7669,8 +7700,8 @@
   <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D301" sqref="D301"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9599,11 +9630,11 @@
       <c r="C113" s="1">
         <v>4</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>373</v>
+      <c r="D113" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E113" s="2">
+        <v>43436</v>
       </c>
       <c r="F113" s="7">
         <v>43426</v>
@@ -9622,11 +9653,11 @@
       <c r="C114" s="1">
         <v>5</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>373</v>
+      <c r="D114" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E114" s="2">
+        <v>43436</v>
       </c>
       <c r="G114">
         <f>G113-F113</f>
@@ -9643,11 +9674,11 @@
       <c r="C115" s="1">
         <v>6</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>373</v>
+      <c r="D115" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E115" s="2">
+        <v>43436</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.75">
@@ -9660,11 +9691,11 @@
       <c r="C116" s="1">
         <v>7</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>373</v>
+      <c r="D116" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E116" s="2">
+        <v>43436</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.75">
@@ -9677,11 +9708,11 @@
       <c r="C117" s="1">
         <v>8</v>
       </c>
-      <c r="D117" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>373</v>
+      <c r="D117" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E117" s="2">
+        <v>43436</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.75">
@@ -9694,11 +9725,11 @@
       <c r="C118" s="1">
         <v>9</v>
       </c>
-      <c r="D118" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>373</v>
+      <c r="D118" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E118" s="2">
+        <v>43436</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.75">
@@ -9711,11 +9742,11 @@
       <c r="C119" s="1">
         <v>10</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>373</v>
+      <c r="D119" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E119" s="2">
+        <v>43436</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.75">
@@ -9728,11 +9759,11 @@
       <c r="C120" s="1">
         <v>11</v>
       </c>
-      <c r="D120" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>373</v>
+      <c r="D120" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E120" s="2">
+        <v>43436</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.75">
@@ -9745,11 +9776,11 @@
       <c r="C121" s="1">
         <v>12</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>373</v>
+      <c r="D121" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E121" s="2">
+        <v>43436</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.75">
@@ -9762,11 +9793,11 @@
       <c r="C122" s="1">
         <v>13</v>
       </c>
-      <c r="D122" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>373</v>
+      <c r="D122" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E122" s="2">
+        <v>43436</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.75">
@@ -9779,7 +9810,7 @@
       <c r="C123" s="1">
         <v>14</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -9796,7 +9827,7 @@
       <c r="C124" s="1">
         <v>15</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E124" s="2" t="s">
@@ -9813,7 +9844,7 @@
       <c r="C125" s="1">
         <v>16</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E125" s="2" t="s">
@@ -9830,7 +9861,7 @@
       <c r="C126" s="1">
         <v>17</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E126" s="2" t="s">
@@ -9847,7 +9878,7 @@
       <c r="C127" s="1">
         <v>18</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -9864,7 +9895,7 @@
       <c r="C128" s="1">
         <v>19</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -9881,7 +9912,7 @@
       <c r="C129" s="1">
         <v>20</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E129" s="2" t="s">
@@ -9898,7 +9929,7 @@
       <c r="C130" s="1">
         <v>21</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="10" t="s">
         <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
@@ -9915,7 +9946,7 @@
       <c r="C131" s="1">
         <v>22</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
@@ -9932,7 +9963,7 @@
       <c r="C132" s="1">
         <v>23</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="10" t="s">
         <v>134</v>
       </c>
       <c r="E132" s="2" t="s">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6ACE3-67AE-40B6-BB52-FB323DB670DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D834F348-8642-4034-8F49-CCBF51F70D3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="392">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1196,6 +1196,24 @@
   </si>
   <si>
     <t>PassedUse Destructuring Assignment to Assign Variables from Objects</t>
+  </si>
+  <si>
+    <t>PassedUse Destructuring Assignment to Assign Variables from Nested Objects</t>
+  </si>
+  <si>
+    <t>PassedUse Destructuring Assignment to Assign Variables from Arrays</t>
+  </si>
+  <si>
+    <t>PassedUse Destructuring Assignment with the Rest Operator to Reassign Array Elements</t>
+  </si>
+  <si>
+    <t>PassedUse Destructuring Assignment to Pass an Object as a Function's Parameters</t>
+  </si>
+  <si>
+    <t>PassedCreate Strings using Template Literals</t>
+  </si>
+  <si>
+    <t>PassedWrite Concise Object Literal Declarations Using Simple Fields</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1229,6 +1247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1264,7 +1288,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7701,7 +7726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9810,11 +9835,11 @@
       <c r="C123" s="1">
         <v>14</v>
       </c>
-      <c r="D123" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>373</v>
+      <c r="D123" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E123" s="2">
+        <v>43437</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.75">
@@ -9827,11 +9852,11 @@
       <c r="C124" s="1">
         <v>15</v>
       </c>
-      <c r="D124" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>373</v>
+      <c r="D124" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E124" s="2">
+        <v>43437</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.75">
@@ -9844,11 +9869,11 @@
       <c r="C125" s="1">
         <v>16</v>
       </c>
-      <c r="D125" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>373</v>
+      <c r="D125" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E125" s="2">
+        <v>43437</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.75">
@@ -9861,11 +9886,11 @@
       <c r="C126" s="1">
         <v>17</v>
       </c>
-      <c r="D126" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>373</v>
+      <c r="D126" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E126" s="2">
+        <v>43437</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.75">
@@ -9878,11 +9903,11 @@
       <c r="C127" s="1">
         <v>18</v>
       </c>
-      <c r="D127" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>373</v>
+      <c r="D127" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E127" s="2">
+        <v>43437</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.75">
@@ -9895,11 +9920,11 @@
       <c r="C128" s="1">
         <v>19</v>
       </c>
-      <c r="D128" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>373</v>
+      <c r="D128" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="E128" s="2">
+        <v>43437</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.75">
@@ -9912,11 +9937,11 @@
       <c r="C129" s="1">
         <v>20</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>373</v>
+      <c r="E129" s="2">
+        <v>43437</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.75">
@@ -9929,11 +9954,11 @@
       <c r="C130" s="1">
         <v>21</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>373</v>
+      <c r="E130" s="2">
+        <v>43437</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.75">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D834F348-8642-4034-8F49-CCBF51F70D3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675CDB8-E98B-4579-A36A-1C5404B95CCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="392">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -7726,7 +7726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
+      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9974,8 +9974,8 @@
       <c r="D131" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>373</v>
+      <c r="E131" s="2">
+        <v>43437</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.75">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675CDB8-E98B-4579-A36A-1C5404B95CCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E297B73-F77A-4C55-82E7-B7910FBB486C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="396">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1214,6 +1214,18 @@
   </si>
   <si>
     <t>PassedWrite Concise Object Literal Declarations Using Simple Fields</t>
+  </si>
+  <si>
+    <t>PassedWrite Concise Declarative Functions with ES6</t>
+  </si>
+  <si>
+    <t>PassedUse class Syntax to Define a Constructor Function</t>
+  </si>
+  <si>
+    <t>PassedUse getters and setters to Control Access to an Object</t>
+  </si>
+  <si>
+    <t>PassedUnderstand the Differences Between import and require</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1247,12 +1259,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,8 +1294,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7726,7 +7732,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
+      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9835,7 +9841,7 @@
       <c r="C123" s="1">
         <v>14</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="10" t="s">
         <v>386</v>
       </c>
       <c r="E123" s="2">
@@ -9852,7 +9858,7 @@
       <c r="C124" s="1">
         <v>15</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="10" t="s">
         <v>387</v>
       </c>
       <c r="E124" s="2">
@@ -9869,7 +9875,7 @@
       <c r="C125" s="1">
         <v>16</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="10" t="s">
         <v>388</v>
       </c>
       <c r="E125" s="2">
@@ -9886,7 +9892,7 @@
       <c r="C126" s="1">
         <v>17</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="10" t="s">
         <v>389</v>
       </c>
       <c r="E126" s="2">
@@ -9903,7 +9909,7 @@
       <c r="C127" s="1">
         <v>18</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="10" t="s">
         <v>390</v>
       </c>
       <c r="E127" s="2">
@@ -9920,7 +9926,7 @@
       <c r="C128" s="1">
         <v>19</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="10" t="s">
         <v>391</v>
       </c>
       <c r="E128" s="2">
@@ -9937,8 +9943,8 @@
       <c r="C129" s="1">
         <v>20</v>
       </c>
-      <c r="D129" s="11" t="s">
-        <v>131</v>
+      <c r="D129" s="10" t="s">
+        <v>392</v>
       </c>
       <c r="E129" s="2">
         <v>43437</v>
@@ -9954,8 +9960,8 @@
       <c r="C130" s="1">
         <v>21</v>
       </c>
-      <c r="D130" s="11" t="s">
-        <v>132</v>
+      <c r="D130" s="10" t="s">
+        <v>393</v>
       </c>
       <c r="E130" s="2">
         <v>43437</v>
@@ -9971,8 +9977,8 @@
       <c r="C131" s="1">
         <v>22</v>
       </c>
-      <c r="D131" s="10" t="s">
-        <v>133</v>
+      <c r="D131" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="E131" s="2">
         <v>43437</v>
@@ -9988,11 +9994,11 @@
       <c r="C132" s="1">
         <v>23</v>
       </c>
-      <c r="D132" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>373</v>
+      <c r="D132" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="E132" s="2">
+        <v>43437</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.75">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E297B73-F77A-4C55-82E7-B7910FBB486C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE8871-885E-49C0-B454-EDE9854371CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="397">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1226,6 +1226,9 @@
   </si>
   <si>
     <t>PassedUnderstand the Differences Between import and require</t>
+  </si>
+  <si>
+    <t>PassedUse export to Reuse a Code Block</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,7 +1278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1293,9 +1296,8 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7731,8 +7733,8 @@
   <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9841,7 +9843,7 @@
       <c r="C123" s="1">
         <v>14</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="9" t="s">
         <v>386</v>
       </c>
       <c r="E123" s="2">
@@ -9858,7 +9860,7 @@
       <c r="C124" s="1">
         <v>15</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="9" t="s">
         <v>387</v>
       </c>
       <c r="E124" s="2">
@@ -9875,7 +9877,7 @@
       <c r="C125" s="1">
         <v>16</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="9" t="s">
         <v>388</v>
       </c>
       <c r="E125" s="2">
@@ -9892,7 +9894,7 @@
       <c r="C126" s="1">
         <v>17</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="9" t="s">
         <v>389</v>
       </c>
       <c r="E126" s="2">
@@ -9909,7 +9911,7 @@
       <c r="C127" s="1">
         <v>18</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="9" t="s">
         <v>390</v>
       </c>
       <c r="E127" s="2">
@@ -9926,7 +9928,7 @@
       <c r="C128" s="1">
         <v>19</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="9" t="s">
         <v>391</v>
       </c>
       <c r="E128" s="2">
@@ -9943,7 +9945,7 @@
       <c r="C129" s="1">
         <v>20</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="9" t="s">
         <v>392</v>
       </c>
       <c r="E129" s="2">
@@ -9960,7 +9962,7 @@
       <c r="C130" s="1">
         <v>21</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="9" t="s">
         <v>393</v>
       </c>
       <c r="E130" s="2">
@@ -9977,7 +9979,7 @@
       <c r="C131" s="1">
         <v>22</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="9" t="s">
         <v>394</v>
       </c>
       <c r="E131" s="2">
@@ -9994,7 +9996,7 @@
       <c r="C132" s="1">
         <v>23</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="9" t="s">
         <v>395</v>
       </c>
       <c r="E132" s="2">
@@ -10012,10 +10014,10 @@
         <v>24</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>373</v>
+        <v>396</v>
+      </c>
+      <c r="E133" s="2">
+        <v>43437</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.75">
@@ -10028,7 +10030,7 @@
       <c r="C134" s="1">
         <v>25</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="10" t="s">
         <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
@@ -10045,7 +10047,7 @@
       <c r="C135" s="1">
         <v>26</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="10" t="s">
         <v>137</v>
       </c>
       <c r="E135" s="2" t="s">
@@ -10062,7 +10064,7 @@
       <c r="C136" s="1">
         <v>27</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="10" t="s">
         <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
@@ -10079,7 +10081,7 @@
       <c r="C137" s="1">
         <v>136</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="10" t="s">
         <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
@@ -10096,7 +10098,7 @@
       <c r="C138" s="1">
         <v>137</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D138" s="10" t="s">
         <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -10113,7 +10115,7 @@
       <c r="C139" s="1">
         <v>138</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="10" t="s">
         <v>142</v>
       </c>
       <c r="E139" s="2" t="s">
@@ -10130,7 +10132,7 @@
       <c r="C140" s="1">
         <v>139</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -10147,7 +10149,7 @@
       <c r="C141" s="1">
         <v>140</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="10" t="s">
         <v>144</v>
       </c>
       <c r="E141" s="2" t="s">
@@ -10164,7 +10166,7 @@
       <c r="C142" s="1">
         <v>141</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="10" t="s">
         <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
@@ -10181,7 +10183,7 @@
       <c r="C143" s="1">
         <v>142</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="10" t="s">
         <v>146</v>
       </c>
       <c r="E143" s="2" t="s">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE8871-885E-49C0-B454-EDE9854371CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCF1B57-E6EA-4AC3-A9EF-392EED5746E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="400">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1229,6 +1229,15 @@
   </si>
   <si>
     <t>PassedUse export to Reuse a Code Block</t>
+  </si>
+  <si>
+    <t>PassedUse * to Import Everything from a File</t>
+  </si>
+  <si>
+    <t>PassedCreate an Export Fallback with export default</t>
+  </si>
+  <si>
+    <t>PassedImport a Default Export</t>
   </si>
 </sst>
 </file>
@@ -7733,8 +7742,8 @@
   <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10030,11 +10039,11 @@
       <c r="C134" s="1">
         <v>25</v>
       </c>
-      <c r="D134" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>373</v>
+      <c r="D134" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E134" s="2">
+        <v>43438</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.75">
@@ -10047,11 +10056,11 @@
       <c r="C135" s="1">
         <v>26</v>
       </c>
-      <c r="D135" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>373</v>
+      <c r="D135" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E135" s="2">
+        <v>43438</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.75">
@@ -10064,11 +10073,11 @@
       <c r="C136" s="1">
         <v>27</v>
       </c>
-      <c r="D136" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>373</v>
+      <c r="D136" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E136" s="2">
+        <v>43438</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.75">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCF1B57-E6EA-4AC3-A9EF-392EED5746E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75920905-3834-4CEA-9659-6534EAD33866}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$299</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$E$299</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="406">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1238,6 +1238,24 @@
   </si>
   <si>
     <t>PassedImport a Default Export</t>
+  </si>
+  <si>
+    <t>PassedUsing the Test Method</t>
+  </si>
+  <si>
+    <t>PassedMatch Literal Strings</t>
+  </si>
+  <si>
+    <t>PassedMatch a Literal String with Different Possibilities</t>
+  </si>
+  <si>
+    <t>PassedIgnore Case While Matching</t>
+  </si>
+  <si>
+    <t>PassedExtract Matches</t>
+  </si>
+  <si>
+    <t>PassedFind More Than the First Match</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1307,6 +1325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,7 +1357,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="faith" refreshedDate="43430.962715393522" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="298" xr:uid="{84901F53-4DAA-4C8B-A36D-D2E6C11FD620}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E299" sheet="Sheet1"/>
+    <worksheetSource ref="A1:F299" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Level" numFmtId="0">
@@ -7739,11 +7758,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854B096C-9AB9-4373-9BA6-F815FE4F1473}">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7751,11 +7770,12 @@
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="42.04296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.6796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="77.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>310</v>
       </c>
@@ -7765,14 +7785,14 @@
       <c r="C1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>331</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7782,14 +7802,14 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7799,14 +7819,14 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7816,14 +7836,14 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7833,14 +7853,14 @@
       <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -7850,14 +7870,14 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7867,14 +7887,14 @@
       <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -7884,14 +7904,14 @@
       <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -7901,14 +7921,14 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -7918,14 +7938,14 @@
       <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -7935,14 +7955,14 @@
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -7952,14 +7972,14 @@
       <c r="C12" s="1">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -7969,14 +7989,14 @@
       <c r="C13" s="1">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -7986,14 +8006,14 @@
       <c r="C14" s="1">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -8003,14 +8023,14 @@
       <c r="C15" s="1">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -8020,14 +8040,14 @@
       <c r="C16" s="1">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>43426</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -8037,14 +8057,14 @@
       <c r="C17" s="1">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -8054,14 +8074,14 @@
       <c r="C18" s="1">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -8071,14 +8091,14 @@
       <c r="C19" s="1">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -8088,14 +8108,14 @@
       <c r="C20" s="1">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -8105,14 +8125,14 @@
       <c r="C21" s="1">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -8122,14 +8142,14 @@
       <c r="C22" s="1">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -8139,14 +8159,14 @@
       <c r="C23" s="1">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -8156,14 +8176,14 @@
       <c r="C24" s="1">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -8173,14 +8193,14 @@
       <c r="C25" s="1">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -8190,14 +8210,14 @@
       <c r="C26" s="1">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -8207,14 +8227,14 @@
       <c r="C27" s="1">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -8224,14 +8244,14 @@
       <c r="C28" s="1">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -8241,14 +8261,14 @@
       <c r="C29" s="1">
         <v>28</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -8258,14 +8278,14 @@
       <c r="C30" s="1">
         <v>29</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -8275,14 +8295,14 @@
       <c r="C31" s="1">
         <v>30</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -8292,14 +8312,14 @@
       <c r="C32" s="1">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -8309,14 +8329,14 @@
       <c r="C33" s="1">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -8326,14 +8346,14 @@
       <c r="C34" s="1">
         <v>33</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -8343,14 +8363,14 @@
       <c r="C35" s="1">
         <v>34</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -8360,14 +8380,14 @@
       <c r="C36" s="1">
         <v>35</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>43427</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -8377,14 +8397,14 @@
       <c r="C37" s="1">
         <v>36</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -8394,14 +8414,14 @@
       <c r="C38" s="1">
         <v>37</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -8411,14 +8431,14 @@
       <c r="C39" s="1">
         <v>38</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -8428,14 +8448,14 @@
       <c r="C40" s="1">
         <v>39</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -8445,14 +8465,14 @@
       <c r="C41" s="1">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -8462,14 +8482,14 @@
       <c r="C42" s="1">
         <v>41</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -8479,14 +8499,14 @@
       <c r="C43" s="1">
         <v>42</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -8496,14 +8516,14 @@
       <c r="C44" s="1">
         <v>43</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -8513,14 +8533,14 @@
       <c r="C45" s="1">
         <v>44</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -8530,14 +8550,14 @@
       <c r="C46" s="1">
         <v>45</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -8547,14 +8567,14 @@
       <c r="C47" s="1">
         <v>46</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -8564,14 +8584,14 @@
       <c r="C48" s="1">
         <v>47</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -8581,14 +8601,14 @@
       <c r="C49" s="1">
         <v>48</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F49" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -8598,14 +8618,14 @@
       <c r="C50" s="1">
         <v>49</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F50" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -8615,14 +8635,14 @@
       <c r="C51" s="1">
         <v>50</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -8632,14 +8652,14 @@
       <c r="C52" s="1">
         <v>51</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -8649,14 +8669,14 @@
       <c r="C53" s="1">
         <v>52</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -8666,14 +8686,14 @@
       <c r="C54" s="1">
         <v>53</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -8683,14 +8703,14 @@
       <c r="C55" s="1">
         <v>54</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -8700,14 +8720,14 @@
       <c r="C56" s="1">
         <v>55</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="2">
         <v>43428</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -8717,14 +8737,14 @@
       <c r="C57" s="1">
         <v>56</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -8734,14 +8754,14 @@
       <c r="C58" s="1">
         <v>57</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -8751,14 +8771,14 @@
       <c r="C59" s="1">
         <v>58</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>58</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -8768,14 +8788,14 @@
       <c r="C60" s="1">
         <v>59</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F60" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -8785,14 +8805,14 @@
       <c r="C61" s="1">
         <v>60</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F61" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -8802,14 +8822,14 @@
       <c r="C62" s="1">
         <v>61</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>61</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F62" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -8819,14 +8839,14 @@
       <c r="C63" s="1">
         <v>62</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F63" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -8836,14 +8856,14 @@
       <c r="C64" s="1">
         <v>63</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="2">
+      <c r="F64" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -8853,14 +8873,14 @@
       <c r="C65" s="1">
         <v>64</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="2">
+      <c r="F65" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -8870,14 +8890,14 @@
       <c r="C66" s="1">
         <v>65</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>65</v>
       </c>
-      <c r="E66" s="2">
+      <c r="F66" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -8887,14 +8907,14 @@
       <c r="C67" s="1">
         <v>66</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>66</v>
       </c>
-      <c r="E67" s="2">
+      <c r="F67" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -8904,14 +8924,14 @@
       <c r="C68" s="1">
         <v>67</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="2">
+      <c r="F68" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -8921,14 +8941,14 @@
       <c r="C69" s="1">
         <v>68</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>68</v>
       </c>
-      <c r="E69" s="2">
+      <c r="F69" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -8938,14 +8958,14 @@
       <c r="C70" s="1">
         <v>69</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>69</v>
       </c>
-      <c r="E70" s="2">
+      <c r="F70" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -8955,14 +8975,14 @@
       <c r="C71" s="1">
         <v>70</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>70</v>
       </c>
-      <c r="E71" s="2">
+      <c r="F71" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A72" s="1">
         <v>1</v>
       </c>
@@ -8972,14 +8992,14 @@
       <c r="C72" s="1">
         <v>71</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>333</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F72" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A73" s="1">
         <v>1</v>
       </c>
@@ -8989,14 +9009,14 @@
       <c r="C73" s="1">
         <v>72</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>334</v>
       </c>
-      <c r="E73" s="2">
+      <c r="F73" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -9006,14 +9026,14 @@
       <c r="C74" s="1">
         <v>73</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>332</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74" s="2">
         <v>43430</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A75" s="1">
         <v>1</v>
       </c>
@@ -9023,14 +9043,14 @@
       <c r="C75" s="1">
         <v>74</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>335</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75" s="2">
         <v>43431</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -9040,14 +9060,14 @@
       <c r="C76" s="1">
         <v>75</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>336</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76" s="2">
         <v>43431</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -9057,14 +9077,14 @@
       <c r="C77" s="1">
         <v>76</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>337</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77" s="2">
         <v>43431</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -9074,14 +9094,14 @@
       <c r="C78" s="1">
         <v>77</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>338</v>
       </c>
-      <c r="E78" s="2">
+      <c r="F78" s="2">
         <v>43431</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -9091,14 +9111,14 @@
       <c r="C79" s="1">
         <v>78</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>339</v>
       </c>
-      <c r="E79" s="2">
+      <c r="F79" s="2">
         <v>43431</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A80" s="1">
         <v>1</v>
       </c>
@@ -9108,14 +9128,14 @@
       <c r="C80" s="1">
         <v>79</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>353</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A81" s="1">
         <v>1</v>
       </c>
@@ -9125,14 +9145,14 @@
       <c r="C81" s="1">
         <v>80</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>340</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A82" s="1">
         <v>1</v>
       </c>
@@ -9142,14 +9162,14 @@
       <c r="C82" s="1">
         <v>81</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>341</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -9159,14 +9179,14 @@
       <c r="C83" s="1">
         <v>82</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>342</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -9176,14 +9196,14 @@
       <c r="C84" s="1">
         <v>83</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>343</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -9193,14 +9213,14 @@
       <c r="C85" s="1">
         <v>84</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>344</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -9210,14 +9230,14 @@
       <c r="C86" s="1">
         <v>85</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>345</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -9227,14 +9247,14 @@
       <c r="C87" s="1">
         <v>86</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>346</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A88" s="1">
         <v>1</v>
       </c>
@@ -9244,14 +9264,14 @@
       <c r="C88" s="1">
         <v>87</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>347</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A89" s="1">
         <v>1</v>
       </c>
@@ -9261,14 +9281,14 @@
       <c r="C89" s="1">
         <v>88</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>348</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -9278,14 +9298,14 @@
       <c r="C90" s="1">
         <v>89</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>349</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A91" s="1">
         <v>1</v>
       </c>
@@ -9295,14 +9315,14 @@
       <c r="C91" s="1">
         <v>90</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>350</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -9312,14 +9332,14 @@
       <c r="C92" s="1">
         <v>91</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>351</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -9329,14 +9349,14 @@
       <c r="C93" s="1">
         <v>92</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>352</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -9346,14 +9366,14 @@
       <c r="C94" s="1">
         <v>93</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="E94" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -9363,14 +9383,14 @@
       <c r="C95" s="1">
         <v>94</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="E95" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -9380,14 +9400,14 @@
       <c r="C96" s="1">
         <v>95</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="E96" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -9397,14 +9417,14 @@
       <c r="C97" s="1">
         <v>96</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="E97" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -9414,14 +9434,14 @@
       <c r="C98" s="1">
         <v>97</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="E98" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -9431,14 +9451,14 @@
       <c r="C99" s="1">
         <v>98</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="E99" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -9448,14 +9468,14 @@
       <c r="C100" s="1">
         <v>99</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="E100" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -9465,14 +9485,14 @@
       <c r="C101" s="1">
         <v>100</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="E101" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -9482,14 +9502,14 @@
       <c r="C102" s="1">
         <v>101</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="E102" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -9499,14 +9519,14 @@
       <c r="C103" s="1">
         <v>102</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="E103" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -9516,14 +9536,14 @@
       <c r="C104" s="1">
         <v>103</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="E104" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -9533,14 +9553,14 @@
       <c r="C105" s="1">
         <v>104</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="E105" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -9550,14 +9570,14 @@
       <c r="C106" s="1">
         <v>105</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="E106" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A107" s="1">
         <v>1</v>
       </c>
@@ -9567,14 +9587,14 @@
       <c r="C107" s="1">
         <v>106</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="E107" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A108" s="1">
         <v>1</v>
       </c>
@@ -9584,14 +9604,14 @@
       <c r="C108" s="1">
         <v>107</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="E108" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -9601,14 +9621,14 @@
       <c r="C109" s="1">
         <v>108</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="E109" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -9618,14 +9638,14 @@
       <c r="C110" s="1">
         <v>1</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="E110" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A111" s="1">
         <v>2</v>
       </c>
@@ -9635,14 +9655,14 @@
       <c r="C111" s="1">
         <v>2</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="E111" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A112" s="1">
         <v>2</v>
       </c>
@@ -9652,17 +9672,17 @@
       <c r="C112" s="1">
         <v>3</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="E112" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -9672,20 +9692,20 @@
       <c r="C113" s="1">
         <v>4</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="E113" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E113" s="2">
+      <c r="F113" s="2">
         <v>43436</v>
       </c>
-      <c r="F113" s="7">
+      <c r="G113" s="7">
         <v>43426</v>
       </c>
-      <c r="G113" s="7">
+      <c r="H113" s="7">
         <v>43436</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -9695,18 +9715,18 @@
       <c r="C114" s="1">
         <v>5</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="E114" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="E114" s="2">
+      <c r="F114" s="2">
         <v>43436</v>
       </c>
-      <c r="G114">
-        <f>G113-F113</f>
+      <c r="H114">
+        <f>H113-G113</f>
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -9716,14 +9736,14 @@
       <c r="C115" s="1">
         <v>6</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="E115" s="2">
+      <c r="F115" s="2">
         <v>43436</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -9733,14 +9753,14 @@
       <c r="C116" s="1">
         <v>7</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="E116" s="2">
+      <c r="F116" s="2">
         <v>43436</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -9750,14 +9770,14 @@
       <c r="C117" s="1">
         <v>8</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="E117" s="2">
+      <c r="F117" s="2">
         <v>43436</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -9767,14 +9787,14 @@
       <c r="C118" s="1">
         <v>9</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="E118" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="E118" s="2">
+      <c r="F118" s="2">
         <v>43436</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -9784,14 +9804,14 @@
       <c r="C119" s="1">
         <v>10</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="E119" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E119" s="2">
+      <c r="F119" s="2">
         <v>43436</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -9801,14 +9821,14 @@
       <c r="C120" s="1">
         <v>11</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="E120" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="E120" s="2">
+      <c r="F120" s="2">
         <v>43436</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -9818,14 +9838,14 @@
       <c r="C121" s="1">
         <v>12</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="E121" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E121" s="2">
+      <c r="F121" s="2">
         <v>43436</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A122" s="1">
         <v>2</v>
       </c>
@@ -9835,14 +9855,14 @@
       <c r="C122" s="1">
         <v>13</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="E122" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E122" s="2">
+      <c r="F122" s="2">
         <v>43436</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -9852,14 +9872,14 @@
       <c r="C123" s="1">
         <v>14</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="E123" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="E123" s="2">
+      <c r="F123" s="2">
         <v>43437</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -9869,14 +9889,14 @@
       <c r="C124" s="1">
         <v>15</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="E124" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="E124" s="2">
+      <c r="F124" s="2">
         <v>43437</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -9886,14 +9906,14 @@
       <c r="C125" s="1">
         <v>16</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="E125" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="E125" s="2">
+      <c r="F125" s="2">
         <v>43437</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -9903,14 +9923,14 @@
       <c r="C126" s="1">
         <v>17</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="E126" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="E126" s="2">
+      <c r="F126" s="2">
         <v>43437</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -9920,14 +9940,14 @@
       <c r="C127" s="1">
         <v>18</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="E127" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="E127" s="2">
+      <c r="F127" s="2">
         <v>43437</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -9937,14 +9957,14 @@
       <c r="C128" s="1">
         <v>19</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="E128" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="E128" s="2">
+      <c r="F128" s="2">
         <v>43437</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -9954,14 +9974,14 @@
       <c r="C129" s="1">
         <v>20</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="E129" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E129" s="2">
+      <c r="F129" s="2">
         <v>43437</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -9971,14 +9991,14 @@
       <c r="C130" s="1">
         <v>21</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="E130" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="E130" s="2">
+      <c r="F130" s="2">
         <v>43437</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -9988,14 +10008,14 @@
       <c r="C131" s="1">
         <v>22</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="E131" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="E131" s="2">
+      <c r="F131" s="2">
         <v>43437</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -10005,14 +10025,14 @@
       <c r="C132" s="1">
         <v>23</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="E132" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="E132" s="2">
+      <c r="F132" s="2">
         <v>43437</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -10022,14 +10042,14 @@
       <c r="C133" s="1">
         <v>24</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="E133" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="E133" s="2">
+      <c r="F133" s="2">
         <v>43437</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -10039,14 +10059,14 @@
       <c r="C134" s="1">
         <v>25</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="E134" s="2">
+      <c r="F134" s="2">
         <v>43438</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -10056,14 +10076,14 @@
       <c r="C135" s="1">
         <v>26</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="E135" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E135" s="2">
+      <c r="F135" s="2">
         <v>43438</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -10073,14 +10093,14 @@
       <c r="C136" s="1">
         <v>27</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="E136" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="E136" s="2">
+      <c r="F136" s="2">
         <v>43438</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A137" s="1">
         <v>3</v>
       </c>
@@ -10090,14 +10110,17 @@
       <c r="C137" s="1">
         <v>136</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F137" s="2">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A138" s="1">
         <v>3</v>
       </c>
@@ -10107,14 +10130,17 @@
       <c r="C138" s="1">
         <v>137</v>
       </c>
-      <c r="D138" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D138" s="1">
+        <v>2</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F138" s="2">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A139" s="1">
         <v>3</v>
       </c>
@@ -10124,14 +10150,17 @@
       <c r="C139" s="1">
         <v>138</v>
       </c>
-      <c r="D139" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D139" s="1">
+        <v>3</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F139" s="2">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A140" s="1">
         <v>3</v>
       </c>
@@ -10141,14 +10170,17 @@
       <c r="C140" s="1">
         <v>139</v>
       </c>
-      <c r="D140" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D140" s="1">
+        <v>4</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F140" s="2">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A141" s="1">
         <v>3</v>
       </c>
@@ -10158,14 +10190,17 @@
       <c r="C141" s="1">
         <v>140</v>
       </c>
-      <c r="D141" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D141" s="1">
+        <v>5</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F141" s="2">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A142" s="1">
         <v>3</v>
       </c>
@@ -10175,14 +10210,17 @@
       <c r="C142" s="1">
         <v>141</v>
       </c>
-      <c r="D142" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D142" s="1">
+        <v>6</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F142" s="2">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A143" s="1">
         <v>3</v>
       </c>
@@ -10192,14 +10230,17 @@
       <c r="C143" s="1">
         <v>142</v>
       </c>
-      <c r="D143" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D143" s="1">
+        <v>7</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="F143" s="2">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A144" s="1">
         <v>3</v>
       </c>
@@ -10209,14 +10250,17 @@
       <c r="C144" s="1">
         <v>143</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="1">
+        <v>8</v>
+      </c>
+      <c r="E144" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F144" s="11">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A145" s="1">
         <v>3</v>
       </c>
@@ -10226,14 +10270,17 @@
       <c r="C145" s="1">
         <v>144</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="1">
+        <v>9</v>
+      </c>
+      <c r="E145" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F145" s="11">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A146" s="1">
         <v>3</v>
       </c>
@@ -10243,14 +10290,17 @@
       <c r="C146" s="1">
         <v>145</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="1">
+        <v>10</v>
+      </c>
+      <c r="E146" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F146" s="11">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A147" s="1">
         <v>3</v>
       </c>
@@ -10260,14 +10310,17 @@
       <c r="C147" s="1">
         <v>146</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="1">
+        <v>11</v>
+      </c>
+      <c r="E147" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F147" s="11">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A148" s="1">
         <v>3</v>
       </c>
@@ -10277,14 +10330,17 @@
       <c r="C148" s="1">
         <v>147</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="1">
+        <v>12</v>
+      </c>
+      <c r="E148" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F148" s="11">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A149" s="1">
         <v>3</v>
       </c>
@@ -10294,14 +10350,17 @@
       <c r="C149" s="1">
         <v>148</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="1">
+        <v>13</v>
+      </c>
+      <c r="E149" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F149" s="11">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -10311,14 +10370,17 @@
       <c r="C150" s="1">
         <v>149</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="1">
+        <v>14</v>
+      </c>
+      <c r="E150" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F150" s="11">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A151" s="1">
         <v>3</v>
       </c>
@@ -10328,14 +10390,17 @@
       <c r="C151" s="1">
         <v>150</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="1">
+        <v>15</v>
+      </c>
+      <c r="E151" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F151" s="11">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A152" s="1">
         <v>3</v>
       </c>
@@ -10345,14 +10410,17 @@
       <c r="C152" s="1">
         <v>151</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="1">
+        <v>16</v>
+      </c>
+      <c r="E152" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F152" s="11">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A153" s="1">
         <v>3</v>
       </c>
@@ -10362,14 +10430,17 @@
       <c r="C153" s="1">
         <v>152</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="1">
+        <v>17</v>
+      </c>
+      <c r="E153" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F153" s="11">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A154" s="1">
         <v>3</v>
       </c>
@@ -10379,14 +10450,17 @@
       <c r="C154" s="1">
         <v>153</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="1">
+        <v>18</v>
+      </c>
+      <c r="E154" t="s">
         <v>157</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F154" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A155" s="1">
         <v>3</v>
       </c>
@@ -10396,14 +10470,17 @@
       <c r="C155" s="1">
         <v>154</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="1">
+        <v>19</v>
+      </c>
+      <c r="E155" t="s">
         <v>158</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F155" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A156" s="1">
         <v>3</v>
       </c>
@@ -10413,14 +10490,17 @@
       <c r="C156" s="1">
         <v>155</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="1">
+        <v>20</v>
+      </c>
+      <c r="E156" t="s">
         <v>159</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F156" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A157" s="1">
         <v>3</v>
       </c>
@@ -10430,14 +10510,17 @@
       <c r="C157" s="1">
         <v>156</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="1">
+        <v>21</v>
+      </c>
+      <c r="E157" t="s">
         <v>160</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F157" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A158" s="1">
         <v>3</v>
       </c>
@@ -10447,14 +10530,17 @@
       <c r="C158" s="1">
         <v>157</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="1">
+        <v>22</v>
+      </c>
+      <c r="E158" t="s">
         <v>161</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F158" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A159" s="1">
         <v>3</v>
       </c>
@@ -10464,14 +10550,17 @@
       <c r="C159" s="1">
         <v>158</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="1">
+        <v>23</v>
+      </c>
+      <c r="E159" t="s">
         <v>162</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F159" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A160" s="1">
         <v>3</v>
       </c>
@@ -10481,14 +10570,17 @@
       <c r="C160" s="1">
         <v>159</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="1">
+        <v>24</v>
+      </c>
+      <c r="E160" t="s">
         <v>163</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F160" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A161" s="1">
         <v>3</v>
       </c>
@@ -10498,14 +10590,17 @@
       <c r="C161" s="1">
         <v>160</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="1">
+        <v>25</v>
+      </c>
+      <c r="E161" t="s">
         <v>164</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F161" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A162" s="1">
         <v>3</v>
       </c>
@@ -10515,14 +10610,17 @@
       <c r="C162" s="1">
         <v>161</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="1">
+        <v>26</v>
+      </c>
+      <c r="E162" t="s">
         <v>165</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F162" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A163" s="1">
         <v>3</v>
       </c>
@@ -10532,14 +10630,17 @@
       <c r="C163" s="1">
         <v>162</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="1">
+        <v>27</v>
+      </c>
+      <c r="E163" t="s">
         <v>166</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F163" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A164" s="1">
         <v>3</v>
       </c>
@@ -10549,14 +10650,17 @@
       <c r="C164" s="1">
         <v>163</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="1">
+        <v>28</v>
+      </c>
+      <c r="E164" t="s">
         <v>167</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F164" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A165" s="1">
         <v>3</v>
       </c>
@@ -10566,14 +10670,17 @@
       <c r="C165" s="1">
         <v>164</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="1">
+        <v>29</v>
+      </c>
+      <c r="E165" t="s">
         <v>168</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F165" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A166" s="1">
         <v>3</v>
       </c>
@@ -10583,14 +10690,17 @@
       <c r="C166" s="1">
         <v>165</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="1">
+        <v>30</v>
+      </c>
+      <c r="E166" t="s">
         <v>169</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F166" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A167" s="1">
         <v>3</v>
       </c>
@@ -10600,14 +10710,17 @@
       <c r="C167" s="1">
         <v>166</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="1">
+        <v>31</v>
+      </c>
+      <c r="E167" t="s">
         <v>170</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F167" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A168" s="1">
         <v>3</v>
       </c>
@@ -10617,14 +10730,17 @@
       <c r="C168" s="1">
         <v>167</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="1">
+        <v>32</v>
+      </c>
+      <c r="E168" t="s">
         <v>171</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F168" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A169" s="1">
         <v>3</v>
       </c>
@@ -10634,14 +10750,17 @@
       <c r="C169" s="1">
         <v>168</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="1">
+        <v>33</v>
+      </c>
+      <c r="E169" t="s">
         <v>172</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F169" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A170" s="1">
         <v>4</v>
       </c>
@@ -10651,14 +10770,14 @@
       <c r="C170" s="1">
         <v>169</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>174</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F170" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A171" s="1">
         <v>4</v>
       </c>
@@ -10668,14 +10787,14 @@
       <c r="C171" s="1">
         <v>170</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>175</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F171" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A172" s="1">
         <v>4</v>
       </c>
@@ -10685,14 +10804,14 @@
       <c r="C172" s="1">
         <v>171</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>176</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F172" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A173" s="1">
         <v>4</v>
       </c>
@@ -10702,14 +10821,14 @@
       <c r="C173" s="1">
         <v>172</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>177</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F173" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A174" s="1">
         <v>4</v>
       </c>
@@ -10719,14 +10838,14 @@
       <c r="C174" s="1">
         <v>173</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>178</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F174" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A175" s="1">
         <v>4</v>
       </c>
@@ -10736,14 +10855,14 @@
       <c r="C175" s="1">
         <v>174</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>179</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F175" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A176" s="1">
         <v>4</v>
       </c>
@@ -10753,14 +10872,14 @@
       <c r="C176" s="1">
         <v>175</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>180</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F176" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A177" s="1">
         <v>4</v>
       </c>
@@ -10770,14 +10889,14 @@
       <c r="C177" s="1">
         <v>176</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>181</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F177" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A178" s="1">
         <v>4</v>
       </c>
@@ -10787,14 +10906,14 @@
       <c r="C178" s="1">
         <v>177</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>182</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F178" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A179" s="1">
         <v>4</v>
       </c>
@@ -10804,14 +10923,14 @@
       <c r="C179" s="1">
         <v>178</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>183</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F179" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A180" s="1">
         <v>4</v>
       </c>
@@ -10821,14 +10940,14 @@
       <c r="C180" s="1">
         <v>179</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>184</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F180" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A181" s="1">
         <v>4</v>
       </c>
@@ -10838,14 +10957,14 @@
       <c r="C181" s="1">
         <v>180</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>185</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F181" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A182" s="1">
         <v>4</v>
       </c>
@@ -10855,14 +10974,14 @@
       <c r="C182" s="1">
         <v>181</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>186</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F182" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A183" s="1">
         <v>5</v>
       </c>
@@ -10872,14 +10991,14 @@
       <c r="C183" s="1">
         <v>182</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>188</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F183" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A184" s="1">
         <v>5</v>
       </c>
@@ -10889,14 +11008,14 @@
       <c r="C184" s="1">
         <v>183</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>189</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F184" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A185" s="1">
         <v>5</v>
       </c>
@@ -10906,14 +11025,14 @@
       <c r="C185" s="1">
         <v>184</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>190</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F185" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A186" s="1">
         <v>5</v>
       </c>
@@ -10923,14 +11042,14 @@
       <c r="C186" s="1">
         <v>185</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>191</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F186" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A187" s="1">
         <v>5</v>
       </c>
@@ -10940,14 +11059,14 @@
       <c r="C187" s="1">
         <v>186</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>192</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F187" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A188" s="1">
         <v>5</v>
       </c>
@@ -10957,14 +11076,14 @@
       <c r="C188" s="1">
         <v>187</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>193</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F188" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A189" s="1">
         <v>5</v>
       </c>
@@ -10974,14 +11093,14 @@
       <c r="C189" s="1">
         <v>188</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>194</v>
       </c>
-      <c r="E189" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F189" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A190" s="1">
         <v>5</v>
       </c>
@@ -10991,14 +11110,14 @@
       <c r="C190" s="1">
         <v>189</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>195</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F190" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A191" s="1">
         <v>5</v>
       </c>
@@ -11008,14 +11127,14 @@
       <c r="C191" s="1">
         <v>190</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>196</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F191" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A192" s="1">
         <v>5</v>
       </c>
@@ -11025,14 +11144,14 @@
       <c r="C192" s="1">
         <v>191</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>197</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F192" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A193" s="1">
         <v>5</v>
       </c>
@@ -11042,14 +11161,14 @@
       <c r="C193" s="1">
         <v>192</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>198</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F193" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A194" s="1">
         <v>5</v>
       </c>
@@ -11059,14 +11178,14 @@
       <c r="C194" s="1">
         <v>193</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>199</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F194" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A195" s="1">
         <v>5</v>
       </c>
@@ -11076,14 +11195,14 @@
       <c r="C195" s="1">
         <v>194</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>200</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F195" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A196" s="1">
         <v>5</v>
       </c>
@@ -11093,14 +11212,14 @@
       <c r="C196" s="1">
         <v>195</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>201</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F196" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A197" s="1">
         <v>5</v>
       </c>
@@ -11110,14 +11229,14 @@
       <c r="C197" s="1">
         <v>196</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>202</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F197" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A198" s="1">
         <v>5</v>
       </c>
@@ -11127,14 +11246,14 @@
       <c r="C198" s="1">
         <v>197</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>203</v>
       </c>
-      <c r="E198" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F198" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A199" s="1">
         <v>5</v>
       </c>
@@ -11144,14 +11263,14 @@
       <c r="C199" s="1">
         <v>198</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>204</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F199" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A200" s="1">
         <v>5</v>
       </c>
@@ -11161,14 +11280,14 @@
       <c r="C200" s="1">
         <v>199</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>205</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F200" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A201" s="1">
         <v>5</v>
       </c>
@@ -11178,14 +11297,14 @@
       <c r="C201" s="1">
         <v>200</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>206</v>
       </c>
-      <c r="E201" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F201" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A202" s="1">
         <v>5</v>
       </c>
@@ -11195,14 +11314,14 @@
       <c r="C202" s="1">
         <v>201</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>207</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F202" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A203" s="1">
         <v>5</v>
       </c>
@@ -11212,14 +11331,14 @@
       <c r="C203" s="1">
         <v>202</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>208</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F203" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A204" s="1">
         <v>6</v>
       </c>
@@ -11229,14 +11348,14 @@
       <c r="C204" s="1">
         <v>203</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>210</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F204" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A205" s="1">
         <v>6</v>
       </c>
@@ -11246,14 +11365,14 @@
       <c r="C205" s="1">
         <v>204</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>211</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F205" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A206" s="1">
         <v>6</v>
       </c>
@@ -11263,14 +11382,14 @@
       <c r="C206" s="1">
         <v>205</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>212</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F206" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A207" s="1">
         <v>6</v>
       </c>
@@ -11280,14 +11399,14 @@
       <c r="C207" s="1">
         <v>206</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>213</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F207" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A208" s="1">
         <v>6</v>
       </c>
@@ -11297,14 +11416,14 @@
       <c r="C208" s="1">
         <v>207</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>214</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F208" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A209" s="1">
         <v>6</v>
       </c>
@@ -11314,14 +11433,14 @@
       <c r="C209" s="1">
         <v>208</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>215</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F209" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A210" s="1">
         <v>6</v>
       </c>
@@ -11331,14 +11450,14 @@
       <c r="C210" s="1">
         <v>209</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>216</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F210" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A211" s="1">
         <v>6</v>
       </c>
@@ -11348,14 +11467,14 @@
       <c r="C211" s="1">
         <v>210</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>217</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F211" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A212" s="1">
         <v>6</v>
       </c>
@@ -11365,14 +11484,14 @@
       <c r="C212" s="1">
         <v>211</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>218</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F212" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A213" s="1">
         <v>6</v>
       </c>
@@ -11382,14 +11501,14 @@
       <c r="C213" s="1">
         <v>212</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>219</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F213" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A214" s="1">
         <v>6</v>
       </c>
@@ -11399,14 +11518,14 @@
       <c r="C214" s="1">
         <v>213</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>220</v>
       </c>
-      <c r="E214" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F214" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A215" s="1">
         <v>6</v>
       </c>
@@ -11416,14 +11535,14 @@
       <c r="C215" s="1">
         <v>214</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>221</v>
       </c>
-      <c r="E215" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F215" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A216" s="1">
         <v>6</v>
       </c>
@@ -11433,14 +11552,14 @@
       <c r="C216" s="1">
         <v>215</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>222</v>
       </c>
-      <c r="E216" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F216" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A217" s="1">
         <v>6</v>
       </c>
@@ -11450,14 +11569,14 @@
       <c r="C217" s="1">
         <v>216</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>223</v>
       </c>
-      <c r="E217" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F217" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A218" s="1">
         <v>6</v>
       </c>
@@ -11467,14 +11586,14 @@
       <c r="C218" s="1">
         <v>217</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>224</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F218" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A219" s="1">
         <v>6</v>
       </c>
@@ -11484,14 +11603,14 @@
       <c r="C219" s="1">
         <v>218</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>225</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F219" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A220" s="1">
         <v>6</v>
       </c>
@@ -11501,14 +11620,14 @@
       <c r="C220" s="1">
         <v>219</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>226</v>
       </c>
-      <c r="E220" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F220" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A221" s="1">
         <v>7</v>
       </c>
@@ -11518,14 +11637,14 @@
       <c r="C221" s="1">
         <v>220</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>228</v>
       </c>
-      <c r="E221" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F221" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A222" s="1">
         <v>7</v>
       </c>
@@ -11535,14 +11654,14 @@
       <c r="C222" s="1">
         <v>221</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>229</v>
       </c>
-      <c r="E222" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F222" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A223" s="1">
         <v>7</v>
       </c>
@@ -11552,14 +11671,14 @@
       <c r="C223" s="1">
         <v>222</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>230</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F223" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A224" s="1">
         <v>7</v>
       </c>
@@ -11569,14 +11688,14 @@
       <c r="C224" s="1">
         <v>223</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>231</v>
       </c>
-      <c r="E224" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F224" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A225" s="1">
         <v>7</v>
       </c>
@@ -11586,14 +11705,14 @@
       <c r="C225" s="1">
         <v>224</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>232</v>
       </c>
-      <c r="E225" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F225" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A226" s="1">
         <v>7</v>
       </c>
@@ -11603,14 +11722,14 @@
       <c r="C226" s="1">
         <v>225</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>233</v>
       </c>
-      <c r="E226" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F226" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A227" s="1">
         <v>7</v>
       </c>
@@ -11620,14 +11739,14 @@
       <c r="C227" s="1">
         <v>226</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>234</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F227" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A228" s="1">
         <v>7</v>
       </c>
@@ -11637,14 +11756,14 @@
       <c r="C228" s="1">
         <v>227</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>235</v>
       </c>
-      <c r="E228" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F228" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A229" s="1">
         <v>7</v>
       </c>
@@ -11654,14 +11773,14 @@
       <c r="C229" s="1">
         <v>228</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>236</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F229" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A230" s="1">
         <v>7</v>
       </c>
@@ -11671,14 +11790,14 @@
       <c r="C230" s="1">
         <v>229</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>237</v>
       </c>
-      <c r="E230" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F230" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A231" s="1">
         <v>7</v>
       </c>
@@ -11688,14 +11807,14 @@
       <c r="C231" s="1">
         <v>230</v>
       </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>238</v>
       </c>
-      <c r="E231" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F231" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A232" s="1">
         <v>7</v>
       </c>
@@ -11705,14 +11824,14 @@
       <c r="C232" s="1">
         <v>231</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>239</v>
       </c>
-      <c r="E232" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F232" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A233" s="1">
         <v>7</v>
       </c>
@@ -11722,14 +11841,14 @@
       <c r="C233" s="1">
         <v>232</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
         <v>240</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F233" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A234" s="1">
         <v>7</v>
       </c>
@@ -11739,14 +11858,14 @@
       <c r="C234" s="1">
         <v>233</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E234" t="s">
         <v>241</v>
       </c>
-      <c r="E234" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F234" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A235" s="1">
         <v>7</v>
       </c>
@@ -11756,14 +11875,14 @@
       <c r="C235" s="1">
         <v>234</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>242</v>
       </c>
-      <c r="E235" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F235" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A236" s="1">
         <v>7</v>
       </c>
@@ -11773,14 +11892,14 @@
       <c r="C236" s="1">
         <v>235</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>243</v>
       </c>
-      <c r="E236" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F236" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A237" s="1">
         <v>7</v>
       </c>
@@ -11790,14 +11909,14 @@
       <c r="C237" s="1">
         <v>236</v>
       </c>
-      <c r="D237" t="s">
+      <c r="E237" t="s">
         <v>244</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F237" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A238" s="1">
         <v>7</v>
       </c>
@@ -11807,14 +11926,14 @@
       <c r="C238" s="1">
         <v>237</v>
       </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
         <v>245</v>
       </c>
-      <c r="E238" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F238" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A239" s="1">
         <v>7</v>
       </c>
@@ -11824,14 +11943,14 @@
       <c r="C239" s="1">
         <v>238</v>
       </c>
-      <c r="D239" t="s">
+      <c r="E239" t="s">
         <v>246</v>
       </c>
-      <c r="E239" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F239" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A240" s="1">
         <v>7</v>
       </c>
@@ -11841,14 +11960,14 @@
       <c r="C240" s="1">
         <v>239</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>247</v>
       </c>
-      <c r="E240" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F240" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A241" s="1">
         <v>7</v>
       </c>
@@ -11858,14 +11977,14 @@
       <c r="C241" s="1">
         <v>240</v>
       </c>
-      <c r="D241" t="s">
+      <c r="E241" t="s">
         <v>248</v>
       </c>
-      <c r="E241" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F241" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A242" s="1">
         <v>7</v>
       </c>
@@ -11875,14 +11994,14 @@
       <c r="C242" s="1">
         <v>241</v>
       </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>249</v>
       </c>
-      <c r="E242" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F242" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A243" s="1">
         <v>7</v>
       </c>
@@ -11892,14 +12011,14 @@
       <c r="C243" s="1">
         <v>242</v>
       </c>
-      <c r="D243" t="s">
+      <c r="E243" t="s">
         <v>250</v>
       </c>
-      <c r="E243" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F243" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A244" s="1">
         <v>7</v>
       </c>
@@ -11909,14 +12028,14 @@
       <c r="C244" s="1">
         <v>243</v>
       </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>251</v>
       </c>
-      <c r="E244" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F244" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A245" s="1">
         <v>7</v>
       </c>
@@ -11926,14 +12045,14 @@
       <c r="C245" s="1">
         <v>244</v>
       </c>
-      <c r="D245" t="s">
+      <c r="E245" t="s">
         <v>252</v>
       </c>
-      <c r="E245" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F245" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A246" s="1">
         <v>7</v>
       </c>
@@ -11943,14 +12062,14 @@
       <c r="C246" s="1">
         <v>245</v>
       </c>
-      <c r="D246" t="s">
+      <c r="E246" t="s">
         <v>253</v>
       </c>
-      <c r="E246" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F246" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A247" s="1">
         <v>7</v>
       </c>
@@ -11960,14 +12079,14 @@
       <c r="C247" s="1">
         <v>246</v>
       </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>254</v>
       </c>
-      <c r="E247" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F247" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A248" s="1">
         <v>8</v>
       </c>
@@ -11977,14 +12096,14 @@
       <c r="C248" s="1">
         <v>247</v>
       </c>
-      <c r="D248" t="s">
+      <c r="E248" t="s">
         <v>256</v>
       </c>
-      <c r="E248" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F248" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A249" s="1">
         <v>8</v>
       </c>
@@ -11994,14 +12113,14 @@
       <c r="C249" s="1">
         <v>248</v>
       </c>
-      <c r="D249" t="s">
+      <c r="E249" t="s">
         <v>257</v>
       </c>
-      <c r="E249" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F249" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A250" s="1">
         <v>8</v>
       </c>
@@ -12011,14 +12130,14 @@
       <c r="C250" s="1">
         <v>249</v>
       </c>
-      <c r="D250" t="s">
+      <c r="E250" t="s">
         <v>258</v>
       </c>
-      <c r="E250" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F250" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A251" s="1">
         <v>8</v>
       </c>
@@ -12028,14 +12147,14 @@
       <c r="C251" s="1">
         <v>250</v>
       </c>
-      <c r="D251" t="s">
+      <c r="E251" t="s">
         <v>259</v>
       </c>
-      <c r="E251" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F251" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A252" s="1">
         <v>8</v>
       </c>
@@ -12045,14 +12164,14 @@
       <c r="C252" s="1">
         <v>251</v>
       </c>
-      <c r="D252" t="s">
+      <c r="E252" t="s">
         <v>260</v>
       </c>
-      <c r="E252" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F252" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A253" s="1">
         <v>8</v>
       </c>
@@ -12062,14 +12181,14 @@
       <c r="C253" s="1">
         <v>252</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>261</v>
       </c>
-      <c r="E253" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F253" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A254" s="1">
         <v>8</v>
       </c>
@@ -12079,14 +12198,14 @@
       <c r="C254" s="1">
         <v>253</v>
       </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
         <v>262</v>
       </c>
-      <c r="E254" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F254" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A255" s="1">
         <v>8</v>
       </c>
@@ -12096,14 +12215,14 @@
       <c r="C255" s="1">
         <v>254</v>
       </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>263</v>
       </c>
-      <c r="E255" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F255" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A256" s="1">
         <v>8</v>
       </c>
@@ -12113,14 +12232,14 @@
       <c r="C256" s="1">
         <v>255</v>
       </c>
-      <c r="D256" t="s">
+      <c r="E256" t="s">
         <v>264</v>
       </c>
-      <c r="E256" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F256" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A257" s="1">
         <v>8</v>
       </c>
@@ -12130,14 +12249,14 @@
       <c r="C257" s="1">
         <v>256</v>
       </c>
-      <c r="D257" t="s">
+      <c r="E257" t="s">
         <v>265</v>
       </c>
-      <c r="E257" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F257" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A258" s="1">
         <v>8</v>
       </c>
@@ -12147,14 +12266,14 @@
       <c r="C258" s="1">
         <v>257</v>
       </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
         <v>266</v>
       </c>
-      <c r="E258" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F258" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A259" s="1">
         <v>8</v>
       </c>
@@ -12164,14 +12283,14 @@
       <c r="C259" s="1">
         <v>258</v>
       </c>
-      <c r="D259" t="s">
+      <c r="E259" t="s">
         <v>267</v>
       </c>
-      <c r="E259" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F259" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A260" s="1">
         <v>8</v>
       </c>
@@ -12181,14 +12300,14 @@
       <c r="C260" s="1">
         <v>259</v>
       </c>
-      <c r="D260" t="s">
+      <c r="E260" t="s">
         <v>268</v>
       </c>
-      <c r="E260" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F260" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A261" s="1">
         <v>8</v>
       </c>
@@ -12198,14 +12317,14 @@
       <c r="C261" s="1">
         <v>260</v>
       </c>
-      <c r="D261" t="s">
+      <c r="E261" t="s">
         <v>269</v>
       </c>
-      <c r="E261" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F261" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A262" s="1">
         <v>8</v>
       </c>
@@ -12215,14 +12334,14 @@
       <c r="C262" s="1">
         <v>261</v>
       </c>
-      <c r="D262" t="s">
+      <c r="E262" t="s">
         <v>270</v>
       </c>
-      <c r="E262" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F262" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A263" s="1">
         <v>8</v>
       </c>
@@ -12232,14 +12351,14 @@
       <c r="C263" s="1">
         <v>262</v>
       </c>
-      <c r="D263" t="s">
+      <c r="E263" t="s">
         <v>271</v>
       </c>
-      <c r="E263" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F263" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A264" s="1">
         <v>8</v>
       </c>
@@ -12249,14 +12368,14 @@
       <c r="C264" s="1">
         <v>263</v>
       </c>
-      <c r="D264" t="s">
+      <c r="E264" t="s">
         <v>272</v>
       </c>
-      <c r="E264" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F264" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A265" s="1">
         <v>8</v>
       </c>
@@ -12266,14 +12385,14 @@
       <c r="C265" s="1">
         <v>264</v>
       </c>
-      <c r="D265" t="s">
+      <c r="E265" t="s">
         <v>273</v>
       </c>
-      <c r="E265" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F265" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A266" s="1">
         <v>8</v>
       </c>
@@ -12283,14 +12402,14 @@
       <c r="C266" s="1">
         <v>265</v>
       </c>
-      <c r="D266" t="s">
+      <c r="E266" t="s">
         <v>274</v>
       </c>
-      <c r="E266" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F266" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A267" s="1">
         <v>8</v>
       </c>
@@ -12300,14 +12419,14 @@
       <c r="C267" s="1">
         <v>266</v>
       </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>275</v>
       </c>
-      <c r="E267" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F267" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A268" s="1">
         <v>8</v>
       </c>
@@ -12317,14 +12436,14 @@
       <c r="C268" s="1">
         <v>267</v>
       </c>
-      <c r="D268" t="s">
+      <c r="E268" t="s">
         <v>276</v>
       </c>
-      <c r="E268" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F268" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A269" s="1">
         <v>8</v>
       </c>
@@ -12334,14 +12453,14 @@
       <c r="C269" s="1">
         <v>268</v>
       </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
         <v>277</v>
       </c>
-      <c r="E269" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F269" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A270" s="1">
         <v>8</v>
       </c>
@@ -12351,14 +12470,14 @@
       <c r="C270" s="1">
         <v>269</v>
       </c>
-      <c r="D270" t="s">
+      <c r="E270" t="s">
         <v>278</v>
       </c>
-      <c r="E270" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F270" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A271" s="1">
         <v>8</v>
       </c>
@@ -12368,14 +12487,14 @@
       <c r="C271" s="1">
         <v>270</v>
       </c>
-      <c r="D271" t="s">
+      <c r="E271" t="s">
         <v>279</v>
       </c>
-      <c r="E271" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F271" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A272" s="1">
         <v>9</v>
       </c>
@@ -12385,14 +12504,14 @@
       <c r="C272" s="1">
         <v>271</v>
       </c>
-      <c r="D272" t="s">
+      <c r="E272" t="s">
         <v>281</v>
       </c>
-      <c r="E272" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F272" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A273" s="1">
         <v>9</v>
       </c>
@@ -12402,14 +12521,14 @@
       <c r="C273" s="1">
         <v>272</v>
       </c>
-      <c r="D273" t="s">
+      <c r="E273" t="s">
         <v>282</v>
       </c>
-      <c r="E273" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F273" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A274" s="1">
         <v>9</v>
       </c>
@@ -12419,14 +12538,14 @@
       <c r="C274" s="1">
         <v>273</v>
       </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>283</v>
       </c>
-      <c r="E274" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F274" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A275" s="1">
         <v>9</v>
       </c>
@@ -12436,14 +12555,14 @@
       <c r="C275" s="1">
         <v>274</v>
       </c>
-      <c r="D275" t="s">
+      <c r="E275" t="s">
         <v>284</v>
       </c>
-      <c r="E275" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F275" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A276" s="1">
         <v>9</v>
       </c>
@@ -12453,14 +12572,14 @@
       <c r="C276" s="1">
         <v>275</v>
       </c>
-      <c r="D276" t="s">
+      <c r="E276" t="s">
         <v>285</v>
       </c>
-      <c r="E276" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F276" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A277" s="1">
         <v>9</v>
       </c>
@@ -12470,14 +12589,14 @@
       <c r="C277" s="1">
         <v>276</v>
       </c>
-      <c r="D277" t="s">
+      <c r="E277" t="s">
         <v>286</v>
       </c>
-      <c r="E277" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F277" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A278" s="1">
         <v>9</v>
       </c>
@@ -12487,14 +12606,14 @@
       <c r="C278" s="1">
         <v>277</v>
       </c>
-      <c r="D278" t="s">
+      <c r="E278" t="s">
         <v>287</v>
       </c>
-      <c r="E278" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F278" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A279" s="1">
         <v>9</v>
       </c>
@@ -12504,14 +12623,14 @@
       <c r="C279" s="1">
         <v>278</v>
       </c>
-      <c r="D279" t="s">
+      <c r="E279" t="s">
         <v>288</v>
       </c>
-      <c r="E279" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F279" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A280" s="1">
         <v>9</v>
       </c>
@@ -12521,14 +12640,14 @@
       <c r="C280" s="1">
         <v>279</v>
       </c>
-      <c r="D280" t="s">
+      <c r="E280" t="s">
         <v>289</v>
       </c>
-      <c r="E280" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F280" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A281" s="1">
         <v>9</v>
       </c>
@@ -12538,14 +12657,14 @@
       <c r="C281" s="1">
         <v>280</v>
       </c>
-      <c r="D281" t="s">
+      <c r="E281" t="s">
         <v>290</v>
       </c>
-      <c r="E281" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F281" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A282" s="1">
         <v>9</v>
       </c>
@@ -12555,14 +12674,14 @@
       <c r="C282" s="1">
         <v>281</v>
       </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>291</v>
       </c>
-      <c r="E282" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F282" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A283" s="1">
         <v>9</v>
       </c>
@@ -12572,14 +12691,14 @@
       <c r="C283" s="1">
         <v>282</v>
       </c>
-      <c r="D283" t="s">
+      <c r="E283" t="s">
         <v>292</v>
       </c>
-      <c r="E283" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F283" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A284" s="1">
         <v>9</v>
       </c>
@@ -12589,14 +12708,14 @@
       <c r="C284" s="1">
         <v>283</v>
       </c>
-      <c r="D284" t="s">
+      <c r="E284" t="s">
         <v>293</v>
       </c>
-      <c r="E284" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F284" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A285" s="1">
         <v>9</v>
       </c>
@@ -12606,14 +12725,14 @@
       <c r="C285" s="1">
         <v>284</v>
       </c>
-      <c r="D285" t="s">
+      <c r="E285" t="s">
         <v>294</v>
       </c>
-      <c r="E285" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F285" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A286" s="1">
         <v>9</v>
       </c>
@@ -12623,14 +12742,14 @@
       <c r="C286" s="1">
         <v>285</v>
       </c>
-      <c r="D286" t="s">
+      <c r="E286" t="s">
         <v>295</v>
       </c>
-      <c r="E286" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F286" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A287" s="1">
         <v>9</v>
       </c>
@@ -12640,14 +12759,14 @@
       <c r="C287" s="1">
         <v>286</v>
       </c>
-      <c r="D287" t="s">
+      <c r="E287" t="s">
         <v>296</v>
       </c>
-      <c r="E287" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F287" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A288" s="1">
         <v>9</v>
       </c>
@@ -12657,14 +12776,14 @@
       <c r="C288" s="1">
         <v>287</v>
       </c>
-      <c r="D288" t="s">
+      <c r="E288" t="s">
         <v>297</v>
       </c>
-      <c r="E288" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F288" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A289" s="1">
         <v>9</v>
       </c>
@@ -12674,14 +12793,14 @@
       <c r="C289" s="1">
         <v>288</v>
       </c>
-      <c r="D289" t="s">
+      <c r="E289" t="s">
         <v>298</v>
       </c>
-      <c r="E289" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F289" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A290" s="1">
         <v>9</v>
       </c>
@@ -12691,14 +12810,14 @@
       <c r="C290" s="1">
         <v>289</v>
       </c>
-      <c r="D290" t="s">
+      <c r="E290" t="s">
         <v>299</v>
       </c>
-      <c r="E290" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F290" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A291" s="1">
         <v>9</v>
       </c>
@@ -12708,14 +12827,14 @@
       <c r="C291" s="1">
         <v>290</v>
       </c>
-      <c r="D291" t="s">
+      <c r="E291" t="s">
         <v>300</v>
       </c>
-      <c r="E291" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F291" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A292" s="1">
         <v>9</v>
       </c>
@@ -12725,14 +12844,14 @@
       <c r="C292" s="1">
         <v>291</v>
       </c>
-      <c r="D292" t="s">
+      <c r="E292" t="s">
         <v>301</v>
       </c>
-      <c r="E292" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F292" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A293" s="1">
         <v>9</v>
       </c>
@@ -12742,14 +12861,14 @@
       <c r="C293" s="1">
         <v>292</v>
       </c>
-      <c r="D293" t="s">
+      <c r="E293" t="s">
         <v>302</v>
       </c>
-      <c r="E293" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F293" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A294" s="1">
         <v>10</v>
       </c>
@@ -12759,14 +12878,14 @@
       <c r="C294" s="1">
         <v>293</v>
       </c>
-      <c r="D294" t="s">
+      <c r="E294" t="s">
         <v>304</v>
       </c>
-      <c r="E294" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F294" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A295" s="1">
         <v>10</v>
       </c>
@@ -12776,14 +12895,14 @@
       <c r="C295" s="1">
         <v>294</v>
       </c>
-      <c r="D295" t="s">
+      <c r="E295" t="s">
         <v>305</v>
       </c>
-      <c r="E295" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F295" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A296" s="1">
         <v>10</v>
       </c>
@@ -12793,14 +12912,14 @@
       <c r="C296" s="1">
         <v>295</v>
       </c>
-      <c r="D296" t="s">
+      <c r="E296" t="s">
         <v>306</v>
       </c>
-      <c r="E296" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F296" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A297" s="1">
         <v>10</v>
       </c>
@@ -12810,14 +12929,14 @@
       <c r="C297" s="1">
         <v>296</v>
       </c>
-      <c r="D297" t="s">
+      <c r="E297" t="s">
         <v>307</v>
       </c>
-      <c r="E297" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F297" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A298" s="1">
         <v>10</v>
       </c>
@@ -12827,14 +12946,14 @@
       <c r="C298" s="1">
         <v>297</v>
       </c>
-      <c r="D298" t="s">
+      <c r="E298" t="s">
         <v>308</v>
       </c>
-      <c r="E298" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F298" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A299" s="1">
         <v>10</v>
       </c>
@@ -12844,30 +12963,30 @@
       <c r="C299" s="1">
         <v>298</v>
       </c>
-      <c r="D299" t="s">
+      <c r="E299" t="s">
         <v>309</v>
       </c>
-      <c r="E299" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="D301" t="s">
+      <c r="F299" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E301" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="D302" t="s">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="E302" t="s">
         <v>375</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D299" xr:uid="{89A1A141-14FF-4F16-85BF-F653C5782374}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D317">
+  <autoFilter ref="A1:E299" xr:uid="{89A1A141-14FF-4F16-85BF-F653C5782374}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E317">
     <sortCondition ref="A2:A317"/>
     <sortCondition ref="C2:C317"/>
   </sortState>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>43428</formula>
     </cfRule>

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75920905-3834-4CEA-9659-6534EAD33866}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0CBD21-B43E-4243-92D0-685C0BFDB981}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -1279,7 +1279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1289,6 +1289,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1326,6 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7761,8 +7768,8 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10253,7 +10260,7 @@
       <c r="D144" s="1">
         <v>8</v>
       </c>
-      <c r="E144" s="10" t="s">
+      <c r="E144" s="12" t="s">
         <v>147</v>
       </c>
       <c r="F144" s="11">
@@ -10273,7 +10280,7 @@
       <c r="D145" s="1">
         <v>9</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="E145" s="12" t="s">
         <v>148</v>
       </c>
       <c r="F145" s="11">
@@ -10293,7 +10300,7 @@
       <c r="D146" s="1">
         <v>10</v>
       </c>
-      <c r="E146" s="10" t="s">
+      <c r="E146" s="12" t="s">
         <v>149</v>
       </c>
       <c r="F146" s="11">
@@ -10313,7 +10320,7 @@
       <c r="D147" s="1">
         <v>11</v>
       </c>
-      <c r="E147" s="10" t="s">
+      <c r="E147" s="12" t="s">
         <v>150</v>
       </c>
       <c r="F147" s="11">
@@ -10333,7 +10340,7 @@
       <c r="D148" s="1">
         <v>12</v>
       </c>
-      <c r="E148" s="10" t="s">
+      <c r="E148" s="12" t="s">
         <v>151</v>
       </c>
       <c r="F148" s="11">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0CBD21-B43E-4243-92D0-685C0BFDB981}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C42356-4A37-432C-9905-ABED31D50D27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="413">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1256,12 +1256,36 @@
   </si>
   <si>
     <t>PassedFind More Than the First Match</t>
+  </si>
+  <si>
+    <t>PassedMatch Anything with Wildcard Period</t>
+  </si>
+  <si>
+    <t>PassedMatch Single Character with Multiple Possibilities</t>
+  </si>
+  <si>
+    <t>PassedMatch Letters of the Alphabet</t>
+  </si>
+  <si>
+    <t>PassedMatch Numbers and Letters of the Alphabet</t>
+  </si>
+  <si>
+    <t>PassedMatch Single Characters Specified</t>
+  </si>
+  <si>
+    <t>PassedMatch Characters that Occur One or More Times</t>
+  </si>
+  <si>
+    <t>PassedMatch Characters that Occur Zero or More Times</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1279,7 +1303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1294,7 +1318,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,7 +1347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1332,7 +1368,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7768,8 +7809,8 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7779,7 +7820,7 @@
     <col min="3" max="3" width="3.6796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.6796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="77.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.76953125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.75">
@@ -10260,8 +10301,8 @@
       <c r="D144" s="1">
         <v>8</v>
       </c>
-      <c r="E144" s="12" t="s">
-        <v>147</v>
+      <c r="E144" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="F144" s="11">
         <v>43439</v>
@@ -10280,8 +10321,8 @@
       <c r="D145" s="1">
         <v>9</v>
       </c>
-      <c r="E145" s="12" t="s">
-        <v>148</v>
+      <c r="E145" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="F145" s="11">
         <v>43439</v>
@@ -10300,8 +10341,8 @@
       <c r="D146" s="1">
         <v>10</v>
       </c>
-      <c r="E146" s="12" t="s">
-        <v>149</v>
+      <c r="E146" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="F146" s="11">
         <v>43439</v>
@@ -10320,8 +10361,8 @@
       <c r="D147" s="1">
         <v>11</v>
       </c>
-      <c r="E147" s="12" t="s">
-        <v>150</v>
+      <c r="E147" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="F147" s="11">
         <v>43439</v>
@@ -10340,8 +10381,8 @@
       <c r="D148" s="1">
         <v>12</v>
       </c>
-      <c r="E148" s="12" t="s">
-        <v>151</v>
+      <c r="E148" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="F148" s="11">
         <v>43439</v>
@@ -10360,8 +10401,8 @@
       <c r="D149" s="1">
         <v>13</v>
       </c>
-      <c r="E149" s="10" t="s">
-        <v>152</v>
+      <c r="E149" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="F149" s="11">
         <v>43439</v>
@@ -10380,8 +10421,8 @@
       <c r="D150" s="1">
         <v>14</v>
       </c>
-      <c r="E150" s="10" t="s">
-        <v>153</v>
+      <c r="E150" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="F150" s="11">
         <v>43439</v>
@@ -10404,7 +10445,7 @@
         <v>154</v>
       </c>
       <c r="F151" s="11">
-        <v>43439</v>
+        <v>43440</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.75">
@@ -10424,7 +10465,7 @@
         <v>155</v>
       </c>
       <c r="F152" s="11">
-        <v>43439</v>
+        <v>43440</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.75">
@@ -10444,7 +10485,7 @@
         <v>156</v>
       </c>
       <c r="F153" s="11">
-        <v>43439</v>
+        <v>43440</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.75">
@@ -10460,11 +10501,11 @@
       <c r="D154" s="1">
         <v>18</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>373</v>
+      <c r="F154" s="12">
+        <v>43440</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.75">
@@ -10480,11 +10521,11 @@
       <c r="D155" s="1">
         <v>19</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>373</v>
+      <c r="F155" s="12">
+        <v>43440</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.75">
@@ -10500,11 +10541,11 @@
       <c r="D156" s="1">
         <v>20</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>373</v>
+      <c r="F156" s="12">
+        <v>43440</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.75">
@@ -10520,11 +10561,11 @@
       <c r="D157" s="1">
         <v>21</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>373</v>
+      <c r="F157" s="12">
+        <v>43440</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.75">
@@ -10540,11 +10581,11 @@
       <c r="D158" s="1">
         <v>22</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>373</v>
+      <c r="F158" s="12">
+        <v>43440</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.75">
@@ -10560,11 +10601,11 @@
       <c r="D159" s="1">
         <v>23</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>373</v>
+      <c r="F159" s="12">
+        <v>43440</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.75">
@@ -10580,11 +10621,11 @@
       <c r="D160" s="1">
         <v>24</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>373</v>
+      <c r="F160" s="12">
+        <v>43440</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.75">
@@ -10600,11 +10641,11 @@
       <c r="D161" s="1">
         <v>25</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F161" s="2" t="s">
-        <v>373</v>
+      <c r="F161" s="12">
+        <v>43440</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.75">
@@ -10620,11 +10661,11 @@
       <c r="D162" s="1">
         <v>26</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>373</v>
+      <c r="F162" s="12">
+        <v>43440</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.75">
@@ -10640,11 +10681,11 @@
       <c r="D163" s="1">
         <v>27</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>373</v>
+      <c r="F163" s="12">
+        <v>43440</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.75">
@@ -10660,11 +10701,11 @@
       <c r="D164" s="1">
         <v>28</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>373</v>
+      <c r="F164" s="2">
+        <v>43441</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.75">
@@ -10680,11 +10721,11 @@
       <c r="D165" s="1">
         <v>29</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>373</v>
+      <c r="F165" s="2">
+        <v>43441</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.75">
@@ -10700,11 +10741,11 @@
       <c r="D166" s="1">
         <v>30</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F166" s="2" t="s">
-        <v>373</v>
+      <c r="F166" s="2">
+        <v>43441</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.75">
@@ -10720,11 +10761,11 @@
       <c r="D167" s="1">
         <v>31</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>373</v>
+      <c r="F167" s="2">
+        <v>43441</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.75">
@@ -10740,11 +10781,11 @@
       <c r="D168" s="1">
         <v>32</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>373</v>
+      <c r="F168" s="2">
+        <v>43441</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.75">
@@ -10760,11 +10801,11 @@
       <c r="D169" s="1">
         <v>33</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>373</v>
+      <c r="F169" s="2">
+        <v>43441</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.75">
@@ -10777,11 +10818,11 @@
       <c r="C170" s="1">
         <v>169</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>373</v>
+      <c r="F170" s="2">
+        <v>43441</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.75">
@@ -10794,11 +10835,11 @@
       <c r="C171" s="1">
         <v>170</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F171" s="2" t="s">
-        <v>373</v>
+      <c r="F171" s="2">
+        <v>43441</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.75">
@@ -10811,11 +10852,11 @@
       <c r="C172" s="1">
         <v>171</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F172" s="2" t="s">
-        <v>373</v>
+      <c r="F172" s="2">
+        <v>43441</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.75">
@@ -10828,11 +10869,11 @@
       <c r="C173" s="1">
         <v>172</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F173" s="2" t="s">
-        <v>373</v>
+      <c r="F173" s="2">
+        <v>43441</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.75">
@@ -10848,8 +10889,8 @@
       <c r="E174" t="s">
         <v>178</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>373</v>
+      <c r="F174" s="15">
+        <v>43442</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.75">
@@ -10865,8 +10906,8 @@
       <c r="E175" t="s">
         <v>179</v>
       </c>
-      <c r="F175" s="2" t="s">
-        <v>373</v>
+      <c r="F175" s="2">
+        <v>43442</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.75">
@@ -10882,8 +10923,8 @@
       <c r="E176" t="s">
         <v>180</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>373</v>
+      <c r="F176" s="2">
+        <v>43442</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.75">
@@ -10899,8 +10940,8 @@
       <c r="E177" t="s">
         <v>181</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>373</v>
+      <c r="F177" s="2">
+        <v>43442</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.75">
@@ -10916,8 +10957,8 @@
       <c r="E178" t="s">
         <v>182</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>373</v>
+      <c r="F178" s="2">
+        <v>43442</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.75">
@@ -10933,8 +10974,8 @@
       <c r="E179" t="s">
         <v>183</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>373</v>
+      <c r="F179" s="2">
+        <v>43442</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.75">
@@ -10950,8 +10991,8 @@
       <c r="E180" t="s">
         <v>184</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>373</v>
+      <c r="F180" s="2">
+        <v>43442</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.75">
@@ -10967,8 +11008,8 @@
       <c r="E181" t="s">
         <v>185</v>
       </c>
-      <c r="F181" s="2" t="s">
-        <v>373</v>
+      <c r="F181" s="2">
+        <v>43442</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.75">
@@ -10984,8 +11025,8 @@
       <c r="E182" t="s">
         <v>186</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>373</v>
+      <c r="F182" s="2">
+        <v>43442</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.75">
@@ -11001,8 +11042,8 @@
       <c r="E183" t="s">
         <v>188</v>
       </c>
-      <c r="F183" s="2" t="s">
-        <v>373</v>
+      <c r="F183" s="2">
+        <v>43442</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.75">
@@ -11015,11 +11056,11 @@
       <c r="C184" s="1">
         <v>183</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>373</v>
+      <c r="F184" s="17">
+        <v>43444</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.75">
@@ -11032,11 +11073,11 @@
       <c r="C185" s="1">
         <v>184</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F185" s="2" t="s">
-        <v>373</v>
+      <c r="F185" s="17">
+        <v>43444</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.75">
@@ -11049,11 +11090,11 @@
       <c r="C186" s="1">
         <v>185</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F186" s="2" t="s">
-        <v>373</v>
+      <c r="F186" s="17">
+        <v>43444</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.75">
@@ -11066,11 +11107,11 @@
       <c r="C187" s="1">
         <v>186</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="F187" s="2" t="s">
-        <v>373</v>
+      <c r="F187" s="17">
+        <v>43444</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.75">
@@ -11083,11 +11124,11 @@
       <c r="C188" s="1">
         <v>187</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F188" s="2" t="s">
-        <v>373</v>
+      <c r="F188" s="17">
+        <v>43444</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.75">
@@ -11100,11 +11141,11 @@
       <c r="C189" s="1">
         <v>188</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F189" s="2" t="s">
-        <v>373</v>
+      <c r="F189" s="17">
+        <v>43444</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.75">
@@ -11117,11 +11158,11 @@
       <c r="C190" s="1">
         <v>189</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="F190" s="2" t="s">
-        <v>373</v>
+      <c r="F190" s="17">
+        <v>43444</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.75">
@@ -11134,11 +11175,11 @@
       <c r="C191" s="1">
         <v>190</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="F191" s="2" t="s">
-        <v>373</v>
+      <c r="F191" s="17">
+        <v>43444</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.75">
@@ -11151,11 +11192,11 @@
       <c r="C192" s="1">
         <v>191</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="F192" s="2" t="s">
-        <v>373</v>
+      <c r="F192" s="17">
+        <v>43444</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.75">
@@ -11168,11 +11209,11 @@
       <c r="C193" s="1">
         <v>192</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="F193" s="2" t="s">
-        <v>373</v>
+      <c r="F193" s="17">
+        <v>43444</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.75">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C42356-4A37-432C-9905-ABED31D50D27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D226CDDF-E9B0-4AA1-BC40-8F1A272C7907}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="420">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1277,6 +1277,27 @@
   </si>
   <si>
     <t>PassedMatch Characters that Occur Zero or More Times</t>
+  </si>
+  <si>
+    <t>PassedFind Characters with Lazy Matching</t>
+  </si>
+  <si>
+    <t>PassedFind One or More Criminals in a Hunt</t>
+  </si>
+  <si>
+    <t>PassedMatch Beginning String Patterns</t>
+  </si>
+  <si>
+    <t>PassedMatch Ending String Patterns</t>
+  </si>
+  <si>
+    <t>PassedMatch All Letters and Numbers</t>
+  </si>
+  <si>
+    <t>PassedMatch Everything But Letters and Numbers</t>
+  </si>
+  <si>
+    <t>PassedMatch All Numbers</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1366,14 +1387,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7809,8 +7830,8 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10304,7 +10325,7 @@
       <c r="E144" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="F144" s="11">
+      <c r="F144" s="10">
         <v>43439</v>
       </c>
     </row>
@@ -10324,7 +10345,7 @@
       <c r="E145" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="F145" s="11">
+      <c r="F145" s="10">
         <v>43439</v>
       </c>
     </row>
@@ -10344,7 +10365,7 @@
       <c r="E146" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="F146" s="11">
+      <c r="F146" s="10">
         <v>43439</v>
       </c>
     </row>
@@ -10364,7 +10385,7 @@
       <c r="E147" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="F147" s="11">
+      <c r="F147" s="10">
         <v>43439</v>
       </c>
     </row>
@@ -10384,7 +10405,7 @@
       <c r="E148" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F148" s="11">
+      <c r="F148" s="10">
         <v>43439</v>
       </c>
     </row>
@@ -10404,7 +10425,7 @@
       <c r="E149" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="F149" s="11">
+      <c r="F149" s="10">
         <v>43439</v>
       </c>
     </row>
@@ -10424,7 +10445,7 @@
       <c r="E150" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="F150" s="11">
+      <c r="F150" s="10">
         <v>43439</v>
       </c>
     </row>
@@ -10441,11 +10462,11 @@
       <c r="D151" s="1">
         <v>15</v>
       </c>
-      <c r="E151" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F151" s="11">
-        <v>43440</v>
+      <c r="E151" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F151" s="10">
+        <v>43444</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.75">
@@ -10461,11 +10482,11 @@
       <c r="D152" s="1">
         <v>16</v>
       </c>
-      <c r="E152" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F152" s="11">
-        <v>43440</v>
+      <c r="E152" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F152" s="10">
+        <v>43444</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.75">
@@ -10481,11 +10502,11 @@
       <c r="D153" s="1">
         <v>17</v>
       </c>
-      <c r="E153" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F153" s="11">
-        <v>43440</v>
+      <c r="E153" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F153" s="10">
+        <v>43444</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.75">
@@ -10501,11 +10522,11 @@
       <c r="D154" s="1">
         <v>18</v>
       </c>
-      <c r="E154" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F154" s="12">
-        <v>43440</v>
+      <c r="E154" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="F154" s="10">
+        <v>43444</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.75">
@@ -10521,11 +10542,11 @@
       <c r="D155" s="1">
         <v>19</v>
       </c>
-      <c r="E155" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F155" s="12">
-        <v>43440</v>
+      <c r="E155" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F155" s="10">
+        <v>43444</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.75">
@@ -10541,11 +10562,11 @@
       <c r="D156" s="1">
         <v>20</v>
       </c>
-      <c r="E156" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F156" s="12">
-        <v>43440</v>
+      <c r="E156" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F156" s="10">
+        <v>43444</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.75">
@@ -10561,11 +10582,11 @@
       <c r="D157" s="1">
         <v>21</v>
       </c>
-      <c r="E157" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F157" s="12">
-        <v>43440</v>
+      <c r="E157" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="F157" s="10">
+        <v>43444</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.75">
@@ -10581,11 +10602,11 @@
       <c r="D158" s="1">
         <v>22</v>
       </c>
-      <c r="E158" s="13" t="s">
+      <c r="E158" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="F158" s="12">
-        <v>43440</v>
+      <c r="F158" s="11">
+        <v>43445</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.75">
@@ -10601,11 +10622,11 @@
       <c r="D159" s="1">
         <v>23</v>
       </c>
-      <c r="E159" s="13" t="s">
+      <c r="E159" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F159" s="12">
-        <v>43440</v>
+      <c r="F159" s="11">
+        <v>43445</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.75">
@@ -10621,11 +10642,11 @@
       <c r="D160" s="1">
         <v>24</v>
       </c>
-      <c r="E160" s="13" t="s">
+      <c r="E160" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="F160" s="12">
-        <v>43440</v>
+      <c r="F160" s="11">
+        <v>43445</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.75">
@@ -10641,11 +10662,11 @@
       <c r="D161" s="1">
         <v>25</v>
       </c>
-      <c r="E161" s="13" t="s">
+      <c r="E161" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F161" s="12">
-        <v>43440</v>
+      <c r="F161" s="11">
+        <v>43445</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.75">
@@ -10661,11 +10682,11 @@
       <c r="D162" s="1">
         <v>26</v>
       </c>
-      <c r="E162" s="13" t="s">
+      <c r="E162" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="F162" s="12">
-        <v>43440</v>
+      <c r="F162" s="11">
+        <v>43445</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.75">
@@ -10681,11 +10702,11 @@
       <c r="D163" s="1">
         <v>27</v>
       </c>
-      <c r="E163" s="13" t="s">
+      <c r="E163" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="F163" s="12">
-        <v>43440</v>
+      <c r="F163" s="11">
+        <v>43445</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.75">
@@ -10701,11 +10722,11 @@
       <c r="D164" s="1">
         <v>28</v>
       </c>
-      <c r="E164" s="14" t="s">
+      <c r="E164" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F164" s="2">
-        <v>43441</v>
+      <c r="F164" s="11">
+        <v>43445</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.75">
@@ -10721,11 +10742,11 @@
       <c r="D165" s="1">
         <v>29</v>
       </c>
-      <c r="E165" s="14" t="s">
+      <c r="E165" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F165" s="2">
-        <v>43441</v>
+      <c r="F165" s="11">
+        <v>43445</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.75">
@@ -10741,11 +10762,11 @@
       <c r="D166" s="1">
         <v>30</v>
       </c>
-      <c r="E166" s="14" t="s">
+      <c r="E166" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F166" s="2">
-        <v>43441</v>
+      <c r="F166" s="11">
+        <v>43445</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.75">
@@ -10761,11 +10782,11 @@
       <c r="D167" s="1">
         <v>31</v>
       </c>
-      <c r="E167" s="14" t="s">
+      <c r="E167" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F167" s="2">
-        <v>43441</v>
+      <c r="F167" s="11">
+        <v>43445</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.75">
@@ -10781,11 +10802,11 @@
       <c r="D168" s="1">
         <v>32</v>
       </c>
-      <c r="E168" s="14" t="s">
+      <c r="E168" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F168" s="2">
-        <v>43441</v>
+      <c r="F168" s="11">
+        <v>43445</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.75">
@@ -10801,11 +10822,11 @@
       <c r="D169" s="1">
         <v>33</v>
       </c>
-      <c r="E169" s="14" t="s">
+      <c r="E169" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F169" s="2">
-        <v>43441</v>
+      <c r="F169" s="11">
+        <v>43445</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.75">
@@ -10818,7 +10839,7 @@
       <c r="C170" s="1">
         <v>169</v>
       </c>
-      <c r="E170" s="14" t="s">
+      <c r="E170" s="12" t="s">
         <v>174</v>
       </c>
       <c r="F170" s="2">
@@ -10835,7 +10856,7 @@
       <c r="C171" s="1">
         <v>170</v>
       </c>
-      <c r="E171" s="14" t="s">
+      <c r="E171" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F171" s="2">
@@ -10852,7 +10873,7 @@
       <c r="C172" s="1">
         <v>171</v>
       </c>
-      <c r="E172" s="14" t="s">
+      <c r="E172" s="12" t="s">
         <v>176</v>
       </c>
       <c r="F172" s="2">
@@ -10869,7 +10890,7 @@
       <c r="C173" s="1">
         <v>172</v>
       </c>
-      <c r="E173" s="14" t="s">
+      <c r="E173" s="12" t="s">
         <v>177</v>
       </c>
       <c r="F173" s="2">
@@ -10889,7 +10910,7 @@
       <c r="E174" t="s">
         <v>178</v>
       </c>
-      <c r="F174" s="15">
+      <c r="F174" s="13">
         <v>43442</v>
       </c>
     </row>
@@ -11056,10 +11077,10 @@
       <c r="C184" s="1">
         <v>183</v>
       </c>
-      <c r="E184" s="16" t="s">
+      <c r="E184" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F184" s="17">
+      <c r="F184" s="15">
         <v>43444</v>
       </c>
     </row>
@@ -11073,10 +11094,10 @@
       <c r="C185" s="1">
         <v>184</v>
       </c>
-      <c r="E185" s="16" t="s">
+      <c r="E185" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F185" s="17">
+      <c r="F185" s="15">
         <v>43444</v>
       </c>
     </row>
@@ -11090,10 +11111,10 @@
       <c r="C186" s="1">
         <v>185</v>
       </c>
-      <c r="E186" s="16" t="s">
+      <c r="E186" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F186" s="17">
+      <c r="F186" s="15">
         <v>43444</v>
       </c>
     </row>
@@ -11107,10 +11128,10 @@
       <c r="C187" s="1">
         <v>186</v>
       </c>
-      <c r="E187" s="16" t="s">
+      <c r="E187" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="F187" s="17">
+      <c r="F187" s="15">
         <v>43444</v>
       </c>
     </row>
@@ -11124,10 +11145,10 @@
       <c r="C188" s="1">
         <v>187</v>
       </c>
-      <c r="E188" s="16" t="s">
+      <c r="E188" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F188" s="17">
+      <c r="F188" s="15">
         <v>43444</v>
       </c>
     </row>
@@ -11141,10 +11162,10 @@
       <c r="C189" s="1">
         <v>188</v>
       </c>
-      <c r="E189" s="16" t="s">
+      <c r="E189" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F189" s="17">
+      <c r="F189" s="15">
         <v>43444</v>
       </c>
     </row>
@@ -11158,10 +11179,10 @@
       <c r="C190" s="1">
         <v>189</v>
       </c>
-      <c r="E190" s="16" t="s">
+      <c r="E190" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F190" s="17">
+      <c r="F190" s="15">
         <v>43444</v>
       </c>
     </row>
@@ -11175,10 +11196,10 @@
       <c r="C191" s="1">
         <v>190</v>
       </c>
-      <c r="E191" s="16" t="s">
+      <c r="E191" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F191" s="17">
+      <c r="F191" s="15">
         <v>43444</v>
       </c>
     </row>
@@ -11192,10 +11213,10 @@
       <c r="C192" s="1">
         <v>191</v>
       </c>
-      <c r="E192" s="16" t="s">
+      <c r="E192" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F192" s="17">
+      <c r="F192" s="15">
         <v>43444</v>
       </c>
     </row>
@@ -11209,10 +11230,10 @@
       <c r="C193" s="1">
         <v>192</v>
       </c>
-      <c r="E193" s="16" t="s">
+      <c r="E193" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F193" s="17">
+      <c r="F193" s="15">
         <v>43444</v>
       </c>
     </row>

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D226CDDF-E9B0-4AA1-BC40-8F1A272C7907}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B990D60-1683-43E9-BD9B-D2DE5A7A69EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -1304,9 +1304,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1368,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1390,11 +1387,10 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7830,8 +7826,8 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F159" sqref="F159"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10722,7 +10718,7 @@
       <c r="D164" s="1">
         <v>28</v>
       </c>
-      <c r="E164" s="17" t="s">
+      <c r="E164" s="16" t="s">
         <v>167</v>
       </c>
       <c r="F164" s="11">
@@ -10742,11 +10738,11 @@
       <c r="D165" s="1">
         <v>29</v>
       </c>
-      <c r="E165" s="17" t="s">
+      <c r="E165" s="15" t="s">
         <v>168</v>
       </c>
       <c r="F165" s="11">
-        <v>43445</v>
+        <v>43446</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.75">
@@ -10762,11 +10758,11 @@
       <c r="D166" s="1">
         <v>30</v>
       </c>
-      <c r="E166" s="17" t="s">
+      <c r="E166" s="15" t="s">
         <v>169</v>
       </c>
       <c r="F166" s="11">
-        <v>43445</v>
+        <v>43446</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.75">
@@ -10782,11 +10778,11 @@
       <c r="D167" s="1">
         <v>31</v>
       </c>
-      <c r="E167" s="17" t="s">
+      <c r="E167" s="15" t="s">
         <v>170</v>
       </c>
       <c r="F167" s="11">
-        <v>43445</v>
+        <v>43446</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.75">
@@ -10802,11 +10798,11 @@
       <c r="D168" s="1">
         <v>32</v>
       </c>
-      <c r="E168" s="17" t="s">
+      <c r="E168" s="15" t="s">
         <v>171</v>
       </c>
       <c r="F168" s="11">
-        <v>43445</v>
+        <v>43446</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.75">
@@ -10822,11 +10818,11 @@
       <c r="D169" s="1">
         <v>33</v>
       </c>
-      <c r="E169" s="17" t="s">
+      <c r="E169" s="15" t="s">
         <v>172</v>
       </c>
       <c r="F169" s="11">
-        <v>43445</v>
+        <v>43446</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.75">
@@ -10842,8 +10838,8 @@
       <c r="E170" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F170" s="2">
-        <v>43441</v>
+      <c r="F170" s="11">
+        <v>43446</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.75">
@@ -10859,8 +10855,8 @@
       <c r="E171" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F171" s="2">
-        <v>43441</v>
+      <c r="F171" s="11">
+        <v>43446</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.75">
@@ -10876,8 +10872,8 @@
       <c r="E172" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F172" s="2">
-        <v>43441</v>
+      <c r="F172" s="11">
+        <v>43446</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.75">
@@ -10893,8 +10889,8 @@
       <c r="E173" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F173" s="2">
-        <v>43441</v>
+      <c r="F173" s="11">
+        <v>43446</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.75">
@@ -10907,11 +10903,11 @@
       <c r="C174" s="1">
         <v>173</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F174" s="13">
-        <v>43442</v>
+      <c r="F174" s="11">
+        <v>43446</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.75">
@@ -11077,10 +11073,10 @@
       <c r="C184" s="1">
         <v>183</v>
       </c>
-      <c r="E184" s="14" t="s">
+      <c r="E184" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F184" s="15">
+      <c r="F184" s="14">
         <v>43444</v>
       </c>
     </row>
@@ -11094,10 +11090,10 @@
       <c r="C185" s="1">
         <v>184</v>
       </c>
-      <c r="E185" s="14" t="s">
+      <c r="E185" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F185" s="15">
+      <c r="F185" s="14">
         <v>43444</v>
       </c>
     </row>
@@ -11111,10 +11107,10 @@
       <c r="C186" s="1">
         <v>185</v>
       </c>
-      <c r="E186" s="14" t="s">
+      <c r="E186" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="F186" s="15">
+      <c r="F186" s="14">
         <v>43444</v>
       </c>
     </row>
@@ -11128,10 +11124,10 @@
       <c r="C187" s="1">
         <v>186</v>
       </c>
-      <c r="E187" s="14" t="s">
+      <c r="E187" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="F187" s="15">
+      <c r="F187" s="14">
         <v>43444</v>
       </c>
     </row>
@@ -11145,10 +11141,10 @@
       <c r="C188" s="1">
         <v>187</v>
       </c>
-      <c r="E188" s="14" t="s">
+      <c r="E188" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="F188" s="15">
+      <c r="F188" s="14">
         <v>43444</v>
       </c>
     </row>
@@ -11162,10 +11158,10 @@
       <c r="C189" s="1">
         <v>188</v>
       </c>
-      <c r="E189" s="14" t="s">
+      <c r="E189" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F189" s="15">
+      <c r="F189" s="14">
         <v>43444</v>
       </c>
     </row>
@@ -11179,10 +11175,10 @@
       <c r="C190" s="1">
         <v>189</v>
       </c>
-      <c r="E190" s="14" t="s">
+      <c r="E190" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="F190" s="15">
+      <c r="F190" s="14">
         <v>43444</v>
       </c>
     </row>
@@ -11196,10 +11192,10 @@
       <c r="C191" s="1">
         <v>190</v>
       </c>
-      <c r="E191" s="14" t="s">
+      <c r="E191" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F191" s="15">
+      <c r="F191" s="14">
         <v>43444</v>
       </c>
     </row>
@@ -11213,10 +11209,10 @@
       <c r="C192" s="1">
         <v>191</v>
       </c>
-      <c r="E192" s="14" t="s">
+      <c r="E192" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="F192" s="15">
+      <c r="F192" s="14">
         <v>43444</v>
       </c>
     </row>
@@ -11230,10 +11226,10 @@
       <c r="C193" s="1">
         <v>192</v>
       </c>
-      <c r="E193" s="14" t="s">
+      <c r="E193" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F193" s="15">
+      <c r="F193" s="14">
         <v>43444</v>
       </c>
     </row>

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B990D60-1683-43E9-BD9B-D2DE5A7A69EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E67907-AFBD-4AD2-A4E4-8AA60FAD3F57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="429">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1298,6 +1298,33 @@
   </si>
   <si>
     <t>PassedMatch All Numbers</t>
+  </si>
+  <si>
+    <t>PassedMatch All Non-Numbers</t>
+  </si>
+  <si>
+    <t>PassedRestrict Possible Usernames</t>
+  </si>
+  <si>
+    <t>PassedMatch Whitespace</t>
+  </si>
+  <si>
+    <t>PassedMatch Non-Whitespace Characters</t>
+  </si>
+  <si>
+    <t>PassedSpecify Upper and Lower Number of Matches</t>
+  </si>
+  <si>
+    <t>PassedSpecify Only the Lower Number of Matches</t>
+  </si>
+  <si>
+    <t>PassedSpecify Exact Number of Matches</t>
+  </si>
+  <si>
+    <t>PassedCheck for All or None</t>
+  </si>
+  <si>
+    <t>PassedPositive and Negative Lookahead</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1390,7 +1417,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7826,8 +7852,8 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E174" sqref="E174"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10598,11 +10624,11 @@
       <c r="D158" s="1">
         <v>22</v>
       </c>
-      <c r="E158" s="16" t="s">
-        <v>161</v>
+      <c r="E158" s="9" t="s">
+        <v>420</v>
       </c>
       <c r="F158" s="11">
-        <v>43445</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.75">
@@ -10618,11 +10644,11 @@
       <c r="D159" s="1">
         <v>23</v>
       </c>
-      <c r="E159" s="16" t="s">
-        <v>162</v>
+      <c r="E159" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="F159" s="11">
-        <v>43445</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.75">
@@ -10638,11 +10664,11 @@
       <c r="D160" s="1">
         <v>24</v>
       </c>
-      <c r="E160" s="16" t="s">
-        <v>163</v>
+      <c r="E160" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="F160" s="11">
-        <v>43445</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.75">
@@ -10658,11 +10684,11 @@
       <c r="D161" s="1">
         <v>25</v>
       </c>
-      <c r="E161" s="16" t="s">
-        <v>164</v>
+      <c r="E161" s="9" t="s">
+        <v>423</v>
       </c>
       <c r="F161" s="11">
-        <v>43445</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.75">
@@ -10678,11 +10704,11 @@
       <c r="D162" s="1">
         <v>26</v>
       </c>
-      <c r="E162" s="16" t="s">
-        <v>165</v>
+      <c r="E162" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="F162" s="11">
-        <v>43445</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.75">
@@ -10698,11 +10724,11 @@
       <c r="D163" s="1">
         <v>27</v>
       </c>
-      <c r="E163" s="16" t="s">
-        <v>166</v>
+      <c r="E163" s="9" t="s">
+        <v>425</v>
       </c>
       <c r="F163" s="11">
-        <v>43445</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.75">
@@ -10718,11 +10744,11 @@
       <c r="D164" s="1">
         <v>28</v>
       </c>
-      <c r="E164" s="16" t="s">
-        <v>167</v>
+      <c r="E164" s="9" t="s">
+        <v>426</v>
       </c>
       <c r="F164" s="11">
-        <v>43445</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.75">
@@ -10738,11 +10764,11 @@
       <c r="D165" s="1">
         <v>29</v>
       </c>
-      <c r="E165" s="15" t="s">
-        <v>168</v>
+      <c r="E165" s="9" t="s">
+        <v>427</v>
       </c>
       <c r="F165" s="11">
-        <v>43446</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.75">
@@ -10758,11 +10784,11 @@
       <c r="D166" s="1">
         <v>30</v>
       </c>
-      <c r="E166" s="15" t="s">
-        <v>169</v>
+      <c r="E166" s="8" t="s">
+        <v>428</v>
       </c>
       <c r="F166" s="11">
-        <v>43446</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.75">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E67907-AFBD-4AD2-A4E4-8AA60FAD3F57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E158352D-C43B-46F6-9360-C52EAFB0BECA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="432">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1325,6 +1325,15 @@
   </si>
   <si>
     <t>PassedPositive and Negative Lookahead</t>
+  </si>
+  <si>
+    <t>PassedReuse Patterns Using Capture Groups</t>
+  </si>
+  <si>
+    <t>PassedUse Capture Groups to Search and Replace</t>
+  </si>
+  <si>
+    <t>PassedRemove Whitespace from Start and End</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1369,13 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,7 +1395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1413,10 +1416,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7852,8 +7854,8 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F298" sqref="F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10804,11 +10806,11 @@
       <c r="D167" s="1">
         <v>31</v>
       </c>
-      <c r="E167" s="15" t="s">
-        <v>170</v>
+      <c r="E167" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="F167" s="11">
-        <v>43446</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.75">
@@ -10824,11 +10826,11 @@
       <c r="D168" s="1">
         <v>32</v>
       </c>
-      <c r="E168" s="15" t="s">
-        <v>171</v>
+      <c r="E168" s="8" t="s">
+        <v>430</v>
       </c>
       <c r="F168" s="11">
-        <v>43446</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.75">
@@ -10844,11 +10846,11 @@
       <c r="D169" s="1">
         <v>33</v>
       </c>
-      <c r="E169" s="15" t="s">
-        <v>172</v>
+      <c r="E169" s="8" t="s">
+        <v>431</v>
       </c>
       <c r="F169" s="11">
-        <v>43446</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.75">
@@ -10861,11 +10863,14 @@
       <c r="C170" s="1">
         <v>169</v>
       </c>
-      <c r="E170" s="12" t="s">
+      <c r="D170" s="1">
+        <v>1</v>
+      </c>
+      <c r="E170" s="13" t="s">
         <v>174</v>
       </c>
       <c r="F170" s="11">
-        <v>43446</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.75">
@@ -10878,11 +10883,14 @@
       <c r="C171" s="1">
         <v>170</v>
       </c>
-      <c r="E171" s="12" t="s">
+      <c r="D171" s="1">
+        <v>2</v>
+      </c>
+      <c r="E171" s="13" t="s">
         <v>175</v>
       </c>
       <c r="F171" s="11">
-        <v>43446</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.75">
@@ -10895,11 +10903,14 @@
       <c r="C172" s="1">
         <v>171</v>
       </c>
-      <c r="E172" s="12" t="s">
+      <c r="D172" s="1">
+        <v>3</v>
+      </c>
+      <c r="E172" s="13" t="s">
         <v>176</v>
       </c>
       <c r="F172" s="11">
-        <v>43446</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.75">
@@ -10912,11 +10923,14 @@
       <c r="C173" s="1">
         <v>172</v>
       </c>
-      <c r="E173" s="12" t="s">
+      <c r="D173" s="1">
+        <v>4</v>
+      </c>
+      <c r="E173" s="13" t="s">
         <v>177</v>
       </c>
       <c r="F173" s="11">
-        <v>43446</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.75">
@@ -10929,11 +10943,14 @@
       <c r="C174" s="1">
         <v>173</v>
       </c>
-      <c r="E174" s="12" t="s">
+      <c r="D174" s="1">
+        <v>5</v>
+      </c>
+      <c r="E174" s="13" t="s">
         <v>178</v>
       </c>
       <c r="F174" s="11">
-        <v>43446</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.75">
@@ -10946,11 +10963,14 @@
       <c r="C175" s="1">
         <v>174</v>
       </c>
-      <c r="E175" t="s">
+      <c r="D175" s="1">
+        <v>6</v>
+      </c>
+      <c r="E175" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="F175" s="2">
-        <v>43442</v>
+      <c r="F175" s="11">
+        <v>43449</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.75">
@@ -10963,11 +10983,14 @@
       <c r="C176" s="1">
         <v>175</v>
       </c>
-      <c r="E176" t="s">
+      <c r="D176" s="1">
+        <v>7</v>
+      </c>
+      <c r="E176" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F176" s="2">
-        <v>43442</v>
+      <c r="F176" s="11">
+        <v>43449</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.75">
@@ -10980,11 +11003,14 @@
       <c r="C177" s="1">
         <v>176</v>
       </c>
-      <c r="E177" t="s">
+      <c r="D177" s="1">
+        <v>8</v>
+      </c>
+      <c r="E177" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F177" s="2">
-        <v>43442</v>
+      <c r="F177" s="11">
+        <v>43449</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.75">
@@ -10997,11 +11023,14 @@
       <c r="C178" s="1">
         <v>177</v>
       </c>
-      <c r="E178" t="s">
+      <c r="D178" s="1">
+        <v>9</v>
+      </c>
+      <c r="E178" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F178" s="2">
-        <v>43442</v>
+      <c r="F178" s="11">
+        <v>43449</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.75">
@@ -11014,11 +11043,14 @@
       <c r="C179" s="1">
         <v>178</v>
       </c>
-      <c r="E179" t="s">
+      <c r="D179" s="1">
+        <v>10</v>
+      </c>
+      <c r="E179" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="F179" s="2">
-        <v>43442</v>
+      <c r="F179" s="11">
+        <v>43449</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.75">
@@ -11031,11 +11063,14 @@
       <c r="C180" s="1">
         <v>179</v>
       </c>
-      <c r="E180" t="s">
+      <c r="D180" s="1">
+        <v>11</v>
+      </c>
+      <c r="E180" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="F180" s="2">
-        <v>43442</v>
+      <c r="F180" s="11">
+        <v>43449</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.75">
@@ -11048,11 +11083,14 @@
       <c r="C181" s="1">
         <v>180</v>
       </c>
-      <c r="E181" t="s">
+      <c r="D181" s="1">
+        <v>12</v>
+      </c>
+      <c r="E181" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="F181" s="2">
-        <v>43442</v>
+      <c r="F181" s="11">
+        <v>43449</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.75">
@@ -11065,11 +11103,14 @@
       <c r="C182" s="1">
         <v>181</v>
       </c>
-      <c r="E182" t="s">
+      <c r="D182" s="1">
+        <v>13</v>
+      </c>
+      <c r="E182" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="F182" s="2">
-        <v>43442</v>
+      <c r="F182" s="11">
+        <v>43449</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.75">
@@ -11086,7 +11127,7 @@
         <v>188</v>
       </c>
       <c r="F183" s="2">
-        <v>43442</v>
+        <v>43450</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.75">
@@ -11099,11 +11140,11 @@
       <c r="C184" s="1">
         <v>183</v>
       </c>
-      <c r="E184" s="13" t="s">
+      <c r="E184" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F184" s="14">
-        <v>43444</v>
+      <c r="F184" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.75">
@@ -11116,11 +11157,11 @@
       <c r="C185" s="1">
         <v>184</v>
       </c>
-      <c r="E185" s="13" t="s">
+      <c r="E185" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F185" s="14">
-        <v>43444</v>
+      <c r="F185" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.75">
@@ -11133,11 +11174,11 @@
       <c r="C186" s="1">
         <v>185</v>
       </c>
-      <c r="E186" s="13" t="s">
+      <c r="E186" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F186" s="14">
-        <v>43444</v>
+      <c r="F186" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.75">
@@ -11150,11 +11191,11 @@
       <c r="C187" s="1">
         <v>186</v>
       </c>
-      <c r="E187" s="13" t="s">
+      <c r="E187" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="F187" s="14">
-        <v>43444</v>
+      <c r="F187" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.75">
@@ -11167,11 +11208,11 @@
       <c r="C188" s="1">
         <v>187</v>
       </c>
-      <c r="E188" s="13" t="s">
+      <c r="E188" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F188" s="14">
-        <v>43444</v>
+      <c r="F188" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.75">
@@ -11184,11 +11225,11 @@
       <c r="C189" s="1">
         <v>188</v>
       </c>
-      <c r="E189" s="13" t="s">
+      <c r="E189" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F189" s="14">
-        <v>43444</v>
+      <c r="F189" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.75">
@@ -11201,11 +11242,11 @@
       <c r="C190" s="1">
         <v>189</v>
       </c>
-      <c r="E190" s="13" t="s">
+      <c r="E190" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F190" s="14">
-        <v>43444</v>
+      <c r="F190" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.75">
@@ -11218,11 +11259,11 @@
       <c r="C191" s="1">
         <v>190</v>
       </c>
-      <c r="E191" s="13" t="s">
+      <c r="E191" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F191" s="14">
-        <v>43444</v>
+      <c r="F191" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.75">
@@ -11235,11 +11276,11 @@
       <c r="C192" s="1">
         <v>191</v>
       </c>
-      <c r="E192" s="13" t="s">
+      <c r="E192" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F192" s="14">
-        <v>43444</v>
+      <c r="F192" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.75">
@@ -11252,11 +11293,11 @@
       <c r="C193" s="1">
         <v>192</v>
       </c>
-      <c r="E193" s="13" t="s">
+      <c r="E193" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F193" s="14">
-        <v>43444</v>
+      <c r="F193" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.75">
@@ -11269,11 +11310,11 @@
       <c r="C194" s="1">
         <v>193</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F194" s="2" t="s">
-        <v>373</v>
+      <c r="F194" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.75">
@@ -11286,11 +11327,11 @@
       <c r="C195" s="1">
         <v>194</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F195" s="2" t="s">
-        <v>373</v>
+      <c r="F195" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.75">
@@ -11303,11 +11344,11 @@
       <c r="C196" s="1">
         <v>195</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F196" s="2" t="s">
-        <v>373</v>
+      <c r="F196" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.75">
@@ -11320,11 +11361,11 @@
       <c r="C197" s="1">
         <v>196</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F197" s="2" t="s">
-        <v>373</v>
+      <c r="F197" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.75">
@@ -11337,11 +11378,11 @@
       <c r="C198" s="1">
         <v>197</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>373</v>
+      <c r="F198" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.75">
@@ -11354,11 +11395,11 @@
       <c r="C199" s="1">
         <v>198</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F199" s="2" t="s">
-        <v>373</v>
+      <c r="F199" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.75">
@@ -11371,11 +11412,11 @@
       <c r="C200" s="1">
         <v>199</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>373</v>
+      <c r="F200" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.75">
@@ -11388,11 +11429,11 @@
       <c r="C201" s="1">
         <v>200</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>373</v>
+      <c r="F201" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.75">
@@ -11405,11 +11446,11 @@
       <c r="C202" s="1">
         <v>201</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F202" s="2" t="s">
-        <v>373</v>
+      <c r="F202" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.75">
@@ -11422,11 +11463,11 @@
       <c r="C203" s="1">
         <v>202</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F203" s="2" t="s">
-        <v>373</v>
+      <c r="F203" s="12">
+        <v>43450</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.75">
@@ -11442,8 +11483,8 @@
       <c r="E204" t="s">
         <v>210</v>
       </c>
-      <c r="F204" s="2" t="s">
-        <v>373</v>
+      <c r="F204" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.75">
@@ -11459,8 +11500,8 @@
       <c r="E205" t="s">
         <v>211</v>
       </c>
-      <c r="F205" s="2" t="s">
-        <v>373</v>
+      <c r="F205" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.75">
@@ -11476,8 +11517,8 @@
       <c r="E206" t="s">
         <v>212</v>
       </c>
-      <c r="F206" s="2" t="s">
-        <v>373</v>
+      <c r="F206" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.75">
@@ -11493,8 +11534,8 @@
       <c r="E207" t="s">
         <v>213</v>
       </c>
-      <c r="F207" s="2" t="s">
-        <v>373</v>
+      <c r="F207" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.75">
@@ -11510,8 +11551,8 @@
       <c r="E208" t="s">
         <v>214</v>
       </c>
-      <c r="F208" s="2" t="s">
-        <v>373</v>
+      <c r="F208" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.75">
@@ -11527,8 +11568,8 @@
       <c r="E209" t="s">
         <v>215</v>
       </c>
-      <c r="F209" s="2" t="s">
-        <v>373</v>
+      <c r="F209" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.75">
@@ -11544,8 +11585,8 @@
       <c r="E210" t="s">
         <v>216</v>
       </c>
-      <c r="F210" s="2" t="s">
-        <v>373</v>
+      <c r="F210" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.75">
@@ -11561,8 +11602,8 @@
       <c r="E211" t="s">
         <v>217</v>
       </c>
-      <c r="F211" s="2" t="s">
-        <v>373</v>
+      <c r="F211" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.75">
@@ -11578,8 +11619,8 @@
       <c r="E212" t="s">
         <v>218</v>
       </c>
-      <c r="F212" s="2" t="s">
-        <v>373</v>
+      <c r="F212" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.75">
@@ -11595,8 +11636,8 @@
       <c r="E213" t="s">
         <v>219</v>
       </c>
-      <c r="F213" s="2" t="s">
-        <v>373</v>
+      <c r="F213" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.75">
@@ -11612,8 +11653,8 @@
       <c r="E214" t="s">
         <v>220</v>
       </c>
-      <c r="F214" s="2" t="s">
-        <v>373</v>
+      <c r="F214" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.75">
@@ -11629,8 +11670,8 @@
       <c r="E215" t="s">
         <v>221</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>373</v>
+      <c r="F215" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.75">
@@ -11646,8 +11687,8 @@
       <c r="E216" t="s">
         <v>222</v>
       </c>
-      <c r="F216" s="2" t="s">
-        <v>373</v>
+      <c r="F216" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.75">
@@ -11663,8 +11704,8 @@
       <c r="E217" t="s">
         <v>223</v>
       </c>
-      <c r="F217" s="2" t="s">
-        <v>373</v>
+      <c r="F217" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.75">
@@ -11680,8 +11721,8 @@
       <c r="E218" t="s">
         <v>224</v>
       </c>
-      <c r="F218" s="2" t="s">
-        <v>373</v>
+      <c r="F218" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.75">
@@ -11697,8 +11738,8 @@
       <c r="E219" t="s">
         <v>225</v>
       </c>
-      <c r="F219" s="2" t="s">
-        <v>373</v>
+      <c r="F219" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.75">
@@ -11714,8 +11755,8 @@
       <c r="E220" t="s">
         <v>226</v>
       </c>
-      <c r="F220" s="2" t="s">
-        <v>373</v>
+      <c r="F220" s="2">
+        <v>43451</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.75">
@@ -11731,8 +11772,8 @@
       <c r="E221" t="s">
         <v>228</v>
       </c>
-      <c r="F221" s="2" t="s">
-        <v>373</v>
+      <c r="F221" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.75">
@@ -11748,8 +11789,8 @@
       <c r="E222" t="s">
         <v>229</v>
       </c>
-      <c r="F222" s="2" t="s">
-        <v>373</v>
+      <c r="F222" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.75">
@@ -11765,8 +11806,8 @@
       <c r="E223" t="s">
         <v>230</v>
       </c>
-      <c r="F223" s="2" t="s">
-        <v>373</v>
+      <c r="F223" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.75">
@@ -11782,8 +11823,8 @@
       <c r="E224" t="s">
         <v>231</v>
       </c>
-      <c r="F224" s="2" t="s">
-        <v>373</v>
+      <c r="F224" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.75">
@@ -11799,8 +11840,8 @@
       <c r="E225" t="s">
         <v>232</v>
       </c>
-      <c r="F225" s="2" t="s">
-        <v>373</v>
+      <c r="F225" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.75">
@@ -11816,8 +11857,8 @@
       <c r="E226" t="s">
         <v>233</v>
       </c>
-      <c r="F226" s="2" t="s">
-        <v>373</v>
+      <c r="F226" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.75">
@@ -11833,8 +11874,8 @@
       <c r="E227" t="s">
         <v>234</v>
       </c>
-      <c r="F227" s="2" t="s">
-        <v>373</v>
+      <c r="F227" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.75">
@@ -11850,8 +11891,8 @@
       <c r="E228" t="s">
         <v>235</v>
       </c>
-      <c r="F228" s="2" t="s">
-        <v>373</v>
+      <c r="F228" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.75">
@@ -11867,8 +11908,8 @@
       <c r="E229" t="s">
         <v>236</v>
       </c>
-      <c r="F229" s="2" t="s">
-        <v>373</v>
+      <c r="F229" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.75">
@@ -11884,8 +11925,8 @@
       <c r="E230" t="s">
         <v>237</v>
       </c>
-      <c r="F230" s="2" t="s">
-        <v>373</v>
+      <c r="F230" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.75">
@@ -11901,8 +11942,8 @@
       <c r="E231" t="s">
         <v>238</v>
       </c>
-      <c r="F231" s="2" t="s">
-        <v>373</v>
+      <c r="F231" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.75">
@@ -11918,8 +11959,8 @@
       <c r="E232" t="s">
         <v>239</v>
       </c>
-      <c r="F232" s="2" t="s">
-        <v>373</v>
+      <c r="F232" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.75">
@@ -11935,8 +11976,8 @@
       <c r="E233" t="s">
         <v>240</v>
       </c>
-      <c r="F233" s="2" t="s">
-        <v>373</v>
+      <c r="F233" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.75">
@@ -11952,8 +11993,8 @@
       <c r="E234" t="s">
         <v>241</v>
       </c>
-      <c r="F234" s="2" t="s">
-        <v>373</v>
+      <c r="F234" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.75">
@@ -11969,8 +12010,8 @@
       <c r="E235" t="s">
         <v>242</v>
       </c>
-      <c r="F235" s="2" t="s">
-        <v>373</v>
+      <c r="F235" s="2">
+        <v>43452</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.75">
@@ -11986,8 +12027,8 @@
       <c r="E236" t="s">
         <v>243</v>
       </c>
-      <c r="F236" s="2" t="s">
-        <v>373</v>
+      <c r="F236" s="2">
+        <v>43453</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.75">
@@ -12003,8 +12044,8 @@
       <c r="E237" t="s">
         <v>244</v>
       </c>
-      <c r="F237" s="2" t="s">
-        <v>373</v>
+      <c r="F237" s="2">
+        <v>43453</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.75">
@@ -12020,8 +12061,8 @@
       <c r="E238" t="s">
         <v>245</v>
       </c>
-      <c r="F238" s="2" t="s">
-        <v>373</v>
+      <c r="F238" s="2">
+        <v>43453</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.75">
@@ -12037,8 +12078,8 @@
       <c r="E239" t="s">
         <v>246</v>
       </c>
-      <c r="F239" s="2" t="s">
-        <v>373</v>
+      <c r="F239" s="2">
+        <v>43453</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.75">
@@ -12054,8 +12095,8 @@
       <c r="E240" t="s">
         <v>247</v>
       </c>
-      <c r="F240" s="2" t="s">
-        <v>373</v>
+      <c r="F240" s="2">
+        <v>43453</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.75">
@@ -12071,8 +12112,8 @@
       <c r="E241" t="s">
         <v>248</v>
       </c>
-      <c r="F241" s="2" t="s">
-        <v>373</v>
+      <c r="F241" s="2">
+        <v>43453</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.75">
@@ -12088,8 +12129,8 @@
       <c r="E242" t="s">
         <v>249</v>
       </c>
-      <c r="F242" s="2" t="s">
-        <v>373</v>
+      <c r="F242" s="2">
+        <v>43453</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.75">
@@ -12105,8 +12146,8 @@
       <c r="E243" t="s">
         <v>250</v>
       </c>
-      <c r="F243" s="2" t="s">
-        <v>373</v>
+      <c r="F243" s="2">
+        <v>43453</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.75">
@@ -12122,8 +12163,8 @@
       <c r="E244" t="s">
         <v>251</v>
       </c>
-      <c r="F244" s="2" t="s">
-        <v>373</v>
+      <c r="F244" s="2">
+        <v>43453</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.75">
@@ -12139,8 +12180,8 @@
       <c r="E245" t="s">
         <v>252</v>
       </c>
-      <c r="F245" s="2" t="s">
-        <v>373</v>
+      <c r="F245" s="2">
+        <v>43453</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.75">
@@ -12156,8 +12197,8 @@
       <c r="E246" t="s">
         <v>253</v>
       </c>
-      <c r="F246" s="2" t="s">
-        <v>373</v>
+      <c r="F246" s="2">
+        <v>43453</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.75">
@@ -12173,8 +12214,8 @@
       <c r="E247" t="s">
         <v>254</v>
       </c>
-      <c r="F247" s="2" t="s">
-        <v>373</v>
+      <c r="F247" s="2">
+        <v>43453</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.75">
@@ -12190,8 +12231,8 @@
       <c r="E248" t="s">
         <v>256</v>
       </c>
-      <c r="F248" s="2" t="s">
-        <v>373</v>
+      <c r="F248" s="2">
+        <v>43454</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.75">
@@ -12207,8 +12248,8 @@
       <c r="E249" t="s">
         <v>257</v>
       </c>
-      <c r="F249" s="2" t="s">
-        <v>373</v>
+      <c r="F249" s="2">
+        <v>43454</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.75">
@@ -12224,8 +12265,8 @@
       <c r="E250" t="s">
         <v>258</v>
       </c>
-      <c r="F250" s="2" t="s">
-        <v>373</v>
+      <c r="F250" s="2">
+        <v>43454</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.75">
@@ -12241,8 +12282,8 @@
       <c r="E251" t="s">
         <v>259</v>
       </c>
-      <c r="F251" s="2" t="s">
-        <v>373</v>
+      <c r="F251" s="2">
+        <v>43454</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.75">
@@ -12258,8 +12299,8 @@
       <c r="E252" t="s">
         <v>260</v>
       </c>
-      <c r="F252" s="2" t="s">
-        <v>373</v>
+      <c r="F252" s="2">
+        <v>43454</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.75">
@@ -12275,8 +12316,8 @@
       <c r="E253" t="s">
         <v>261</v>
       </c>
-      <c r="F253" s="2" t="s">
-        <v>373</v>
+      <c r="F253" s="2">
+        <v>43454</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.75">
@@ -12292,8 +12333,8 @@
       <c r="E254" t="s">
         <v>262</v>
       </c>
-      <c r="F254" s="2" t="s">
-        <v>373</v>
+      <c r="F254" s="2">
+        <v>43454</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.75">
@@ -12309,8 +12350,8 @@
       <c r="E255" t="s">
         <v>263</v>
       </c>
-      <c r="F255" s="2" t="s">
-        <v>373</v>
+      <c r="F255" s="2">
+        <v>43454</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.75">
@@ -12326,8 +12367,8 @@
       <c r="E256" t="s">
         <v>264</v>
       </c>
-      <c r="F256" s="2" t="s">
-        <v>373</v>
+      <c r="F256" s="2">
+        <v>43454</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.75">
@@ -12343,8 +12384,8 @@
       <c r="E257" t="s">
         <v>265</v>
       </c>
-      <c r="F257" s="2" t="s">
-        <v>373</v>
+      <c r="F257" s="2">
+        <v>43454</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.75">
@@ -12360,8 +12401,8 @@
       <c r="E258" t="s">
         <v>266</v>
       </c>
-      <c r="F258" s="2" t="s">
-        <v>373</v>
+      <c r="F258" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.75">
@@ -12377,8 +12418,8 @@
       <c r="E259" t="s">
         <v>267</v>
       </c>
-      <c r="F259" s="2" t="s">
-        <v>373</v>
+      <c r="F259" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.75">
@@ -12394,8 +12435,8 @@
       <c r="E260" t="s">
         <v>268</v>
       </c>
-      <c r="F260" s="2" t="s">
-        <v>373</v>
+      <c r="F260" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.75">
@@ -12411,8 +12452,8 @@
       <c r="E261" t="s">
         <v>269</v>
       </c>
-      <c r="F261" s="2" t="s">
-        <v>373</v>
+      <c r="F261" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.75">
@@ -12428,8 +12469,8 @@
       <c r="E262" t="s">
         <v>270</v>
       </c>
-      <c r="F262" s="2" t="s">
-        <v>373</v>
+      <c r="F262" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.75">
@@ -12445,8 +12486,8 @@
       <c r="E263" t="s">
         <v>271</v>
       </c>
-      <c r="F263" s="2" t="s">
-        <v>373</v>
+      <c r="F263" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.75">
@@ -12462,8 +12503,8 @@
       <c r="E264" t="s">
         <v>272</v>
       </c>
-      <c r="F264" s="2" t="s">
-        <v>373</v>
+      <c r="F264" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.75">
@@ -12479,8 +12520,8 @@
       <c r="E265" t="s">
         <v>273</v>
       </c>
-      <c r="F265" s="2" t="s">
-        <v>373</v>
+      <c r="F265" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.75">
@@ -12496,8 +12537,8 @@
       <c r="E266" t="s">
         <v>274</v>
       </c>
-      <c r="F266" s="2" t="s">
-        <v>373</v>
+      <c r="F266" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.75">
@@ -12513,8 +12554,8 @@
       <c r="E267" t="s">
         <v>275</v>
       </c>
-      <c r="F267" s="2" t="s">
-        <v>373</v>
+      <c r="F267" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.75">
@@ -12530,8 +12571,8 @@
       <c r="E268" t="s">
         <v>276</v>
       </c>
-      <c r="F268" s="2" t="s">
-        <v>373</v>
+      <c r="F268" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.75">
@@ -12547,8 +12588,8 @@
       <c r="E269" t="s">
         <v>277</v>
       </c>
-      <c r="F269" s="2" t="s">
-        <v>373</v>
+      <c r="F269" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.75">
@@ -12564,8 +12605,8 @@
       <c r="E270" t="s">
         <v>278</v>
       </c>
-      <c r="F270" s="2" t="s">
-        <v>373</v>
+      <c r="F270" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.75">
@@ -12581,8 +12622,8 @@
       <c r="E271" t="s">
         <v>279</v>
       </c>
-      <c r="F271" s="2" t="s">
-        <v>373</v>
+      <c r="F271" s="2">
+        <v>43455</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.75">
@@ -12598,8 +12639,8 @@
       <c r="E272" t="s">
         <v>281</v>
       </c>
-      <c r="F272" s="2" t="s">
-        <v>373</v>
+      <c r="F272" s="2">
+        <v>43456</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.75">
@@ -12615,8 +12656,8 @@
       <c r="E273" t="s">
         <v>282</v>
       </c>
-      <c r="F273" s="2" t="s">
-        <v>373</v>
+      <c r="F273" s="2">
+        <v>43457</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.75">
@@ -12632,8 +12673,8 @@
       <c r="E274" t="s">
         <v>283</v>
       </c>
-      <c r="F274" s="2" t="s">
-        <v>373</v>
+      <c r="F274" s="2">
+        <v>43457</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.75">
@@ -12649,8 +12690,8 @@
       <c r="E275" t="s">
         <v>284</v>
       </c>
-      <c r="F275" s="2" t="s">
-        <v>373</v>
+      <c r="F275" s="2">
+        <v>43457</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.75">
@@ -12666,8 +12707,8 @@
       <c r="E276" t="s">
         <v>285</v>
       </c>
-      <c r="F276" s="2" t="s">
-        <v>373</v>
+      <c r="F276" s="2">
+        <v>43457</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.75">
@@ -12683,8 +12724,8 @@
       <c r="E277" t="s">
         <v>286</v>
       </c>
-      <c r="F277" s="2" t="s">
-        <v>373</v>
+      <c r="F277" s="2">
+        <v>43457</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.75">
@@ -12700,8 +12741,8 @@
       <c r="E278" t="s">
         <v>287</v>
       </c>
-      <c r="F278" s="2" t="s">
-        <v>373</v>
+      <c r="F278" s="2">
+        <v>43457</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.75">
@@ -12717,8 +12758,8 @@
       <c r="E279" t="s">
         <v>288</v>
       </c>
-      <c r="F279" s="2" t="s">
-        <v>373</v>
+      <c r="F279" s="2">
+        <v>43457</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.75">
@@ -12734,8 +12775,8 @@
       <c r="E280" t="s">
         <v>289</v>
       </c>
-      <c r="F280" s="2" t="s">
-        <v>373</v>
+      <c r="F280" s="2">
+        <v>43457</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.75">
@@ -12751,8 +12792,8 @@
       <c r="E281" t="s">
         <v>290</v>
       </c>
-      <c r="F281" s="2" t="s">
-        <v>373</v>
+      <c r="F281" s="2">
+        <v>43457</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.75">
@@ -12768,8 +12809,8 @@
       <c r="E282" t="s">
         <v>291</v>
       </c>
-      <c r="F282" s="2" t="s">
-        <v>373</v>
+      <c r="F282" s="2">
+        <v>43457</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.75">
@@ -12785,8 +12826,8 @@
       <c r="E283" t="s">
         <v>292</v>
       </c>
-      <c r="F283" s="2" t="s">
-        <v>373</v>
+      <c r="F283" s="2">
+        <v>43458</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.75">
@@ -12802,8 +12843,8 @@
       <c r="E284" t="s">
         <v>293</v>
       </c>
-      <c r="F284" s="2" t="s">
-        <v>373</v>
+      <c r="F284" s="2">
+        <v>43458</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.75">
@@ -12819,8 +12860,8 @@
       <c r="E285" t="s">
         <v>294</v>
       </c>
-      <c r="F285" s="2" t="s">
-        <v>373</v>
+      <c r="F285" s="2">
+        <v>43458</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.75">
@@ -12836,8 +12877,8 @@
       <c r="E286" t="s">
         <v>295</v>
       </c>
-      <c r="F286" s="2" t="s">
-        <v>373</v>
+      <c r="F286" s="2">
+        <v>43458</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.75">
@@ -12853,8 +12894,8 @@
       <c r="E287" t="s">
         <v>296</v>
       </c>
-      <c r="F287" s="2" t="s">
-        <v>373</v>
+      <c r="F287" s="2">
+        <v>43458</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.75">
@@ -12870,8 +12911,8 @@
       <c r="E288" t="s">
         <v>297</v>
       </c>
-      <c r="F288" s="2" t="s">
-        <v>373</v>
+      <c r="F288" s="2">
+        <v>43458</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.75">
@@ -12887,8 +12928,8 @@
       <c r="E289" t="s">
         <v>298</v>
       </c>
-      <c r="F289" s="2" t="s">
-        <v>373</v>
+      <c r="F289" s="2">
+        <v>43458</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.75">
@@ -12904,8 +12945,8 @@
       <c r="E290" t="s">
         <v>299</v>
       </c>
-      <c r="F290" s="2" t="s">
-        <v>373</v>
+      <c r="F290" s="2">
+        <v>43458</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.75">
@@ -12921,8 +12962,8 @@
       <c r="E291" t="s">
         <v>300</v>
       </c>
-      <c r="F291" s="2" t="s">
-        <v>373</v>
+      <c r="F291" s="2">
+        <v>43458</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.75">
@@ -12938,8 +12979,8 @@
       <c r="E292" t="s">
         <v>301</v>
       </c>
-      <c r="F292" s="2" t="s">
-        <v>373</v>
+      <c r="F292" s="2">
+        <v>43458</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.75">
@@ -12955,8 +12996,8 @@
       <c r="E293" t="s">
         <v>302</v>
       </c>
-      <c r="F293" s="2" t="s">
-        <v>373</v>
+      <c r="F293" s="2">
+        <v>43458</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.75">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E158352D-C43B-46F6-9360-C52EAFB0BECA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B9AAD8-51DB-40A0-8931-2DBD22331C06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="444">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1334,6 +1334,42 @@
   </si>
   <si>
     <t>PassedRemove Whitespace from Start and End</t>
+  </si>
+  <si>
+    <t>PassedUse the JavaScript Console to Check the Value of a Variable</t>
+  </si>
+  <si>
+    <t>PassedUnderstanding the Differences between the freeCodeCamp and Browser Console</t>
+  </si>
+  <si>
+    <t>PassedUse typeof to Check the Type of a Variable</t>
+  </si>
+  <si>
+    <t>PassedCatch Misspelled Variable and Function Names</t>
+  </si>
+  <si>
+    <t>PassedCatch Unclosed Parentheses, Brackets, Braces and Quotes</t>
+  </si>
+  <si>
+    <t>PassedCatch Mixed Usage of Single and Double Quotes</t>
+  </si>
+  <si>
+    <t>PassedCatch Use of Assignment Operator Instead of Equality Operator</t>
+  </si>
+  <si>
+    <t>PassedCatch Missing Open and Closing Parenthesis After a Function Call</t>
+  </si>
+  <si>
+    <t>PassedCatch Arguments Passed in the Wrong Order When Calling a Function</t>
+  </si>
+  <si>
+    <t>PassedCatch Off By One Errors When Using Indexing</t>
+  </si>
+  <si>
+    <t>PassedUse Caution When Reinitializing Variables Inside a Loop</t>
+  </si>
+  <si>
+    <t>PassedPrevent Infinite Loops with a Valid Terminal Condition</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1376,12 +1412,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1395,7 +1425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1417,7 +1447,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -7854,8 +7883,8 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F298" sqref="F298"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D183" sqref="D183:D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10866,7 +10895,7 @@
       <c r="D170" s="1">
         <v>1</v>
       </c>
-      <c r="E170" s="13" t="s">
+      <c r="E170" s="8" t="s">
         <v>174</v>
       </c>
       <c r="F170" s="11">
@@ -10886,8 +10915,8 @@
       <c r="D171" s="1">
         <v>2</v>
       </c>
-      <c r="E171" s="13" t="s">
-        <v>175</v>
+      <c r="E171" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="F171" s="11">
         <v>43449</v>
@@ -10906,8 +10935,8 @@
       <c r="D172" s="1">
         <v>3</v>
       </c>
-      <c r="E172" s="13" t="s">
-        <v>176</v>
+      <c r="E172" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="F172" s="11">
         <v>43449</v>
@@ -10926,8 +10955,8 @@
       <c r="D173" s="1">
         <v>4</v>
       </c>
-      <c r="E173" s="13" t="s">
-        <v>177</v>
+      <c r="E173" s="8" t="s">
+        <v>434</v>
       </c>
       <c r="F173" s="11">
         <v>43449</v>
@@ -10946,8 +10975,8 @@
       <c r="D174" s="1">
         <v>5</v>
       </c>
-      <c r="E174" s="13" t="s">
-        <v>178</v>
+      <c r="E174" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="F174" s="11">
         <v>43449</v>
@@ -10966,8 +10995,8 @@
       <c r="D175" s="1">
         <v>6</v>
       </c>
-      <c r="E175" s="13" t="s">
-        <v>179</v>
+      <c r="E175" s="8" t="s">
+        <v>436</v>
       </c>
       <c r="F175" s="11">
         <v>43449</v>
@@ -10986,8 +11015,8 @@
       <c r="D176" s="1">
         <v>7</v>
       </c>
-      <c r="E176" s="13" t="s">
-        <v>180</v>
+      <c r="E176" s="8" t="s">
+        <v>437</v>
       </c>
       <c r="F176" s="11">
         <v>43449</v>
@@ -11006,8 +11035,8 @@
       <c r="D177" s="1">
         <v>8</v>
       </c>
-      <c r="E177" s="13" t="s">
-        <v>181</v>
+      <c r="E177" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F177" s="11">
         <v>43449</v>
@@ -11026,8 +11055,8 @@
       <c r="D178" s="1">
         <v>9</v>
       </c>
-      <c r="E178" s="13" t="s">
-        <v>182</v>
+      <c r="E178" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="F178" s="11">
         <v>43449</v>
@@ -11046,8 +11075,8 @@
       <c r="D179" s="1">
         <v>10</v>
       </c>
-      <c r="E179" s="13" t="s">
-        <v>183</v>
+      <c r="E179" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="F179" s="11">
         <v>43449</v>
@@ -11066,8 +11095,8 @@
       <c r="D180" s="1">
         <v>11</v>
       </c>
-      <c r="E180" s="13" t="s">
-        <v>184</v>
+      <c r="E180" s="8" t="s">
+        <v>441</v>
       </c>
       <c r="F180" s="11">
         <v>43449</v>
@@ -11086,8 +11115,8 @@
       <c r="D181" s="1">
         <v>12</v>
       </c>
-      <c r="E181" s="13" t="s">
-        <v>185</v>
+      <c r="E181" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="F181" s="11">
         <v>43449</v>
@@ -11106,8 +11135,8 @@
       <c r="D182" s="1">
         <v>13</v>
       </c>
-      <c r="E182" s="13" t="s">
-        <v>186</v>
+      <c r="E182" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="F182" s="11">
         <v>43449</v>
@@ -11123,6 +11152,9 @@
       <c r="C183" s="1">
         <v>182</v>
       </c>
+      <c r="D183" s="1">
+        <v>1</v>
+      </c>
       <c r="E183" t="s">
         <v>188</v>
       </c>
@@ -11140,7 +11172,10 @@
       <c r="C184" s="1">
         <v>183</v>
       </c>
-      <c r="E184" s="14" t="s">
+      <c r="D184" s="1">
+        <v>2</v>
+      </c>
+      <c r="E184" s="13" t="s">
         <v>189</v>
       </c>
       <c r="F184" s="12">
@@ -11157,7 +11192,10 @@
       <c r="C185" s="1">
         <v>184</v>
       </c>
-      <c r="E185" s="14" t="s">
+      <c r="D185" s="1">
+        <v>3</v>
+      </c>
+      <c r="E185" s="13" t="s">
         <v>190</v>
       </c>
       <c r="F185" s="12">
@@ -11174,7 +11212,10 @@
       <c r="C186" s="1">
         <v>185</v>
       </c>
-      <c r="E186" s="14" t="s">
+      <c r="D186" s="1">
+        <v>4</v>
+      </c>
+      <c r="E186" s="13" t="s">
         <v>191</v>
       </c>
       <c r="F186" s="12">
@@ -11191,7 +11232,10 @@
       <c r="C187" s="1">
         <v>186</v>
       </c>
-      <c r="E187" s="14" t="s">
+      <c r="D187" s="1">
+        <v>5</v>
+      </c>
+      <c r="E187" s="13" t="s">
         <v>192</v>
       </c>
       <c r="F187" s="12">
@@ -11208,7 +11252,10 @@
       <c r="C188" s="1">
         <v>187</v>
       </c>
-      <c r="E188" s="14" t="s">
+      <c r="D188" s="1">
+        <v>6</v>
+      </c>
+      <c r="E188" s="13" t="s">
         <v>193</v>
       </c>
       <c r="F188" s="12">
@@ -11225,7 +11272,10 @@
       <c r="C189" s="1">
         <v>188</v>
       </c>
-      <c r="E189" s="14" t="s">
+      <c r="D189" s="1">
+        <v>7</v>
+      </c>
+      <c r="E189" s="13" t="s">
         <v>194</v>
       </c>
       <c r="F189" s="12">
@@ -11242,7 +11292,10 @@
       <c r="C190" s="1">
         <v>189</v>
       </c>
-      <c r="E190" s="14" t="s">
+      <c r="D190" s="1">
+        <v>8</v>
+      </c>
+      <c r="E190" s="13" t="s">
         <v>195</v>
       </c>
       <c r="F190" s="12">
@@ -11259,7 +11312,10 @@
       <c r="C191" s="1">
         <v>190</v>
       </c>
-      <c r="E191" s="14" t="s">
+      <c r="D191" s="1">
+        <v>9</v>
+      </c>
+      <c r="E191" s="13" t="s">
         <v>196</v>
       </c>
       <c r="F191" s="12">
@@ -11276,7 +11332,10 @@
       <c r="C192" s="1">
         <v>191</v>
       </c>
-      <c r="E192" s="14" t="s">
+      <c r="D192" s="1">
+        <v>10</v>
+      </c>
+      <c r="E192" s="13" t="s">
         <v>197</v>
       </c>
       <c r="F192" s="12">
@@ -11293,7 +11352,10 @@
       <c r="C193" s="1">
         <v>192</v>
       </c>
-      <c r="E193" s="14" t="s">
+      <c r="D193" s="1">
+        <v>11</v>
+      </c>
+      <c r="E193" s="13" t="s">
         <v>198</v>
       </c>
       <c r="F193" s="12">
@@ -11310,7 +11372,10 @@
       <c r="C194" s="1">
         <v>193</v>
       </c>
-      <c r="E194" s="14" t="s">
+      <c r="D194" s="1">
+        <v>12</v>
+      </c>
+      <c r="E194" s="13" t="s">
         <v>199</v>
       </c>
       <c r="F194" s="12">
@@ -11327,7 +11392,10 @@
       <c r="C195" s="1">
         <v>194</v>
       </c>
-      <c r="E195" s="14" t="s">
+      <c r="D195" s="1">
+        <v>13</v>
+      </c>
+      <c r="E195" s="13" t="s">
         <v>200</v>
       </c>
       <c r="F195" s="12">
@@ -11344,7 +11412,10 @@
       <c r="C196" s="1">
         <v>195</v>
       </c>
-      <c r="E196" s="14" t="s">
+      <c r="D196" s="1">
+        <v>14</v>
+      </c>
+      <c r="E196" s="13" t="s">
         <v>201</v>
       </c>
       <c r="F196" s="12">
@@ -11361,7 +11432,10 @@
       <c r="C197" s="1">
         <v>196</v>
       </c>
-      <c r="E197" s="14" t="s">
+      <c r="D197" s="1">
+        <v>15</v>
+      </c>
+      <c r="E197" s="13" t="s">
         <v>202</v>
       </c>
       <c r="F197" s="12">
@@ -11378,7 +11452,10 @@
       <c r="C198" s="1">
         <v>197</v>
       </c>
-      <c r="E198" s="14" t="s">
+      <c r="D198" s="1">
+        <v>16</v>
+      </c>
+      <c r="E198" s="13" t="s">
         <v>203</v>
       </c>
       <c r="F198" s="12">
@@ -11395,7 +11472,10 @@
       <c r="C199" s="1">
         <v>198</v>
       </c>
-      <c r="E199" s="14" t="s">
+      <c r="D199" s="1">
+        <v>17</v>
+      </c>
+      <c r="E199" s="13" t="s">
         <v>204</v>
       </c>
       <c r="F199" s="12">
@@ -11412,7 +11492,10 @@
       <c r="C200" s="1">
         <v>199</v>
       </c>
-      <c r="E200" s="14" t="s">
+      <c r="D200" s="1">
+        <v>18</v>
+      </c>
+      <c r="E200" s="13" t="s">
         <v>205</v>
       </c>
       <c r="F200" s="12">
@@ -11429,7 +11512,10 @@
       <c r="C201" s="1">
         <v>200</v>
       </c>
-      <c r="E201" s="14" t="s">
+      <c r="D201" s="1">
+        <v>19</v>
+      </c>
+      <c r="E201" s="13" t="s">
         <v>206</v>
       </c>
       <c r="F201" s="12">
@@ -11446,7 +11532,10 @@
       <c r="C202" s="1">
         <v>201</v>
       </c>
-      <c r="E202" s="14" t="s">
+      <c r="D202" s="1">
+        <v>20</v>
+      </c>
+      <c r="E202" s="13" t="s">
         <v>207</v>
       </c>
       <c r="F202" s="12">
@@ -11463,7 +11552,10 @@
       <c r="C203" s="1">
         <v>202</v>
       </c>
-      <c r="E203" s="14" t="s">
+      <c r="D203" s="1">
+        <v>21</v>
+      </c>
+      <c r="E203" s="13" t="s">
         <v>208</v>
       </c>
       <c r="F203" s="12">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B9AAD8-51DB-40A0-8931-2DBD22331C06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BCB5F1-BF0E-49DD-8B8B-4038144BF829}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="448">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1159,9 +1159,6 @@
     <t>11/28-12/2</t>
   </si>
   <si>
-    <t>12/3 - 12/23</t>
-  </si>
-  <si>
     <t>300 hours in 30 days ~ 10 per day</t>
   </si>
   <si>
@@ -1370,6 +1367,21 @@
   </si>
   <si>
     <t>PassedPrevent Infinite Loops with a Valid Terminal Condition</t>
+  </si>
+  <si>
+    <t>PassedUse an Array to Store a Collection of Data</t>
+  </si>
+  <si>
+    <t>PassedAccess an Array's Contents Using Bracket Notation</t>
+  </si>
+  <si>
+    <t>PassedAdd Items to an Array with push() and unshift()</t>
+  </si>
+  <si>
+    <t>PassedRemove Items from an Array with pop() and shift()</t>
+  </si>
+  <si>
+    <t>PassedRemove Items Using splice()</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1412,6 +1424,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1425,7 +1443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1448,6 +1466,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7883,8 +7902,10 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D183" sqref="D183:D203"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B287" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F295" sqref="F295:F299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9815,7 +9836,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F113" s="2">
         <v>43436</v>
@@ -9838,7 +9859,7 @@
         <v>5</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F114" s="2">
         <v>43436</v>
@@ -9859,7 +9880,7 @@
         <v>6</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F115" s="2">
         <v>43436</v>
@@ -9876,7 +9897,7 @@
         <v>7</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F116" s="2">
         <v>43436</v>
@@ -9893,7 +9914,7 @@
         <v>8</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F117" s="2">
         <v>43436</v>
@@ -9910,7 +9931,7 @@
         <v>9</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F118" s="2">
         <v>43436</v>
@@ -9927,7 +9948,7 @@
         <v>10</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F119" s="2">
         <v>43436</v>
@@ -9944,7 +9965,7 @@
         <v>11</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F120" s="2">
         <v>43436</v>
@@ -9961,7 +9982,7 @@
         <v>12</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F121" s="2">
         <v>43436</v>
@@ -9978,7 +9999,7 @@
         <v>13</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F122" s="2">
         <v>43436</v>
@@ -9995,7 +10016,7 @@
         <v>14</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F123" s="2">
         <v>43437</v>
@@ -10012,7 +10033,7 @@
         <v>15</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F124" s="2">
         <v>43437</v>
@@ -10029,7 +10050,7 @@
         <v>16</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F125" s="2">
         <v>43437</v>
@@ -10046,7 +10067,7 @@
         <v>17</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F126" s="2">
         <v>43437</v>
@@ -10063,7 +10084,7 @@
         <v>18</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F127" s="2">
         <v>43437</v>
@@ -10080,7 +10101,7 @@
         <v>19</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F128" s="2">
         <v>43437</v>
@@ -10097,7 +10118,7 @@
         <v>20</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F129" s="2">
         <v>43437</v>
@@ -10114,7 +10135,7 @@
         <v>21</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F130" s="2">
         <v>43437</v>
@@ -10131,7 +10152,7 @@
         <v>22</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F131" s="2">
         <v>43437</v>
@@ -10148,7 +10169,7 @@
         <v>23</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F132" s="2">
         <v>43437</v>
@@ -10165,7 +10186,7 @@
         <v>24</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F133" s="2">
         <v>43437</v>
@@ -10182,7 +10203,7 @@
         <v>25</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F134" s="2">
         <v>43438</v>
@@ -10199,7 +10220,7 @@
         <v>26</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F135" s="2">
         <v>43438</v>
@@ -10216,7 +10237,7 @@
         <v>27</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F136" s="2">
         <v>43438</v>
@@ -10256,7 +10277,7 @@
         <v>2</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F138" s="2">
         <v>43438</v>
@@ -10276,7 +10297,7 @@
         <v>3</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F139" s="2">
         <v>43438</v>
@@ -10296,7 +10317,7 @@
         <v>4</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F140" s="2">
         <v>43438</v>
@@ -10316,7 +10337,7 @@
         <v>5</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F141" s="2">
         <v>43438</v>
@@ -10336,7 +10357,7 @@
         <v>6</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F142" s="2">
         <v>43438</v>
@@ -10356,7 +10377,7 @@
         <v>7</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F143" s="2">
         <v>43438</v>
@@ -10376,7 +10397,7 @@
         <v>8</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F144" s="10">
         <v>43439</v>
@@ -10396,7 +10417,7 @@
         <v>9</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F145" s="10">
         <v>43439</v>
@@ -10416,7 +10437,7 @@
         <v>10</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F146" s="10">
         <v>43439</v>
@@ -10436,7 +10457,7 @@
         <v>11</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F147" s="10">
         <v>43439</v>
@@ -10456,7 +10477,7 @@
         <v>12</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F148" s="10">
         <v>43439</v>
@@ -10476,7 +10497,7 @@
         <v>13</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F149" s="10">
         <v>43439</v>
@@ -10496,7 +10517,7 @@
         <v>14</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F150" s="10">
         <v>43439</v>
@@ -10516,7 +10537,7 @@
         <v>15</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F151" s="10">
         <v>43444</v>
@@ -10536,7 +10557,7 @@
         <v>16</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F152" s="10">
         <v>43444</v>
@@ -10556,7 +10577,7 @@
         <v>17</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F153" s="10">
         <v>43444</v>
@@ -10576,7 +10597,7 @@
         <v>18</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F154" s="10">
         <v>43444</v>
@@ -10596,7 +10617,7 @@
         <v>19</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F155" s="10">
         <v>43444</v>
@@ -10616,7 +10637,7 @@
         <v>20</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F156" s="10">
         <v>43444</v>
@@ -10636,7 +10657,7 @@
         <v>21</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F157" s="10">
         <v>43444</v>
@@ -10656,7 +10677,7 @@
         <v>22</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F158" s="11">
         <v>43447</v>
@@ -10676,7 +10697,7 @@
         <v>23</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F159" s="11">
         <v>43447</v>
@@ -10696,7 +10717,7 @@
         <v>24</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F160" s="11">
         <v>43447</v>
@@ -10716,7 +10737,7 @@
         <v>25</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F161" s="11">
         <v>43447</v>
@@ -10736,7 +10757,7 @@
         <v>26</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F162" s="11">
         <v>43447</v>
@@ -10756,7 +10777,7 @@
         <v>27</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F163" s="11">
         <v>43447</v>
@@ -10776,7 +10797,7 @@
         <v>28</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F164" s="11">
         <v>43447</v>
@@ -10796,7 +10817,7 @@
         <v>29</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F165" s="11">
         <v>43447</v>
@@ -10816,7 +10837,7 @@
         <v>30</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F166" s="11">
         <v>43447</v>
@@ -10836,7 +10857,7 @@
         <v>31</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F167" s="11">
         <v>43449</v>
@@ -10856,7 +10877,7 @@
         <v>32</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F168" s="11">
         <v>43449</v>
@@ -10876,7 +10897,7 @@
         <v>33</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F169" s="11">
         <v>43449</v>
@@ -10916,7 +10937,7 @@
         <v>2</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F171" s="11">
         <v>43449</v>
@@ -10936,7 +10957,7 @@
         <v>3</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F172" s="11">
         <v>43449</v>
@@ -10956,7 +10977,7 @@
         <v>4</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F173" s="11">
         <v>43449</v>
@@ -10976,7 +10997,7 @@
         <v>5</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F174" s="11">
         <v>43449</v>
@@ -10996,7 +11017,7 @@
         <v>6</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F175" s="11">
         <v>43449</v>
@@ -11016,7 +11037,7 @@
         <v>7</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F176" s="11">
         <v>43449</v>
@@ -11036,7 +11057,7 @@
         <v>8</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F177" s="11">
         <v>43449</v>
@@ -11056,7 +11077,7 @@
         <v>9</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F178" s="11">
         <v>43449</v>
@@ -11076,7 +11097,7 @@
         <v>10</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F179" s="11">
         <v>43449</v>
@@ -11096,7 +11117,7 @@
         <v>11</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F180" s="11">
         <v>43449</v>
@@ -11116,7 +11137,7 @@
         <v>12</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F181" s="11">
         <v>43449</v>
@@ -11136,7 +11157,7 @@
         <v>13</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F182" s="11">
         <v>43449</v>
@@ -11175,11 +11196,11 @@
       <c r="D184" s="1">
         <v>2</v>
       </c>
-      <c r="E184" s="13" t="s">
-        <v>189</v>
+      <c r="E184" s="14" t="s">
+        <v>443</v>
       </c>
       <c r="F184" s="12">
-        <v>43450</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.75">
@@ -11195,11 +11216,11 @@
       <c r="D185" s="1">
         <v>3</v>
       </c>
-      <c r="E185" s="13" t="s">
-        <v>190</v>
+      <c r="E185" s="14" t="s">
+        <v>444</v>
       </c>
       <c r="F185" s="12">
-        <v>43450</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.75">
@@ -11215,11 +11236,11 @@
       <c r="D186" s="1">
         <v>4</v>
       </c>
-      <c r="E186" s="13" t="s">
-        <v>191</v>
+      <c r="E186" s="14" t="s">
+        <v>445</v>
       </c>
       <c r="F186" s="12">
-        <v>43450</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.75">
@@ -11235,11 +11256,11 @@
       <c r="D187" s="1">
         <v>5</v>
       </c>
-      <c r="E187" s="13" t="s">
-        <v>192</v>
+      <c r="E187" s="14" t="s">
+        <v>446</v>
       </c>
       <c r="F187" s="12">
-        <v>43450</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.75">
@@ -11255,11 +11276,11 @@
       <c r="D188" s="1">
         <v>6</v>
       </c>
-      <c r="E188" s="13" t="s">
-        <v>193</v>
+      <c r="E188" s="14" t="s">
+        <v>447</v>
       </c>
       <c r="F188" s="12">
-        <v>43450</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.75">
@@ -11279,7 +11300,7 @@
         <v>194</v>
       </c>
       <c r="F189" s="12">
-        <v>43450</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.75">
@@ -11299,7 +11320,7 @@
         <v>195</v>
       </c>
       <c r="F190" s="12">
-        <v>43450</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.75">
@@ -11319,7 +11340,7 @@
         <v>196</v>
       </c>
       <c r="F191" s="12">
-        <v>43450</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.75">
@@ -11339,7 +11360,7 @@
         <v>197</v>
       </c>
       <c r="F192" s="12">
-        <v>43450</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.75">
@@ -11359,7 +11380,7 @@
         <v>198</v>
       </c>
       <c r="F193" s="12">
-        <v>43450</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.75">
@@ -11379,7 +11400,7 @@
         <v>199</v>
       </c>
       <c r="F194" s="12">
-        <v>43450</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.75">
@@ -11399,7 +11420,7 @@
         <v>200</v>
       </c>
       <c r="F195" s="12">
-        <v>43450</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.75">
@@ -11419,7 +11440,7 @@
         <v>201</v>
       </c>
       <c r="F196" s="12">
-        <v>43450</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.75">
@@ -11439,7 +11460,7 @@
         <v>202</v>
       </c>
       <c r="F197" s="12">
-        <v>43450</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.75">
@@ -11459,7 +11480,7 @@
         <v>203</v>
       </c>
       <c r="F198" s="12">
-        <v>43450</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.75">
@@ -11479,7 +11500,7 @@
         <v>204</v>
       </c>
       <c r="F199" s="12">
-        <v>43450</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.75">
@@ -11499,7 +11520,7 @@
         <v>205</v>
       </c>
       <c r="F200" s="12">
-        <v>43450</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.75">
@@ -11519,7 +11540,7 @@
         <v>206</v>
       </c>
       <c r="F201" s="12">
-        <v>43450</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.75">
@@ -11539,7 +11560,7 @@
         <v>207</v>
       </c>
       <c r="F202" s="12">
-        <v>43450</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.75">
@@ -11559,7 +11580,7 @@
         <v>208</v>
       </c>
       <c r="F203" s="12">
-        <v>43450</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.75">
@@ -11576,7 +11597,7 @@
         <v>210</v>
       </c>
       <c r="F204" s="2">
-        <v>43451</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.75">
@@ -11593,7 +11614,7 @@
         <v>211</v>
       </c>
       <c r="F205" s="2">
-        <v>43451</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.75">
@@ -11610,7 +11631,7 @@
         <v>212</v>
       </c>
       <c r="F206" s="2">
-        <v>43451</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.75">
@@ -11627,7 +11648,7 @@
         <v>213</v>
       </c>
       <c r="F207" s="2">
-        <v>43451</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.75">
@@ -11644,7 +11665,7 @@
         <v>214</v>
       </c>
       <c r="F208" s="2">
-        <v>43451</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.75">
@@ -11661,7 +11682,7 @@
         <v>215</v>
       </c>
       <c r="F209" s="2">
-        <v>43451</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.75">
@@ -11678,7 +11699,7 @@
         <v>216</v>
       </c>
       <c r="F210" s="2">
-        <v>43451</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.75">
@@ -11695,7 +11716,7 @@
         <v>217</v>
       </c>
       <c r="F211" s="2">
-        <v>43451</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.75">
@@ -11712,7 +11733,7 @@
         <v>218</v>
       </c>
       <c r="F212" s="2">
-        <v>43451</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.75">
@@ -11729,7 +11750,7 @@
         <v>219</v>
       </c>
       <c r="F213" s="2">
-        <v>43451</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.75">
@@ -11746,7 +11767,7 @@
         <v>220</v>
       </c>
       <c r="F214" s="2">
-        <v>43451</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.75">
@@ -11763,7 +11784,7 @@
         <v>221</v>
       </c>
       <c r="F215" s="2">
-        <v>43451</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.75">
@@ -11780,7 +11801,7 @@
         <v>222</v>
       </c>
       <c r="F216" s="2">
-        <v>43451</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.75">
@@ -11797,7 +11818,7 @@
         <v>223</v>
       </c>
       <c r="F217" s="2">
-        <v>43451</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.75">
@@ -11814,7 +11835,7 @@
         <v>224</v>
       </c>
       <c r="F218" s="2">
-        <v>43451</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.75">
@@ -11831,7 +11852,7 @@
         <v>225</v>
       </c>
       <c r="F219" s="2">
-        <v>43451</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.75">
@@ -11848,7 +11869,7 @@
         <v>226</v>
       </c>
       <c r="F220" s="2">
-        <v>43451</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.75">
@@ -11865,7 +11886,7 @@
         <v>228</v>
       </c>
       <c r="F221" s="2">
-        <v>43452</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.75">
@@ -11882,7 +11903,7 @@
         <v>229</v>
       </c>
       <c r="F222" s="2">
-        <v>43452</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.75">
@@ -11899,7 +11920,7 @@
         <v>230</v>
       </c>
       <c r="F223" s="2">
-        <v>43452</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.75">
@@ -11916,7 +11937,7 @@
         <v>231</v>
       </c>
       <c r="F224" s="2">
-        <v>43452</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.75">
@@ -11933,7 +11954,7 @@
         <v>232</v>
       </c>
       <c r="F225" s="2">
-        <v>43452</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.75">
@@ -11950,7 +11971,7 @@
         <v>233</v>
       </c>
       <c r="F226" s="2">
-        <v>43452</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.75">
@@ -11967,7 +11988,7 @@
         <v>234</v>
       </c>
       <c r="F227" s="2">
-        <v>43452</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.75">
@@ -11984,7 +12005,7 @@
         <v>235</v>
       </c>
       <c r="F228" s="2">
-        <v>43452</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.75">
@@ -12001,7 +12022,7 @@
         <v>236</v>
       </c>
       <c r="F229" s="2">
-        <v>43452</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.75">
@@ -12018,7 +12039,7 @@
         <v>237</v>
       </c>
       <c r="F230" s="2">
-        <v>43452</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.75">
@@ -12035,7 +12056,7 @@
         <v>238</v>
       </c>
       <c r="F231" s="2">
-        <v>43452</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.75">
@@ -12052,7 +12073,7 @@
         <v>239</v>
       </c>
       <c r="F232" s="2">
-        <v>43452</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.75">
@@ -12069,7 +12090,7 @@
         <v>240</v>
       </c>
       <c r="F233" s="2">
-        <v>43452</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.75">
@@ -12086,7 +12107,7 @@
         <v>241</v>
       </c>
       <c r="F234" s="2">
-        <v>43452</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.75">
@@ -12103,7 +12124,7 @@
         <v>242</v>
       </c>
       <c r="F235" s="2">
-        <v>43452</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.75">
@@ -12120,7 +12141,7 @@
         <v>243</v>
       </c>
       <c r="F236" s="2">
-        <v>43453</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.75">
@@ -12137,7 +12158,7 @@
         <v>244</v>
       </c>
       <c r="F237" s="2">
-        <v>43453</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.75">
@@ -12154,7 +12175,7 @@
         <v>245</v>
       </c>
       <c r="F238" s="2">
-        <v>43453</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.75">
@@ -12171,7 +12192,7 @@
         <v>246</v>
       </c>
       <c r="F239" s="2">
-        <v>43453</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.75">
@@ -12188,7 +12209,7 @@
         <v>247</v>
       </c>
       <c r="F240" s="2">
-        <v>43453</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.75">
@@ -12205,7 +12226,7 @@
         <v>248</v>
       </c>
       <c r="F241" s="2">
-        <v>43453</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.75">
@@ -12222,7 +12243,7 @@
         <v>249</v>
       </c>
       <c r="F242" s="2">
-        <v>43453</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.75">
@@ -12239,7 +12260,7 @@
         <v>250</v>
       </c>
       <c r="F243" s="2">
-        <v>43453</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.75">
@@ -12256,7 +12277,7 @@
         <v>251</v>
       </c>
       <c r="F244" s="2">
-        <v>43453</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.75">
@@ -12273,7 +12294,7 @@
         <v>252</v>
       </c>
       <c r="F245" s="2">
-        <v>43453</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.75">
@@ -12290,7 +12311,7 @@
         <v>253</v>
       </c>
       <c r="F246" s="2">
-        <v>43453</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.75">
@@ -12307,7 +12328,7 @@
         <v>254</v>
       </c>
       <c r="F247" s="2">
-        <v>43453</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.75">
@@ -12324,7 +12345,7 @@
         <v>256</v>
       </c>
       <c r="F248" s="2">
-        <v>43454</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.75">
@@ -12341,7 +12362,7 @@
         <v>257</v>
       </c>
       <c r="F249" s="2">
-        <v>43454</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.75">
@@ -12358,7 +12379,7 @@
         <v>258</v>
       </c>
       <c r="F250" s="2">
-        <v>43454</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.75">
@@ -12375,7 +12396,7 @@
         <v>259</v>
       </c>
       <c r="F251" s="2">
-        <v>43454</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.75">
@@ -12392,7 +12413,7 @@
         <v>260</v>
       </c>
       <c r="F252" s="2">
-        <v>43454</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.75">
@@ -12409,7 +12430,7 @@
         <v>261</v>
       </c>
       <c r="F253" s="2">
-        <v>43454</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.75">
@@ -12426,7 +12447,7 @@
         <v>262</v>
       </c>
       <c r="F254" s="2">
-        <v>43454</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.75">
@@ -12443,7 +12464,7 @@
         <v>263</v>
       </c>
       <c r="F255" s="2">
-        <v>43454</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.75">
@@ -12460,7 +12481,7 @@
         <v>264</v>
       </c>
       <c r="F256" s="2">
-        <v>43454</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.75">
@@ -12477,7 +12498,7 @@
         <v>265</v>
       </c>
       <c r="F257" s="2">
-        <v>43454</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.75">
@@ -12494,7 +12515,7 @@
         <v>266</v>
       </c>
       <c r="F258" s="2">
-        <v>43455</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.75">
@@ -12511,7 +12532,7 @@
         <v>267</v>
       </c>
       <c r="F259" s="2">
-        <v>43455</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.75">
@@ -12528,7 +12549,7 @@
         <v>268</v>
       </c>
       <c r="F260" s="2">
-        <v>43455</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.75">
@@ -12545,7 +12566,7 @@
         <v>269</v>
       </c>
       <c r="F261" s="2">
-        <v>43455</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.75">
@@ -12562,7 +12583,7 @@
         <v>270</v>
       </c>
       <c r="F262" s="2">
-        <v>43455</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.75">
@@ -12579,7 +12600,7 @@
         <v>271</v>
       </c>
       <c r="F263" s="2">
-        <v>43455</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.75">
@@ -12596,7 +12617,7 @@
         <v>272</v>
       </c>
       <c r="F264" s="2">
-        <v>43455</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.75">
@@ -12613,7 +12634,7 @@
         <v>273</v>
       </c>
       <c r="F265" s="2">
-        <v>43455</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.75">
@@ -12630,7 +12651,7 @@
         <v>274</v>
       </c>
       <c r="F266" s="2">
-        <v>43455</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.75">
@@ -12647,7 +12668,7 @@
         <v>275</v>
       </c>
       <c r="F267" s="2">
-        <v>43455</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.75">
@@ -12664,7 +12685,7 @@
         <v>276</v>
       </c>
       <c r="F268" s="2">
-        <v>43455</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.75">
@@ -12681,7 +12702,7 @@
         <v>277</v>
       </c>
       <c r="F269" s="2">
-        <v>43455</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.75">
@@ -12698,7 +12719,7 @@
         <v>278</v>
       </c>
       <c r="F270" s="2">
-        <v>43455</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.75">
@@ -12715,7 +12736,7 @@
         <v>279</v>
       </c>
       <c r="F271" s="2">
-        <v>43455</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.75">
@@ -12732,7 +12753,7 @@
         <v>281</v>
       </c>
       <c r="F272" s="2">
-        <v>43456</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.75">
@@ -12749,7 +12770,7 @@
         <v>282</v>
       </c>
       <c r="F273" s="2">
-        <v>43457</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.75">
@@ -12766,7 +12787,7 @@
         <v>283</v>
       </c>
       <c r="F274" s="2">
-        <v>43457</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.75">
@@ -12783,7 +12804,7 @@
         <v>284</v>
       </c>
       <c r="F275" s="2">
-        <v>43457</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.75">
@@ -12800,7 +12821,7 @@
         <v>285</v>
       </c>
       <c r="F276" s="2">
-        <v>43457</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.75">
@@ -12817,7 +12838,7 @@
         <v>286</v>
       </c>
       <c r="F277" s="2">
-        <v>43457</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.75">
@@ -12834,7 +12855,7 @@
         <v>287</v>
       </c>
       <c r="F278" s="2">
-        <v>43457</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.75">
@@ -12851,7 +12872,7 @@
         <v>288</v>
       </c>
       <c r="F279" s="2">
-        <v>43457</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.75">
@@ -12868,7 +12889,7 @@
         <v>289</v>
       </c>
       <c r="F280" s="2">
-        <v>43457</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.75">
@@ -12885,7 +12906,7 @@
         <v>290</v>
       </c>
       <c r="F281" s="2">
-        <v>43457</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.75">
@@ -12902,7 +12923,7 @@
         <v>291</v>
       </c>
       <c r="F282" s="2">
-        <v>43457</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.75">
@@ -12919,7 +12940,7 @@
         <v>292</v>
       </c>
       <c r="F283" s="2">
-        <v>43458</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.75">
@@ -12936,7 +12957,7 @@
         <v>293</v>
       </c>
       <c r="F284" s="2">
-        <v>43458</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.75">
@@ -12953,7 +12974,7 @@
         <v>294</v>
       </c>
       <c r="F285" s="2">
-        <v>43458</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.75">
@@ -12970,7 +12991,7 @@
         <v>295</v>
       </c>
       <c r="F286" s="2">
-        <v>43458</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.75">
@@ -12987,7 +13008,7 @@
         <v>296</v>
       </c>
       <c r="F287" s="2">
-        <v>43458</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.75">
@@ -13004,7 +13025,7 @@
         <v>297</v>
       </c>
       <c r="F288" s="2">
-        <v>43458</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.75">
@@ -13021,7 +13042,7 @@
         <v>298</v>
       </c>
       <c r="F289" s="2">
-        <v>43458</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.75">
@@ -13038,7 +13059,7 @@
         <v>299</v>
       </c>
       <c r="F290" s="2">
-        <v>43458</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.75">
@@ -13055,7 +13076,7 @@
         <v>300</v>
       </c>
       <c r="F291" s="2">
-        <v>43458</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.75">
@@ -13072,7 +13093,7 @@
         <v>301</v>
       </c>
       <c r="F292" s="2">
-        <v>43458</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.75">
@@ -13089,7 +13110,7 @@
         <v>302</v>
       </c>
       <c r="F293" s="2">
-        <v>43458</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.75">
@@ -13105,8 +13126,8 @@
       <c r="E294" t="s">
         <v>304</v>
       </c>
-      <c r="F294" s="2" t="s">
-        <v>373</v>
+      <c r="F294" s="2">
+        <v>43474</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.75">
@@ -13122,8 +13143,8 @@
       <c r="E295" t="s">
         <v>305</v>
       </c>
-      <c r="F295" s="2" t="s">
-        <v>373</v>
+      <c r="F295" s="2">
+        <v>43474</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.75">
@@ -13139,8 +13160,8 @@
       <c r="E296" t="s">
         <v>306</v>
       </c>
-      <c r="F296" s="2" t="s">
-        <v>373</v>
+      <c r="F296" s="2">
+        <v>43474</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.75">
@@ -13156,8 +13177,8 @@
       <c r="E297" t="s">
         <v>307</v>
       </c>
-      <c r="F297" s="2" t="s">
-        <v>373</v>
+      <c r="F297" s="2">
+        <v>43474</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.75">
@@ -13173,8 +13194,8 @@
       <c r="E298" t="s">
         <v>308</v>
       </c>
-      <c r="F298" s="2" t="s">
-        <v>373</v>
+      <c r="F298" s="2">
+        <v>43474</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.75">
@@ -13190,18 +13211,18 @@
       <c r="E299" t="s">
         <v>309</v>
       </c>
-      <c r="F299" s="2" t="s">
-        <v>373</v>
+      <c r="F299" s="2">
+        <v>43474</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.75">
       <c r="E301" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.75">
       <c r="E302" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BCB5F1-BF0E-49DD-8B8B-4038144BF829}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D1CAB6-E299-4B20-9EEF-EA090EAB2FD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="455">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1382,6 +1382,27 @@
   </si>
   <si>
     <t>PassedRemove Items Using splice()</t>
+  </si>
+  <si>
+    <t>PassedAdd Items Using splice()</t>
+  </si>
+  <si>
+    <t>PassedCopy Array Items Using slice()</t>
+  </si>
+  <si>
+    <t>PassedCopy an Array with the Spread Operator</t>
+  </si>
+  <si>
+    <t>PassedCombine Arrays with the Spread Operator</t>
+  </si>
+  <si>
+    <t>PassedCheck For The Presence of an Element With indexOf()</t>
+  </si>
+  <si>
+    <t>PassedIterate Through All an Array's Items Using For Loops</t>
+  </si>
+  <si>
+    <t>PassedCreate complex multi-dimensional arrays</t>
   </si>
 </sst>
 </file>
@@ -7902,10 +7923,10 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B288" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F295" sqref="F295:F299"/>
+      <selection pane="bottomRight" activeCell="E296" sqref="E296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -11296,8 +11317,8 @@
       <c r="D189" s="1">
         <v>7</v>
       </c>
-      <c r="E189" s="13" t="s">
-        <v>194</v>
+      <c r="E189" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="F189" s="12">
         <v>43461</v>
@@ -11316,8 +11337,8 @@
       <c r="D190" s="1">
         <v>8</v>
       </c>
-      <c r="E190" s="13" t="s">
-        <v>195</v>
+      <c r="E190" s="14" t="s">
+        <v>449</v>
       </c>
       <c r="F190" s="12">
         <v>43461</v>
@@ -11336,8 +11357,8 @@
       <c r="D191" s="1">
         <v>9</v>
       </c>
-      <c r="E191" s="13" t="s">
-        <v>196</v>
+      <c r="E191" s="14" t="s">
+        <v>450</v>
       </c>
       <c r="F191" s="12">
         <v>43461</v>
@@ -11356,8 +11377,8 @@
       <c r="D192" s="1">
         <v>10</v>
       </c>
-      <c r="E192" s="13" t="s">
-        <v>197</v>
+      <c r="E192" s="14" t="s">
+        <v>451</v>
       </c>
       <c r="F192" s="12">
         <v>43461</v>
@@ -11376,8 +11397,8 @@
       <c r="D193" s="1">
         <v>11</v>
       </c>
-      <c r="E193" s="13" t="s">
-        <v>198</v>
+      <c r="E193" s="14" t="s">
+        <v>452</v>
       </c>
       <c r="F193" s="12">
         <v>43461</v>
@@ -11396,11 +11417,11 @@
       <c r="D194" s="1">
         <v>12</v>
       </c>
-      <c r="E194" s="13" t="s">
-        <v>199</v>
+      <c r="E194" s="14" t="s">
+        <v>453</v>
       </c>
       <c r="F194" s="12">
-        <v>43462</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.75">
@@ -11416,11 +11437,11 @@
       <c r="D195" s="1">
         <v>13</v>
       </c>
-      <c r="E195" s="13" t="s">
-        <v>200</v>
+      <c r="E195" s="14" t="s">
+        <v>454</v>
       </c>
       <c r="F195" s="12">
-        <v>43462</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.75">
@@ -11440,7 +11461,7 @@
         <v>201</v>
       </c>
       <c r="F196" s="12">
-        <v>43462</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.75">
@@ -11460,7 +11481,7 @@
         <v>202</v>
       </c>
       <c r="F197" s="12">
-        <v>43462</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.75">
@@ -11480,7 +11501,7 @@
         <v>203</v>
       </c>
       <c r="F198" s="12">
-        <v>43462</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.75">
@@ -11500,7 +11521,7 @@
         <v>204</v>
       </c>
       <c r="F199" s="12">
-        <v>43462</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.75">
@@ -11520,7 +11541,7 @@
         <v>205</v>
       </c>
       <c r="F200" s="12">
-        <v>43462</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.75">
@@ -11540,7 +11561,7 @@
         <v>206</v>
       </c>
       <c r="F201" s="12">
-        <v>43462</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.75">
@@ -11560,7 +11581,7 @@
         <v>207</v>
       </c>
       <c r="F202" s="12">
-        <v>43462</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.75">
@@ -11580,7 +11601,7 @@
         <v>208</v>
       </c>
       <c r="F203" s="12">
-        <v>43462</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.75">
@@ -11596,8 +11617,8 @@
       <c r="E204" t="s">
         <v>210</v>
       </c>
-      <c r="F204" s="2">
-        <v>43463</v>
+      <c r="F204" s="12">
+        <v>43469</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.75">
@@ -11613,8 +11634,8 @@
       <c r="E205" t="s">
         <v>211</v>
       </c>
-      <c r="F205" s="2">
-        <v>43463</v>
+      <c r="F205" s="12">
+        <v>43469</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.75">
@@ -11631,7 +11652,7 @@
         <v>212</v>
       </c>
       <c r="F206" s="2">
-        <v>43463</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.75">
@@ -11648,7 +11669,7 @@
         <v>213</v>
       </c>
       <c r="F207" s="2">
-        <v>43463</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.75">
@@ -11665,7 +11686,7 @@
         <v>214</v>
       </c>
       <c r="F208" s="2">
-        <v>43463</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.75">
@@ -11682,7 +11703,7 @@
         <v>215</v>
       </c>
       <c r="F209" s="2">
-        <v>43463</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.75">
@@ -11699,7 +11720,7 @@
         <v>216</v>
       </c>
       <c r="F210" s="2">
-        <v>43463</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.75">
@@ -11716,7 +11737,7 @@
         <v>217</v>
       </c>
       <c r="F211" s="2">
-        <v>43463</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.75">
@@ -11733,7 +11754,7 @@
         <v>218</v>
       </c>
       <c r="F212" s="2">
-        <v>43463</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.75">
@@ -11750,7 +11771,7 @@
         <v>219</v>
       </c>
       <c r="F213" s="2">
-        <v>43463</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.75">
@@ -11767,7 +11788,7 @@
         <v>220</v>
       </c>
       <c r="F214" s="2">
-        <v>43466</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.75">
@@ -11784,7 +11805,7 @@
         <v>221</v>
       </c>
       <c r="F215" s="2">
-        <v>43466</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.75">
@@ -11801,7 +11822,7 @@
         <v>222</v>
       </c>
       <c r="F216" s="2">
-        <v>43466</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.75">
@@ -11818,7 +11839,7 @@
         <v>223</v>
       </c>
       <c r="F217" s="2">
-        <v>43466</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.75">
@@ -11835,7 +11856,7 @@
         <v>224</v>
       </c>
       <c r="F218" s="2">
-        <v>43466</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.75">
@@ -11852,7 +11873,7 @@
         <v>225</v>
       </c>
       <c r="F219" s="2">
-        <v>43466</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.75">
@@ -11869,7 +11890,7 @@
         <v>226</v>
       </c>
       <c r="F220" s="2">
-        <v>43466</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.75">
@@ -11886,7 +11907,7 @@
         <v>228</v>
       </c>
       <c r="F221" s="2">
-        <v>43466</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.75">
@@ -11903,7 +11924,7 @@
         <v>229</v>
       </c>
       <c r="F222" s="2">
-        <v>43466</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.75">
@@ -11920,7 +11941,7 @@
         <v>230</v>
       </c>
       <c r="F223" s="2">
-        <v>43466</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.75">
@@ -11937,7 +11958,7 @@
         <v>231</v>
       </c>
       <c r="F224" s="2">
-        <v>43467</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.75">
@@ -11954,7 +11975,7 @@
         <v>232</v>
       </c>
       <c r="F225" s="2">
-        <v>43467</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.75">
@@ -11971,7 +11992,7 @@
         <v>233</v>
       </c>
       <c r="F226" s="2">
-        <v>43467</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.75">
@@ -11988,7 +12009,7 @@
         <v>234</v>
       </c>
       <c r="F227" s="2">
-        <v>43467</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.75">
@@ -12005,7 +12026,7 @@
         <v>235</v>
       </c>
       <c r="F228" s="2">
-        <v>43467</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.75">
@@ -12022,7 +12043,7 @@
         <v>236</v>
       </c>
       <c r="F229" s="2">
-        <v>43467</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.75">
@@ -12039,7 +12060,7 @@
         <v>237</v>
       </c>
       <c r="F230" s="2">
-        <v>43467</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.75">
@@ -12056,7 +12077,7 @@
         <v>238</v>
       </c>
       <c r="F231" s="2">
-        <v>43467</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.75">
@@ -12073,7 +12094,7 @@
         <v>239</v>
       </c>
       <c r="F232" s="2">
-        <v>43467</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.75">
@@ -12090,7 +12111,7 @@
         <v>240</v>
       </c>
       <c r="F233" s="2">
-        <v>43467</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.75">
@@ -12107,7 +12128,7 @@
         <v>241</v>
       </c>
       <c r="F234" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.75">
@@ -12124,7 +12145,7 @@
         <v>242</v>
       </c>
       <c r="F235" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.75">
@@ -12141,7 +12162,7 @@
         <v>243</v>
       </c>
       <c r="F236" s="2">
-        <v>43468</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.75">
@@ -12158,7 +12179,7 @@
         <v>244</v>
       </c>
       <c r="F237" s="2">
-        <v>43468</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.75">
@@ -12175,7 +12196,7 @@
         <v>245</v>
       </c>
       <c r="F238" s="2">
-        <v>43468</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.75">
@@ -12192,7 +12213,7 @@
         <v>246</v>
       </c>
       <c r="F239" s="2">
-        <v>43468</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.75">
@@ -12209,7 +12230,7 @@
         <v>247</v>
       </c>
       <c r="F240" s="2">
-        <v>43468</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.75">
@@ -12226,7 +12247,7 @@
         <v>248</v>
       </c>
       <c r="F241" s="2">
-        <v>43468</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.75">
@@ -12243,7 +12264,7 @@
         <v>249</v>
       </c>
       <c r="F242" s="2">
-        <v>43468</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.75">
@@ -12260,7 +12281,7 @@
         <v>250</v>
       </c>
       <c r="F243" s="2">
-        <v>43468</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.75">
@@ -12277,7 +12298,7 @@
         <v>251</v>
       </c>
       <c r="F244" s="2">
-        <v>43469</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.75">
@@ -12294,7 +12315,7 @@
         <v>252</v>
       </c>
       <c r="F245" s="2">
-        <v>43469</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.75">
@@ -12311,7 +12332,7 @@
         <v>253</v>
       </c>
       <c r="F246" s="2">
-        <v>43469</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.75">
@@ -12328,7 +12349,7 @@
         <v>254</v>
       </c>
       <c r="F247" s="2">
-        <v>43469</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.75">
@@ -12345,7 +12366,7 @@
         <v>256</v>
       </c>
       <c r="F248" s="2">
-        <v>43469</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.75">
@@ -12362,7 +12383,7 @@
         <v>257</v>
       </c>
       <c r="F249" s="2">
-        <v>43469</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.75">
@@ -12379,7 +12400,7 @@
         <v>258</v>
       </c>
       <c r="F250" s="2">
-        <v>43469</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.75">
@@ -12396,7 +12417,7 @@
         <v>259</v>
       </c>
       <c r="F251" s="2">
-        <v>43469</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.75">
@@ -12413,7 +12434,7 @@
         <v>260</v>
       </c>
       <c r="F252" s="2">
-        <v>43469</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.75">
@@ -12430,7 +12451,7 @@
         <v>261</v>
       </c>
       <c r="F253" s="2">
-        <v>43469</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.75">
@@ -12447,7 +12468,7 @@
         <v>262</v>
       </c>
       <c r="F254" s="2">
-        <v>43470</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.75">
@@ -12464,7 +12485,7 @@
         <v>263</v>
       </c>
       <c r="F255" s="2">
-        <v>43470</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.75">
@@ -12481,7 +12502,7 @@
         <v>264</v>
       </c>
       <c r="F256" s="2">
-        <v>43470</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.75">
@@ -12498,7 +12519,7 @@
         <v>265</v>
       </c>
       <c r="F257" s="2">
-        <v>43470</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.75">
@@ -12515,7 +12536,7 @@
         <v>266</v>
       </c>
       <c r="F258" s="2">
-        <v>43470</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.75">
@@ -12532,7 +12553,7 @@
         <v>267</v>
       </c>
       <c r="F259" s="2">
-        <v>43470</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.75">
@@ -12549,7 +12570,7 @@
         <v>268</v>
       </c>
       <c r="F260" s="2">
-        <v>43470</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.75">
@@ -12566,7 +12587,7 @@
         <v>269</v>
       </c>
       <c r="F261" s="2">
-        <v>43470</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.75">
@@ -12583,7 +12604,7 @@
         <v>270</v>
       </c>
       <c r="F262" s="2">
-        <v>43470</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.75">
@@ -12600,7 +12621,7 @@
         <v>271</v>
       </c>
       <c r="F263" s="2">
-        <v>43470</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.75">
@@ -12617,7 +12638,7 @@
         <v>272</v>
       </c>
       <c r="F264" s="2">
-        <v>43471</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.75">
@@ -12634,7 +12655,7 @@
         <v>273</v>
       </c>
       <c r="F265" s="2">
-        <v>43471</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.75">
@@ -12651,7 +12672,7 @@
         <v>274</v>
       </c>
       <c r="F266" s="2">
-        <v>43471</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.75">
@@ -12668,7 +12689,7 @@
         <v>275</v>
       </c>
       <c r="F267" s="2">
-        <v>43471</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.75">
@@ -12685,7 +12706,7 @@
         <v>276</v>
       </c>
       <c r="F268" s="2">
-        <v>43471</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.75">
@@ -12702,7 +12723,7 @@
         <v>277</v>
       </c>
       <c r="F269" s="2">
-        <v>43471</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.75">
@@ -12719,7 +12740,7 @@
         <v>278</v>
       </c>
       <c r="F270" s="2">
-        <v>43471</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.75">
@@ -12736,7 +12757,7 @@
         <v>279</v>
       </c>
       <c r="F271" s="2">
-        <v>43471</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.75">
@@ -12753,7 +12774,7 @@
         <v>281</v>
       </c>
       <c r="F272" s="2">
-        <v>43471</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.75">
@@ -12770,7 +12791,7 @@
         <v>282</v>
       </c>
       <c r="F273" s="2">
-        <v>43471</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.75">
@@ -12787,7 +12808,7 @@
         <v>283</v>
       </c>
       <c r="F274" s="2">
-        <v>43472</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.75">
@@ -12804,7 +12825,7 @@
         <v>284</v>
       </c>
       <c r="F275" s="2">
-        <v>43472</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.75">
@@ -12821,7 +12842,7 @@
         <v>285</v>
       </c>
       <c r="F276" s="2">
-        <v>43472</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.75">
@@ -12838,7 +12859,7 @@
         <v>286</v>
       </c>
       <c r="F277" s="2">
-        <v>43472</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.75">
@@ -12855,7 +12876,7 @@
         <v>287</v>
       </c>
       <c r="F278" s="2">
-        <v>43472</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.75">
@@ -12872,7 +12893,7 @@
         <v>288</v>
       </c>
       <c r="F279" s="2">
-        <v>43472</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.75">
@@ -12889,7 +12910,7 @@
         <v>289</v>
       </c>
       <c r="F280" s="2">
-        <v>43472</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.75">
@@ -12906,7 +12927,7 @@
         <v>290</v>
       </c>
       <c r="F281" s="2">
-        <v>43472</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.75">
@@ -12923,7 +12944,7 @@
         <v>291</v>
       </c>
       <c r="F282" s="2">
-        <v>43472</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.75">
@@ -12940,7 +12961,7 @@
         <v>292</v>
       </c>
       <c r="F283" s="2">
-        <v>43472</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.75">
@@ -12957,7 +12978,7 @@
         <v>293</v>
       </c>
       <c r="F284" s="2">
-        <v>43473</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.75">
@@ -12974,7 +12995,7 @@
         <v>294</v>
       </c>
       <c r="F285" s="2">
-        <v>43473</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.75">
@@ -12991,7 +13012,7 @@
         <v>295</v>
       </c>
       <c r="F286" s="2">
-        <v>43473</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.75">
@@ -13008,7 +13029,7 @@
         <v>296</v>
       </c>
       <c r="F287" s="2">
-        <v>43473</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.75">
@@ -13025,7 +13046,7 @@
         <v>297</v>
       </c>
       <c r="F288" s="2">
-        <v>43473</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.75">
@@ -13042,7 +13063,7 @@
         <v>298</v>
       </c>
       <c r="F289" s="2">
-        <v>43473</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.75">
@@ -13059,7 +13080,7 @@
         <v>299</v>
       </c>
       <c r="F290" s="2">
-        <v>43473</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.75">
@@ -13076,7 +13097,7 @@
         <v>300</v>
       </c>
       <c r="F291" s="2">
-        <v>43473</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.75">
@@ -13093,7 +13114,7 @@
         <v>301</v>
       </c>
       <c r="F292" s="2">
-        <v>43473</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.75">
@@ -13110,7 +13131,7 @@
         <v>302</v>
       </c>
       <c r="F293" s="2">
-        <v>43473</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.75">
@@ -13127,7 +13148,7 @@
         <v>304</v>
       </c>
       <c r="F294" s="2">
-        <v>43474</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.75">
@@ -13144,7 +13165,7 @@
         <v>305</v>
       </c>
       <c r="F295" s="2">
-        <v>43474</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.75">
@@ -13161,7 +13182,7 @@
         <v>306</v>
       </c>
       <c r="F296" s="2">
-        <v>43474</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.75">
@@ -13178,7 +13199,7 @@
         <v>307</v>
       </c>
       <c r="F297" s="2">
-        <v>43474</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.75">
@@ -13195,7 +13216,7 @@
         <v>308</v>
       </c>
       <c r="F298" s="2">
-        <v>43474</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.75">
@@ -13212,7 +13233,7 @@
         <v>309</v>
       </c>
       <c r="F299" s="2">
-        <v>43474</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.75">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D1CAB6-E299-4B20-9EEF-EA090EAB2FD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54247025-C734-429E-BCF7-6F4856677756}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="458">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1403,6 +1403,15 @@
   </si>
   <si>
     <t>PassedCreate complex multi-dimensional arrays</t>
+  </si>
+  <si>
+    <t>PassedAdd Key-Value Pairs to JavaScript Objects</t>
+  </si>
+  <si>
+    <t>PassedModify an Object Nested Within an Object</t>
+  </si>
+  <si>
+    <t>PassedAccess Property Names with Bracket Notation</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1445,12 +1454,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1464,7 +1467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1487,7 +1490,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7923,10 +7925,10 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B288" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E296" sqref="E296"/>
+      <selection pane="bottomRight" activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -11197,7 +11199,7 @@
       <c r="D183" s="1">
         <v>1</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="8" t="s">
         <v>188</v>
       </c>
       <c r="F183" s="2">
@@ -11217,7 +11219,7 @@
       <c r="D184" s="1">
         <v>2</v>
       </c>
-      <c r="E184" s="14" t="s">
+      <c r="E184" s="8" t="s">
         <v>443</v>
       </c>
       <c r="F184" s="12">
@@ -11237,7 +11239,7 @@
       <c r="D185" s="1">
         <v>3</v>
       </c>
-      <c r="E185" s="14" t="s">
+      <c r="E185" s="8" t="s">
         <v>444</v>
       </c>
       <c r="F185" s="12">
@@ -11257,7 +11259,7 @@
       <c r="D186" s="1">
         <v>4</v>
       </c>
-      <c r="E186" s="14" t="s">
+      <c r="E186" s="8" t="s">
         <v>445</v>
       </c>
       <c r="F186" s="12">
@@ -11277,7 +11279,7 @@
       <c r="D187" s="1">
         <v>5</v>
       </c>
-      <c r="E187" s="14" t="s">
+      <c r="E187" s="8" t="s">
         <v>446</v>
       </c>
       <c r="F187" s="12">
@@ -11297,7 +11299,7 @@
       <c r="D188" s="1">
         <v>6</v>
       </c>
-      <c r="E188" s="14" t="s">
+      <c r="E188" s="8" t="s">
         <v>447</v>
       </c>
       <c r="F188" s="12">
@@ -11317,7 +11319,7 @@
       <c r="D189" s="1">
         <v>7</v>
       </c>
-      <c r="E189" s="14" t="s">
+      <c r="E189" s="8" t="s">
         <v>448</v>
       </c>
       <c r="F189" s="12">
@@ -11337,7 +11339,7 @@
       <c r="D190" s="1">
         <v>8</v>
       </c>
-      <c r="E190" s="14" t="s">
+      <c r="E190" s="8" t="s">
         <v>449</v>
       </c>
       <c r="F190" s="12">
@@ -11357,7 +11359,7 @@
       <c r="D191" s="1">
         <v>9</v>
       </c>
-      <c r="E191" s="14" t="s">
+      <c r="E191" s="8" t="s">
         <v>450</v>
       </c>
       <c r="F191" s="12">
@@ -11377,7 +11379,7 @@
       <c r="D192" s="1">
         <v>10</v>
       </c>
-      <c r="E192" s="14" t="s">
+      <c r="E192" s="8" t="s">
         <v>451</v>
       </c>
       <c r="F192" s="12">
@@ -11397,7 +11399,7 @@
       <c r="D193" s="1">
         <v>11</v>
       </c>
-      <c r="E193" s="14" t="s">
+      <c r="E193" s="8" t="s">
         <v>452</v>
       </c>
       <c r="F193" s="12">
@@ -11417,7 +11419,7 @@
       <c r="D194" s="1">
         <v>12</v>
       </c>
-      <c r="E194" s="14" t="s">
+      <c r="E194" s="8" t="s">
         <v>453</v>
       </c>
       <c r="F194" s="12">
@@ -11437,7 +11439,7 @@
       <c r="D195" s="1">
         <v>13</v>
       </c>
-      <c r="E195" s="14" t="s">
+      <c r="E195" s="8" t="s">
         <v>454</v>
       </c>
       <c r="F195" s="12">
@@ -11457,8 +11459,8 @@
       <c r="D196" s="1">
         <v>14</v>
       </c>
-      <c r="E196" s="13" t="s">
-        <v>201</v>
+      <c r="E196" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="F196" s="12">
         <v>43469</v>
@@ -11477,8 +11479,8 @@
       <c r="D197" s="1">
         <v>15</v>
       </c>
-      <c r="E197" s="13" t="s">
-        <v>202</v>
+      <c r="E197" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="F197" s="12">
         <v>43469</v>
@@ -11497,8 +11499,8 @@
       <c r="D198" s="1">
         <v>16</v>
       </c>
-      <c r="E198" s="13" t="s">
-        <v>203</v>
+      <c r="E198" s="8" t="s">
+        <v>457</v>
       </c>
       <c r="F198" s="12">
         <v>43469</v>

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54247025-C734-429E-BCF7-6F4856677756}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5AFD7C-0273-4A45-B5D1-83580923D870}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="467">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1412,6 +1412,33 @@
   </si>
   <si>
     <t>PassedAccess Property Names with Bracket Notation</t>
+  </si>
+  <si>
+    <t>PassedUse the delete Keyword to Remove Object Properties</t>
+  </si>
+  <si>
+    <t>PassedCheck if an Object has a Property</t>
+  </si>
+  <si>
+    <t>Passed Iterate Through the Keys of an Object with a for...in Statement</t>
+  </si>
+  <si>
+    <t>PassedGenerate an Array of All Object Keys with Object.keys()</t>
+  </si>
+  <si>
+    <t>PassedModify an Array Stored in an Object</t>
+  </si>
+  <si>
+    <t>PassedConvert Celsius to Fahrenheit</t>
+  </si>
+  <si>
+    <t>PassedReverse a String</t>
+  </si>
+  <si>
+    <t>PassedFactorialize a Number</t>
+  </si>
+  <si>
+    <t>PassedFind the Longest Word in a String</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1451,6 +1478,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,7 +1522,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7925,10 +7958,10 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E205" sqref="E205"/>
+      <selection pane="bottomRight" activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -11519,8 +11552,8 @@
       <c r="D199" s="1">
         <v>17</v>
       </c>
-      <c r="E199" s="13" t="s">
-        <v>204</v>
+      <c r="E199" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="F199" s="12">
         <v>43469</v>
@@ -11539,8 +11572,8 @@
       <c r="D200" s="1">
         <v>18</v>
       </c>
-      <c r="E200" s="13" t="s">
-        <v>205</v>
+      <c r="E200" s="8" t="s">
+        <v>459</v>
       </c>
       <c r="F200" s="12">
         <v>43469</v>
@@ -11559,8 +11592,8 @@
       <c r="D201" s="1">
         <v>19</v>
       </c>
-      <c r="E201" s="13" t="s">
-        <v>206</v>
+      <c r="E201" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="F201" s="12">
         <v>43469</v>
@@ -11579,8 +11612,8 @@
       <c r="D202" s="1">
         <v>20</v>
       </c>
-      <c r="E202" s="13" t="s">
-        <v>207</v>
+      <c r="E202" s="8" t="s">
+        <v>461</v>
       </c>
       <c r="F202" s="12">
         <v>43469</v>
@@ -11599,8 +11632,8 @@
       <c r="D203" s="1">
         <v>21</v>
       </c>
-      <c r="E203" s="13" t="s">
-        <v>208</v>
+      <c r="E203" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="F203" s="12">
         <v>43469</v>
@@ -11616,7 +11649,7 @@
       <c r="C204" s="1">
         <v>203</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="8" t="s">
         <v>210</v>
       </c>
       <c r="F204" s="12">
@@ -11633,8 +11666,8 @@
       <c r="C205" s="1">
         <v>204</v>
       </c>
-      <c r="E205" t="s">
-        <v>211</v>
+      <c r="E205" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="F205" s="12">
         <v>43469</v>
@@ -11650,8 +11683,8 @@
       <c r="C206" s="1">
         <v>205</v>
       </c>
-      <c r="E206" t="s">
-        <v>212</v>
+      <c r="E206" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="F206" s="2">
         <v>43470</v>
@@ -11667,8 +11700,8 @@
       <c r="C207" s="1">
         <v>206</v>
       </c>
-      <c r="E207" t="s">
-        <v>213</v>
+      <c r="E207" s="8" t="s">
+        <v>465</v>
       </c>
       <c r="F207" s="2">
         <v>43470</v>
@@ -11684,8 +11717,8 @@
       <c r="C208" s="1">
         <v>207</v>
       </c>
-      <c r="E208" t="s">
-        <v>214</v>
+      <c r="E208" s="8" t="s">
+        <v>466</v>
       </c>
       <c r="F208" s="2">
         <v>43470</v>
@@ -11701,7 +11734,7 @@
       <c r="C209" s="1">
         <v>208</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="13" t="s">
         <v>215</v>
       </c>
       <c r="F209" s="2">
@@ -11718,7 +11751,7 @@
       <c r="C210" s="1">
         <v>209</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="13" t="s">
         <v>216</v>
       </c>
       <c r="F210" s="2">
@@ -11735,7 +11768,7 @@
       <c r="C211" s="1">
         <v>210</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="13" t="s">
         <v>217</v>
       </c>
       <c r="F211" s="2">
@@ -11752,7 +11785,7 @@
       <c r="C212" s="1">
         <v>211</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="13" t="s">
         <v>218</v>
       </c>
       <c r="F212" s="2">
@@ -11769,7 +11802,7 @@
       <c r="C213" s="1">
         <v>212</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="13" t="s">
         <v>219</v>
       </c>
       <c r="F213" s="2">
@@ -11786,7 +11819,7 @@
       <c r="C214" s="1">
         <v>213</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="13" t="s">
         <v>220</v>
       </c>
       <c r="F214" s="2">
@@ -11803,7 +11836,7 @@
       <c r="C215" s="1">
         <v>214</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="13" t="s">
         <v>221</v>
       </c>
       <c r="F215" s="2">
@@ -11820,7 +11853,7 @@
       <c r="C216" s="1">
         <v>215</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="13" t="s">
         <v>222</v>
       </c>
       <c r="F216" s="2">
@@ -11837,7 +11870,7 @@
       <c r="C217" s="1">
         <v>216</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="13" t="s">
         <v>223</v>
       </c>
       <c r="F217" s="2">
@@ -11854,7 +11887,7 @@
       <c r="C218" s="1">
         <v>217</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="13" t="s">
         <v>224</v>
       </c>
       <c r="F218" s="2">
@@ -11871,7 +11904,7 @@
       <c r="C219" s="1">
         <v>218</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="13" t="s">
         <v>225</v>
       </c>
       <c r="F219" s="2">
@@ -11888,7 +11921,7 @@
       <c r="C220" s="1">
         <v>219</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="13" t="s">
         <v>226</v>
       </c>
       <c r="F220" s="2">
@@ -11905,7 +11938,7 @@
       <c r="C221" s="1">
         <v>220</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="13" t="s">
         <v>228</v>
       </c>
       <c r="F221" s="2">
@@ -11922,7 +11955,7 @@
       <c r="C222" s="1">
         <v>221</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="13" t="s">
         <v>229</v>
       </c>
       <c r="F222" s="2">
@@ -11939,7 +11972,7 @@
       <c r="C223" s="1">
         <v>222</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="13" t="s">
         <v>230</v>
       </c>
       <c r="F223" s="2">
@@ -11956,7 +11989,7 @@
       <c r="C224" s="1">
         <v>223</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="13" t="s">
         <v>231</v>
       </c>
       <c r="F224" s="2">
@@ -11973,7 +12006,7 @@
       <c r="C225" s="1">
         <v>224</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F225" s="2">
@@ -11990,7 +12023,7 @@
       <c r="C226" s="1">
         <v>225</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="13" t="s">
         <v>233</v>
       </c>
       <c r="F226" s="2">
@@ -12007,7 +12040,7 @@
       <c r="C227" s="1">
         <v>226</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="13" t="s">
         <v>234</v>
       </c>
       <c r="F227" s="2">
@@ -12024,7 +12057,7 @@
       <c r="C228" s="1">
         <v>227</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="13" t="s">
         <v>235</v>
       </c>
       <c r="F228" s="2">
@@ -12041,7 +12074,7 @@
       <c r="C229" s="1">
         <v>228</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="13" t="s">
         <v>236</v>
       </c>
       <c r="F229" s="2">
@@ -12058,7 +12091,7 @@
       <c r="C230" s="1">
         <v>229</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="13" t="s">
         <v>237</v>
       </c>
       <c r="F230" s="2">
@@ -12075,7 +12108,7 @@
       <c r="C231" s="1">
         <v>230</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="13" t="s">
         <v>238</v>
       </c>
       <c r="F231" s="2">
@@ -12092,7 +12125,7 @@
       <c r="C232" s="1">
         <v>231</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="13" t="s">
         <v>239</v>
       </c>
       <c r="F232" s="2">
@@ -12109,7 +12142,7 @@
       <c r="C233" s="1">
         <v>232</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="13" t="s">
         <v>240</v>
       </c>
       <c r="F233" s="2">
@@ -12126,7 +12159,7 @@
       <c r="C234" s="1">
         <v>233</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="13" t="s">
         <v>241</v>
       </c>
       <c r="F234" s="2">
@@ -12143,7 +12176,7 @@
       <c r="C235" s="1">
         <v>234</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="13" t="s">
         <v>242</v>
       </c>
       <c r="F235" s="2">
@@ -12160,7 +12193,7 @@
       <c r="C236" s="1">
         <v>235</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="13" t="s">
         <v>243</v>
       </c>
       <c r="F236" s="2">
@@ -12177,7 +12210,7 @@
       <c r="C237" s="1">
         <v>236</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="13" t="s">
         <v>244</v>
       </c>
       <c r="F237" s="2">
@@ -12194,7 +12227,7 @@
       <c r="C238" s="1">
         <v>237</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="13" t="s">
         <v>245</v>
       </c>
       <c r="F238" s="2">
@@ -12211,7 +12244,7 @@
       <c r="C239" s="1">
         <v>238</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="13" t="s">
         <v>246</v>
       </c>
       <c r="F239" s="2">
@@ -12228,7 +12261,7 @@
       <c r="C240" s="1">
         <v>239</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="13" t="s">
         <v>247</v>
       </c>
       <c r="F240" s="2">
@@ -12245,7 +12278,7 @@
       <c r="C241" s="1">
         <v>240</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="13" t="s">
         <v>248</v>
       </c>
       <c r="F241" s="2">
@@ -12262,7 +12295,7 @@
       <c r="C242" s="1">
         <v>241</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="13" t="s">
         <v>249</v>
       </c>
       <c r="F242" s="2">
@@ -12279,7 +12312,7 @@
       <c r="C243" s="1">
         <v>242</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="13" t="s">
         <v>250</v>
       </c>
       <c r="F243" s="2">
@@ -12296,7 +12329,7 @@
       <c r="C244" s="1">
         <v>243</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="13" t="s">
         <v>251</v>
       </c>
       <c r="F244" s="2">
@@ -12313,7 +12346,7 @@
       <c r="C245" s="1">
         <v>244</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="13" t="s">
         <v>252</v>
       </c>
       <c r="F245" s="2">
@@ -12330,7 +12363,7 @@
       <c r="C246" s="1">
         <v>245</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="13" t="s">
         <v>253</v>
       </c>
       <c r="F246" s="2">
@@ -12347,7 +12380,7 @@
       <c r="C247" s="1">
         <v>246</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="13" t="s">
         <v>254</v>
       </c>
       <c r="F247" s="2">
@@ -12364,7 +12397,7 @@
       <c r="C248" s="1">
         <v>247</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="13" t="s">
         <v>256</v>
       </c>
       <c r="F248" s="2">
@@ -12381,7 +12414,7 @@
       <c r="C249" s="1">
         <v>248</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="13" t="s">
         <v>257</v>
       </c>
       <c r="F249" s="2">
@@ -12398,7 +12431,7 @@
       <c r="C250" s="1">
         <v>249</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="13" t="s">
         <v>258</v>
       </c>
       <c r="F250" s="2">
@@ -12415,7 +12448,7 @@
       <c r="C251" s="1">
         <v>250</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="13" t="s">
         <v>259</v>
       </c>
       <c r="F251" s="2">
@@ -12432,7 +12465,7 @@
       <c r="C252" s="1">
         <v>251</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="13" t="s">
         <v>260</v>
       </c>
       <c r="F252" s="2">
@@ -12449,7 +12482,7 @@
       <c r="C253" s="1">
         <v>252</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="13" t="s">
         <v>261</v>
       </c>
       <c r="F253" s="2">
@@ -12466,7 +12499,7 @@
       <c r="C254" s="1">
         <v>253</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="13" t="s">
         <v>262</v>
       </c>
       <c r="F254" s="2">
@@ -12483,7 +12516,7 @@
       <c r="C255" s="1">
         <v>254</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="13" t="s">
         <v>263</v>
       </c>
       <c r="F255" s="2">
@@ -12500,7 +12533,7 @@
       <c r="C256" s="1">
         <v>255</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="13" t="s">
         <v>264</v>
       </c>
       <c r="F256" s="2">
@@ -12517,7 +12550,7 @@
       <c r="C257" s="1">
         <v>256</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="13" t="s">
         <v>265</v>
       </c>
       <c r="F257" s="2">
@@ -12534,7 +12567,7 @@
       <c r="C258" s="1">
         <v>257</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E258" s="13" t="s">
         <v>266</v>
       </c>
       <c r="F258" s="2">
@@ -12551,7 +12584,7 @@
       <c r="C259" s="1">
         <v>258</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="13" t="s">
         <v>267</v>
       </c>
       <c r="F259" s="2">
@@ -12568,7 +12601,7 @@
       <c r="C260" s="1">
         <v>259</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E260" s="13" t="s">
         <v>268</v>
       </c>
       <c r="F260" s="2">
@@ -12585,7 +12618,7 @@
       <c r="C261" s="1">
         <v>260</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="13" t="s">
         <v>269</v>
       </c>
       <c r="F261" s="2">
@@ -12602,7 +12635,7 @@
       <c r="C262" s="1">
         <v>261</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="13" t="s">
         <v>270</v>
       </c>
       <c r="F262" s="2">
@@ -12619,7 +12652,7 @@
       <c r="C263" s="1">
         <v>262</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E263" s="13" t="s">
         <v>271</v>
       </c>
       <c r="F263" s="2">
@@ -12636,7 +12669,7 @@
       <c r="C264" s="1">
         <v>263</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="13" t="s">
         <v>272</v>
       </c>
       <c r="F264" s="2">
@@ -12653,7 +12686,7 @@
       <c r="C265" s="1">
         <v>264</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="13" t="s">
         <v>273</v>
       </c>
       <c r="F265" s="2">
@@ -12670,7 +12703,7 @@
       <c r="C266" s="1">
         <v>265</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="13" t="s">
         <v>274</v>
       </c>
       <c r="F266" s="2">
@@ -12687,7 +12720,7 @@
       <c r="C267" s="1">
         <v>266</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="13" t="s">
         <v>275</v>
       </c>
       <c r="F267" s="2">
@@ -12704,7 +12737,7 @@
       <c r="C268" s="1">
         <v>267</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="13" t="s">
         <v>276</v>
       </c>
       <c r="F268" s="2">
@@ -12721,7 +12754,7 @@
       <c r="C269" s="1">
         <v>268</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="13" t="s">
         <v>277</v>
       </c>
       <c r="F269" s="2">
@@ -12738,7 +12771,7 @@
       <c r="C270" s="1">
         <v>269</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="13" t="s">
         <v>278</v>
       </c>
       <c r="F270" s="2">
@@ -12755,7 +12788,7 @@
       <c r="C271" s="1">
         <v>270</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="13" t="s">
         <v>279</v>
       </c>
       <c r="F271" s="2">
@@ -12772,7 +12805,7 @@
       <c r="C272" s="1">
         <v>271</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="13" t="s">
         <v>281</v>
       </c>
       <c r="F272" s="2">
@@ -12789,7 +12822,7 @@
       <c r="C273" s="1">
         <v>272</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="13" t="s">
         <v>282</v>
       </c>
       <c r="F273" s="2">
@@ -12806,7 +12839,7 @@
       <c r="C274" s="1">
         <v>273</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E274" s="13" t="s">
         <v>283</v>
       </c>
       <c r="F274" s="2">
@@ -12823,7 +12856,7 @@
       <c r="C275" s="1">
         <v>274</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E275" s="13" t="s">
         <v>284</v>
       </c>
       <c r="F275" s="2">
@@ -12840,7 +12873,7 @@
       <c r="C276" s="1">
         <v>275</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="13" t="s">
         <v>285</v>
       </c>
       <c r="F276" s="2">
@@ -12857,7 +12890,7 @@
       <c r="C277" s="1">
         <v>276</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E277" s="13" t="s">
         <v>286</v>
       </c>
       <c r="F277" s="2">
@@ -12874,7 +12907,7 @@
       <c r="C278" s="1">
         <v>277</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="13" t="s">
         <v>287</v>
       </c>
       <c r="F278" s="2">
@@ -12891,7 +12924,7 @@
       <c r="C279" s="1">
         <v>278</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E279" s="13" t="s">
         <v>288</v>
       </c>
       <c r="F279" s="2">
@@ -12908,7 +12941,7 @@
       <c r="C280" s="1">
         <v>279</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E280" s="13" t="s">
         <v>289</v>
       </c>
       <c r="F280" s="2">
@@ -12925,7 +12958,7 @@
       <c r="C281" s="1">
         <v>280</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="13" t="s">
         <v>290</v>
       </c>
       <c r="F281" s="2">
@@ -12942,7 +12975,7 @@
       <c r="C282" s="1">
         <v>281</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E282" s="13" t="s">
         <v>291</v>
       </c>
       <c r="F282" s="2">
@@ -12959,7 +12992,7 @@
       <c r="C283" s="1">
         <v>282</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E283" s="13" t="s">
         <v>292</v>
       </c>
       <c r="F283" s="2">
@@ -12976,7 +13009,7 @@
       <c r="C284" s="1">
         <v>283</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E284" s="13" t="s">
         <v>293</v>
       </c>
       <c r="F284" s="2">
@@ -12993,7 +13026,7 @@
       <c r="C285" s="1">
         <v>284</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E285" s="13" t="s">
         <v>294</v>
       </c>
       <c r="F285" s="2">
@@ -13010,7 +13043,7 @@
       <c r="C286" s="1">
         <v>285</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E286" s="13" t="s">
         <v>295</v>
       </c>
       <c r="F286" s="2">
@@ -13027,7 +13060,7 @@
       <c r="C287" s="1">
         <v>286</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E287" s="13" t="s">
         <v>296</v>
       </c>
       <c r="F287" s="2">
@@ -13044,7 +13077,7 @@
       <c r="C288" s="1">
         <v>287</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E288" s="13" t="s">
         <v>297</v>
       </c>
       <c r="F288" s="2">
@@ -13061,7 +13094,7 @@
       <c r="C289" s="1">
         <v>288</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E289" s="13" t="s">
         <v>298</v>
       </c>
       <c r="F289" s="2">
@@ -13078,7 +13111,7 @@
       <c r="C290" s="1">
         <v>289</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E290" s="13" t="s">
         <v>299</v>
       </c>
       <c r="F290" s="2">
@@ -13095,7 +13128,7 @@
       <c r="C291" s="1">
         <v>290</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E291" s="13" t="s">
         <v>300</v>
       </c>
       <c r="F291" s="2">
@@ -13112,7 +13145,7 @@
       <c r="C292" s="1">
         <v>291</v>
       </c>
-      <c r="E292" t="s">
+      <c r="E292" s="13" t="s">
         <v>301</v>
       </c>
       <c r="F292" s="2">
@@ -13129,7 +13162,7 @@
       <c r="C293" s="1">
         <v>292</v>
       </c>
-      <c r="E293" t="s">
+      <c r="E293" s="13" t="s">
         <v>302</v>
       </c>
       <c r="F293" s="2">
@@ -13146,7 +13179,7 @@
       <c r="C294" s="1">
         <v>293</v>
       </c>
-      <c r="E294" t="s">
+      <c r="E294" s="13" t="s">
         <v>304</v>
       </c>
       <c r="F294" s="2">
@@ -13163,7 +13196,7 @@
       <c r="C295" s="1">
         <v>294</v>
       </c>
-      <c r="E295" t="s">
+      <c r="E295" s="13" t="s">
         <v>305</v>
       </c>
       <c r="F295" s="2">
@@ -13180,7 +13213,7 @@
       <c r="C296" s="1">
         <v>295</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E296" s="13" t="s">
         <v>306</v>
       </c>
       <c r="F296" s="2">
@@ -13197,7 +13230,7 @@
       <c r="C297" s="1">
         <v>296</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E297" s="13" t="s">
         <v>307</v>
       </c>
       <c r="F297" s="2">
@@ -13214,7 +13247,7 @@
       <c r="C298" s="1">
         <v>297</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E298" s="13" t="s">
         <v>308</v>
       </c>
       <c r="F298" s="2">
@@ -13231,7 +13264,7 @@
       <c r="C299" s="1">
         <v>298</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E299" s="13" t="s">
         <v>309</v>
       </c>
       <c r="F299" s="2">

--- a/FreeCodeCamp.xlsx
+++ b/FreeCodeCamp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5AFD7C-0273-4A45-B5D1-83580923D870}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F727794-D41E-4DC0-970F-ABBB1A3142A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{F54C853C-15F0-477F-87CB-91BEF9AD06FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="487">
   <si>
     <t>Basic JavaScript</t>
   </si>
@@ -1439,6 +1439,66 @@
   </si>
   <si>
     <t>PassedFind the Longest Word in a String</t>
+  </si>
+  <si>
+    <t>PassedReturn Largest Numbers in Arrays</t>
+  </si>
+  <si>
+    <t>PassedConfirm the Ending</t>
+  </si>
+  <si>
+    <t>PassedRepeat a String Repeat a String</t>
+  </si>
+  <si>
+    <t>PassedTruncate a String</t>
+  </si>
+  <si>
+    <t>PassedFinders Keepers</t>
+  </si>
+  <si>
+    <t>PassedBoo who</t>
+  </si>
+  <si>
+    <t>PassedTitle Case a Sentence</t>
+  </si>
+  <si>
+    <t>PassedSlice and Splice</t>
+  </si>
+  <si>
+    <t>PassedFalsy Bouncer</t>
+  </si>
+  <si>
+    <t>PassedWhere do I Belong</t>
+  </si>
+  <si>
+    <t>PassedMutations</t>
+  </si>
+  <si>
+    <t>PassedChunky Monkey</t>
+  </si>
+  <si>
+    <t>PassedCreate a Basic JavaScript Object</t>
+  </si>
+  <si>
+    <t>PassedUse Dot Notation to Access the Properties of an Object</t>
+  </si>
+  <si>
+    <t>PassedCreate a Method on an Object</t>
+  </si>
+  <si>
+    <t>PassedMake Code More Reusable with the this Keyword</t>
+  </si>
+  <si>
+    <t>PassedDefine a Constructor Function</t>
+  </si>
+  <si>
+    <t>PassedUse a Constructor to Create Objects</t>
+  </si>
+  <si>
+    <t>PassedExtend Constructors to Receive Arguments</t>
+  </si>
+  <si>
+    <t>PassedVerify an Object's Constructor with instanceof</t>
   </si>
 </sst>
 </file>
@@ -7958,10 +8018,10 @@
   <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B208" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B220" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E209" sqref="E209"/>
+      <selection pane="bottomRight" activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -11652,8 +11712,8 @@
       <c r="E204" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F204" s="12">
-        <v>43469</v>
+      <c r="F204" s="2">
+        <v>43525</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.75">
@@ -11669,8 +11729,8 @@
       <c r="E205" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="F205" s="12">
-        <v>43469</v>
+      <c r="F205" s="2">
+        <v>43525</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.75">
@@ -11687,7 +11747,7 @@
         <v>464</v>
       </c>
       <c r="F206" s="2">
-        <v>43470</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.75">
@@ -11704,7 +11764,7 @@
         <v>465</v>
       </c>
       <c r="F207" s="2">
-        <v>43470</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.75">
@@ -11721,7 +11781,7 @@
         <v>466</v>
       </c>
       <c r="F208" s="2">
-        <v>43470</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.75">
@@ -11734,11 +11794,11 @@
       <c r="C209" s="1">
         <v>208</v>
       </c>
-      <c r="E209" s="13" t="s">
-        <v>215</v>
+      <c r="E209" s="8" t="s">
+        <v>467</v>
       </c>
       <c r="F209" s="2">
-        <v>43470</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.75">
@@ -11751,11 +11811,11 @@
       <c r="C210" s="1">
         <v>209</v>
       </c>
-      <c r="E210" s="13" t="s">
-        <v>216</v>
+      <c r="E210" s="8" t="s">
+        <v>468</v>
       </c>
       <c r="F210" s="2">
-        <v>43470</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.75">
@@ -11768,11 +11828,11 @@
       <c r="C211" s="1">
         <v>210</v>
       </c>
-      <c r="E211" s="13" t="s">
-        <v>217</v>
+      <c r="E211" s="8" t="s">
+        <v>469</v>
       </c>
       <c r="F211" s="2">
-        <v>43470</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.75">
@@ -11785,11 +11845,11 @@
       <c r="C212" s="1">
         <v>211</v>
       </c>
-      <c r="E212" s="13" t="s">
-        <v>218</v>
+      <c r="E212" s="8" t="s">
+        <v>470</v>
       </c>
       <c r="F212" s="2">
-        <v>43470</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.75">
@@ -11802,11 +11862,11 @@
       <c r="C213" s="1">
         <v>212</v>
       </c>
-      <c r="E213" s="13" t="s">
-        <v>219</v>
+      <c r="E213" s="8" t="s">
+        <v>471</v>
       </c>
       <c r="F213" s="2">
-        <v>43470</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.75">
@@ -11819,11 +11879,11 @@
       <c r="C214" s="1">
         <v>213</v>
       </c>
-      <c r="E214" s="13" t="s">
-        <v>220</v>
+      <c r="E214" s="8" t="s">
+        <v>472</v>
       </c>
       <c r="F214" s="2">
-        <v>43470</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.75">
@@ -11836,11 +11896,11 @@
       <c r="C215" s="1">
         <v>214</v>
       </c>
-      <c r="E215" s="13" t="s">
-        <v>221</v>
+      <c r="E215" s="8" t="s">
+        <v>473</v>
       </c>
       <c r="F215" s="2">
-        <v>43470</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.75">
@@ -11853,11 +11913,11 @@
       <c r="C216" s="1">
         <v>215</v>
       </c>
-      <c r="E216" s="13" t="s">
-        <v>222</v>
+      <c r="E216" s="8" t="s">
+        <v>474</v>
       </c>
       <c r="F216" s="2">
-        <v>43471</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.75">
@@ -11870,11 +11930,11 @@
       <c r="C217" s="1">
         <v>216</v>
       </c>
-      <c r="E217" s="13" t="s">
-        <v>223</v>
+      <c r="E217" s="8" t="s">
+        <v>475</v>
       </c>
       <c r="F217" s="2">
-        <v>43471</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.75">
@@ -11887,11 +11947,11 @@
       <c r="C218" s="1">
         <v>217</v>
       </c>
-      <c r="E218" s="13" t="s">
-        <v>224</v>
+      <c r="E218" s="8" t="s">
+        <v>476</v>
       </c>
       <c r="F218" s="2">
-        <v>43471</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.75">
@@ -11904,11 +11964,11 @@
       <c r="C219" s="1">
         <v>218</v>
       </c>
-      <c r="E219" s="13" t="s">
-        <v>225</v>
+      <c r="E219" s="8" t="s">
+        <v>477</v>
       </c>
       <c r="F219" s="2">
-        <v>43471</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.75">
@@ -11921,11 +11981,11 @@
       <c r="C220" s="1">
         <v>219</v>
       </c>
-      <c r="E220" s="13" t="s">
-        <v>226</v>
+      <c r="E220" s="8" t="s">
+        <v>478</v>
       </c>
       <c r="F220" s="2">
-        <v>43471</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.75">
@@ -11938,11 +11998,11 @@
       <c r="C221" s="1">
         <v>220</v>
       </c>
-      <c r="E221" s="13" t="s">
+      <c r="E221" s="8" t="s">
         <v>228</v>
       </c>
       <c r="F221" s="2">
-        <v>43471</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.75">
@@ -11955,11 +12015,11 @@
       <c r="C222" s="1">
         <v>221</v>
       </c>
-      <c r="E222" s="13" t="s">
-        <v>229</v>
+      <c r="E222" s="8" t="s">
+        <v>479</v>
       </c>
       <c r="F222" s="2">
-        <v>43471</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.75">
@@ -11972,11 +12032,11 @@
       <c r="C223" s="1">
         <v>222</v>
       </c>
-      <c r="E223" s="13" t="s">
-        <v>230</v>
+      <c r="E223" s="8" t="s">
+        <v>480</v>
       </c>
       <c r="F223" s="2">
-        <v>43471</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.75">
@@ -11989,11 +12049,11 @@
       <c r="C224" s="1">
         <v>223</v>
       </c>
-      <c r="E224" s="13" t="s">
-        <v>231</v>
+      <c r="E224" s="8" t="s">
+        <v>481</v>
       </c>
       <c r="F224" s="2">
-        <v>43471</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.75">
@@ -12006,11 +12066,11 @@
       <c r="C225" s="1">
         <v>224</v>
       </c>
-      <c r="E225" s="13" t="s">
-        <v>232</v>
+      <c r="E225" s="8" t="s">
+        <v>482</v>
       </c>
       <c r="F225" s="2">
-        <v>43471</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.75">
@@ -12023,11 +12083,11 @@
       <c r="C226" s="1">
         <v>225</v>
       </c>
-      <c r="E226" s="13" t="s">
-        <v>233</v>
+      <c r="E226" s="8" t="s">
+        <v>483</v>
       </c>
       <c r="F226" s="2">
-        <v>43472</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.75">
@@ -12040,11 +12100,11 @@
       <c r="C227" s="1">
         <v>226</v>
       </c>
-      <c r="E227" s="13" t="s">
-        <v>234</v>
+      <c r="E227" s="8" t="s">
+        <v>484</v>
       </c>
       <c r="F227" s="2">
-        <v>43472</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.75">
@@ -12057,11 +12117,11 @@
       <c r="C228" s="1">
         <v>227</v>
       </c>
-      <c r="E228" s="13" t="s">
-        <v>235</v>
+      <c r="E228" s="8" t="s">
+        <v>485</v>
       </c>
       <c r="F228" s="2">
-        <v>43472</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.75">
@@ -12074,11 +12134,11 @@
       <c r="C229" s="1">
         <v>228</v>
       </c>
-      <c r="E229" s="13" t="s">
-        <v>236</v>
+      <c r="E229" s="8" t="s">
+        <v>486</v>
       </c>
       <c r="F229" s="2">
-        <v>43472</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.75">
@@ -12095,7 +12155,7 @@
         <v>237</v>
       </c>
       <c r="F230" s="2">
-        <v>43472</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.75">
@@ -12112,7 +12172,7 @@
         <v>238</v>
       </c>
       <c r="F231" s="2">
-        <v>43472</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.75">
@@ -12129,7 +12189,7 @@
         <v>239</v>
       </c>
       <c r="F232" s="2">
-        <v>43472</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.75">
@@ -12146,7 +12206,7 @@
         <v>240</v>
       </c>
       <c r="F233" s="2">
-        <v>43472</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.75">
@@ -12163,7 +12223,7 @@
         <v>241</v>
       </c>
       <c r="F234" s="2">
-        <v>43472</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.75">
@@ -12180,7 +12240,7 @@
         <v>242</v>
       </c>
       <c r="F235" s="2">
-        <v>43472</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.75">
@@ -12197,7 +12257,7 @@
         <v>243</v>
       </c>
       <c r="F236" s="2">
-        <v>43473</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.75">
@@ -12214,7 +12274,7 @@
         <v>244</v>
       </c>
       <c r="F237" s="2">
-        <v>43473</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.75">
@@ -12231,7 +12291,7 @@
         <v>245</v>
       </c>
       <c r="F238" s="2">
-        <v>43473</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.75">
@@ -12248,7 +12308,7 @@
         <v>246</v>
       </c>
       <c r="F239" s="2">
-        <v>43473</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.75">
@@ -12265,7 +12325,7 @@
         <v>247</v>
       </c>
       <c r="F240" s="2">
-        <v>43473</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.75">
@@ -12282,7 +12342,7 @@
         <v>248</v>
       </c>
       <c r="F241" s="2">
-        <v>43473</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.75">
@@ -12299,7 +12359,7 @@
         <v>249</v>
       </c>
       <c r="F242" s="2">
-        <v>43473</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.75">
@@ -12316,7 +12376,7 @@
         <v>250</v>
       </c>
       <c r="F243" s="2">
-        <v>43473</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.75">
@@ -12333,7 +12393,7 @@
         <v>251</v>
       </c>
       <c r="F244" s="2">
-        <v>43473</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.75">
@@ -12350,7 +12410,7 @@
         <v>252</v>
       </c>
       <c r="F245" s="2">
-        <v>43473</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.75">
@@ -12367,7 +12427,7 @@
         <v>253</v>
       </c>
       <c r="F246" s="2">
-        <v>43474</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.75">
@@ -12384,7 +12444,7 @@
         <v>254</v>
       </c>
       <c r="F247" s="2">
-        <v>43474</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.75">
@@ -12401,7 +12461,7 @@
         <v>256</v>
       </c>
       <c r="F248" s="2">
-        <v>43474</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.75">
@@ -12418,7 +12478,7 @@
         <v>257</v>
       </c>
       <c r="F249" s="2">
-        <v>43474</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.75">
@@ -12435,7 +12495,7 @@
         <v>258</v>
       </c>
       <c r="F250" s="2">
-        <v>43474</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.75">
@@ -12452,7 +12512,7 @@
         <v>259</v>
       </c>
       <c r="F251" s="2">
-        <v>43474</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.75">
@@ -12469,7 +12529,7 @@
         <v>260</v>
       </c>
       <c r="F252" s="2">
-        <v>43474</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.75">
@@ -12486,7 +12546,7 @@
         <v>261</v>
       </c>
       <c r="F253" s="2">
-        <v>43474</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.75">
@@ -12503,7 +12563,7 @@
         <v>262</v>
       </c>
       <c r="F254" s="2">
-        <v>43474</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.75">
@@ -12520,7 +12580,7 @@
         <v>263</v>
       </c>
       <c r="F255" s="2">
-        <v>43474</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.75">
@@ -12537,7 +12597,7 @@
         <v>264</v>
       </c>
       <c r="F256" s="2">
-        <v>43475</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.75">
@@ -12554,7 +12614,7 @@
         <v>265</v>
       </c>
       <c r="F257" s="2">
-        <v>43475</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.75">
@@ -12571,7 +12631,7 @@
         <v>266</v>
       </c>
       <c r="F258" s="2">
-        <v>43475</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.75">
@@ -12588,7 +12648,7 @@
         <v>267</v>
       </c>
       <c r="F259" s="2">
-        <v>43475</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.75">
@@ -12605,7 +12665,7 @@
         <v>268</v>
       </c>
       <c r="F260" s="2">
-        <v>43475</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.75">
@@ -12622,7 +12682,7 @@
         <v>269</v>
       </c>
       <c r="F261" s="2">
-        <v>43475</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.75">
@@ -12639,7 +12699,7 @@
         <v>270</v>
       </c>
       <c r="F262" s="2">
-        <v>43475</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.75">
@@ -12656,7 +12716,7 @@
         <v>271</v>
       </c>
       <c r="F263" s="2">
-        <v>43475</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.75">
@@ -12673,7 +12733,7 @@
         <v>272</v>
       </c>
       <c r="F264" s="2">
-        <v>43475</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.75">
@@ -12690,7 +12750,7 @@
         <v>273</v>
       </c>
       <c r="F265" s="2">
-        <v>43475</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.75">
@@ -12707,7 +12767,7 @@
         <v>274</v>
       </c>
       <c r="F266" s="2">
-        <v>43476</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.75">
@@ -12724,7 +12784,7 @@
         <v>275</v>
       </c>
       <c r="F267" s="2">
-        <v>43476</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.75">
@@ -12741,7 +12801,7 @@
         <v>276</v>
       </c>
       <c r="F268" s="2">
-        <v>43476</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.75">
@@ -12758,7 +12818,7 @@
         <v>277</v>
       </c>
       <c r="F269" s="2">
-        <v>43476</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.75">
@@ -12775,7 +12835,7 @@
         <v>278</v>
       </c>
       <c r="F270" s="2">
-        <v>43476</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.75">
@@ -12792,7 +12852,7 @@
         <v>279</v>
       </c>
       <c r="F271" s="2">
-        <v>43476</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.75">
@@ -12809,7 +12869,7 @@
         <v>281</v>
       </c>
       <c r="F272" s="2">
-        <v>43476</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.75">
@@ -12826,7 +12886,7 @@
         <v>282</v>
       </c>
       <c r="F273" s="2">
-        <v>43476</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.75">
@@ -12843,7 +12903,7 @@
         <v>283</v>
       </c>
       <c r="F274" s="2">
-        <v>43476</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.75">
@@ -12860,7 +12920,7 @@
         <v>284</v>
       </c>
       <c r="F275" s="2">
-        <v>43476</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.75">
@@ -12877,7 +12937,7 @@
         <v>285</v>
       </c>
       <c r="F276" s="2">
-        <v>43477</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.75">
@@ -12894,7 +12954,7 @@
         <v>286</v>
       </c>
       <c r="F277" s="2">
-        <v>43477</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.75">
@@ -12911,7 +12971,7 @@
         <v>287</v>
       </c>
       <c r="F278" s="2">
-        <v>43477</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.75">
@@ -12928,7 +12988,7 @@
         <v>288</v>
       </c>
       <c r="F279" s="2">
-        <v>43477</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.75">
@@ -12945,7 +13005,7 @@
         <v>289</v>
       </c>
       <c r="F280" s="2">
-        <v>43477</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.75">
@@ -12962,7 +13022,7 @@
         <v>290</v>
       </c>
       <c r="F281" s="2">
-        <v>43477</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.75">
@@ -12979,7 +13039,7 @@
         <v>291</v>
       </c>
       <c r="F282" s="2">
-        <v>43477</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.75">
@@ -12996,7 +13056,7 @@
         <v>292</v>
       </c>
       <c r="F283" s="2">
-        <v>43477</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.75">
@@ -13013,7 +13073,7 @@
         <v>293</v>
       </c>
       <c r="F284" s="2">
-        <v>43477</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.75">
@@ -13030,7 +13090,7 @@
         <v>294</v>
       </c>
       <c r="F285" s="2">
-        <v>43477</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.75">
@@ -13047,7 +13107,7 @@
         <v>295</v>
       </c>
       <c r="F286" s="2">
-        <v>43478</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.75">
@@ -13064,7 +13124,7 @@
         <v>296</v>
       </c>
       <c r="F287" s="2">
-        <v>43478</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.75">
@@ -13081,7 +13141,7 @@
         <v>297</v>
       </c>
       <c r="F288" s="2">
-        <v>43478</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.75">
@@ -13098,7 +13158,7 @@
         <v>298</v>
       </c>
       <c r="F289" s="2">
-        <v>43478</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.75">
@@ -13115,7 +13175,7 @@
         <v>299</v>
       </c>
       <c r="F290" s="2">
-        <v>43478</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.75">
@@ -13132,7 +13192,7 @@
         <v>300</v>
       </c>
       <c r="F291" s="2">
-        <v>43478</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.75">
@@ -13149,7 +13209,7 @@
         <v>301</v>
       </c>
       <c r="F292" s="2">
-        <v>43478</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.75">
@@ -13166,7 +13226,7 @@
         <v>302</v>
       </c>
       <c r="F293" s="2">
-        <v>43478</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.75">
@@ -13183,7 +13243,7 @@
         <v>304</v>
       </c>
       <c r="F294" s="2">
-        <v>43478</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.75">
@@ -13200,7 +13260,7 @@
         <v>305</v>
       </c>
       <c r="F295" s="2">
-        <v>43478</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.75">
@@ -13217,7 +13277,7 @@
         <v>306</v>
       </c>
       <c r="F296" s="2">
-        <v>43479</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.75">
@@ -13234,7 +13294,7 @@
         <v>307</v>
       </c>
       <c r="F297" s="2">
-        <v>43479</v>
+        <v>43534</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.75">
@@ -13251,7 +13311,7 @@
         <v>308</v>
       </c>
       <c r="F298" s="2">
-        <v>43479</v>
+        <v>43534</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.75">
@@ -13268,7 +13328,7 @@
         <v>309</v>
       </c>
       <c r="F299" s="2">
-        <v>43479</v>
+        <v>43534</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.75">
